--- a/PortfolioProject.xlsx
+++ b/PortfolioProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905702BF-C822-487D-AD93-CCD1849EB4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA7547A-8612-4BA5-9EBF-F4348FF6857B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
@@ -22,24 +22,51 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$B$3:$H$1003</definedName>
     <definedName name="_xlcn.WorksheetConnection_PortfolioProject.xlsxcalls1" hidden="1">calls[]</definedName>
     <definedName name="_xlcn.WorksheetConnection_PortfolioProject.xlsxcustomers1" hidden="1">customers[]</definedName>
+    <definedName name="Slicer_Representative">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId5"/>
+    <pivotCache cacheId="103" r:id="rId5"/>
+    <pivotCache cacheId="106" r:id="rId6"/>
+    <pivotCache cacheId="112" r:id="rId7"/>
+    <pivotCache cacheId="131" r:id="rId8"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
+      <x14:pivotCaches>
+        <pivotCache cacheId="102" r:id="rId9"/>
+      </x14:pivotCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId10"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
       <x15:dataModel>
         <x15:modelTables>
+          <x15:modelTable id="customers" name="customers" connection="WorksheetConnection_PortfolioProject.xlsx!customers"/>
           <x15:modelTable id="calls" name="calls" connection="WorksheetConnection_PortfolioProject.xlsx!calls"/>
-          <x15:modelTable id="customers" name="customers" connection="WorksheetConnection_PortfolioProject.xlsx!customers"/>
         </x15:modelTables>
         <x15:modelRelationships>
           <x15:modelRelationship fromTable="calls" fromColumn="Customer ID" toTable="customers" toColumn="Customer ID"/>
         </x15:modelRelationships>
+        <x15:extLst>
+          <ext xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" uri="{9835A34E-60A6-4A7C-AAB8-D5F71C897F49}">
+            <x16:modelTimeGroupings>
+              <x16:modelTimeGrouping tableName="calls" columnName="Date of Call" columnId="Date of Call">
+                <x16:calculatedTimeColumn columnName="Date of Call (Month Index)" columnId="Date of Call (Month Index)" contentType="monthsindex" isSelected="1"/>
+                <x16:calculatedTimeColumn columnName="Date of Call (Month)" columnId="Date of Call (Month)" contentType="months" isSelected="1"/>
+              </x16:modelTimeGrouping>
+            </x16:modelTimeGroupings>
+          </ext>
+        </x15:extLst>
       </x15:dataModel>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -88,7 +115,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -110,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="1070">
   <si>
     <t>Customer ID</t>
   </si>
@@ -3248,6 +3275,78 @@
   </si>
   <si>
     <t>Avg.Rating</t>
+  </si>
+  <si>
+    <t>5 * Rating Calls</t>
+  </si>
+  <si>
+    <t>Copying this above pivot just for getting slicer connection</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Call Count2</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
   </si>
 </sst>
 </file>
@@ -3259,7 +3358,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0;\-\$#,##0;\$#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3286,6 +3385,13 @@
       <color theme="1"/>
       <name val="Aptos ExtraBold"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3431,7 +3537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3466,6 +3572,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3651,7 +3762,3091 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[PortfolioProject.xlsx]Pivots!PivotTable3</c:name>
+    <c:fmtId val="9"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.0771055386249611E-2"/>
+          <c:y val="3.3557046979865772E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="1"/>
+            <a:tileRect/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivots!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Call Count2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivots!$A$16:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivots!$C$16:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C4A-429A-8203-2DA9332ED80E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="766647280"/>
+        <c:axId val="766644400"/>
+      </c:areaChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivots!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Call Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivots!$A$16:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivots!$B$16:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7C4A-429A-8203-2DA9332ED80E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="766647280"/>
+        <c:axId val="766644400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="766647280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766644400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766644400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766647280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="74000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Pivots!A4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AE81FA-431D-A543-671D-55BA15769D6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="358140" y="525780"/>
+          <a:ext cx="1394460" cy="1013460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="254000" dist="127000" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{ACE063F1-C6C2-4EC3-B376-501FDC27F743}" type="TxLink">
+            <a:rPr lang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>1,000</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-IN" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08585D00-8BA3-73EC-EC8C-5440004E9D44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792480" y="571500"/>
+          <a:ext cx="990600" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Calls</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>118775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295592</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>70505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Graphic 3" descr="Receiver with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29BA5DD-1573-4162-95DA-7BE954A4AA92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="1490854">
+          <a:off x="667415" y="632003"/>
+          <a:ext cx="176817" cy="170022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Pivots!A11">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14AAC870-41CE-9F9B-36E5-644E9A4251CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="541020" y="1272540"/>
+          <a:ext cx="815340" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{4F9B63F6-FA8F-4999-A7AB-A436EC3DCABA}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Display"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>418</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Pivots!B4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D09B13-AF21-4420-AE07-32F2E7C22159}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="373380" y="2011680"/>
+          <a:ext cx="1394460" cy="1013460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="254000" dist="127000" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:fld id="{459D26EB-CFA6-4F3C-9E2C-3726508212A4}" type="TxLink">
+            <a:rPr lang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:t>$96,623</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-IN" sz="2800" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D09850C-7AD3-4C4B-990A-2BCCFEFAF64B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="2080260"/>
+          <a:ext cx="990600" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Amount</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45973</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>215995</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>108605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Graphic 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE93265F-AC9F-4B61-AF4C-8D0A83317FC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="594613" y="2133143"/>
+          <a:ext cx="170022" cy="170022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Pivots!B11">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B638ED65-0AE5-4EEB-88A8-7897CF75A683}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="601980" y="2781300"/>
+          <a:ext cx="815340" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:fld id="{639B7A40-9E3C-4319-BB72-F3254F73FCD8}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Display"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:t>$40,685</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Display"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Pivots!C4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ADF3304-B84D-4E88-A9F8-18C69EE9B7D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="3474720"/>
+          <a:ext cx="1394460" cy="1013460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="254000" dist="127000" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:fld id="{4F44623C-0670-4886-8D4C-3DED4D120C19}" type="TxLink">
+            <a:rPr lang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:t>89,850</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-IN" sz="2800" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4718DD02-894F-40A6-98AD-C18066EBA0E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769620" y="3573780"/>
+          <a:ext cx="990600" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Duration</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>68832</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238854</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>131465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Graphic 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32BA53C8-961A-462A-9726-53FADD6613B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617472" y="3619043"/>
+          <a:ext cx="170022" cy="170022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Pivots!C11">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2626F0DD-95B4-4427-BE46-493F2628549F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="601980" y="4282440"/>
+          <a:ext cx="815340" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:fld id="{0DD402F4-985B-412C-B058-8713444C7F13}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Display"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:t>37,509</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Display"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Pivots!D4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DEF108-A62C-4C27-AC68-A84160ABCB07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="388620" y="4960620"/>
+          <a:ext cx="1394460" cy="1013460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="254000" dist="127000" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:fld id="{FAD22840-CF73-4183-8021-AA93F4AD6306}" type="TxLink">
+            <a:rPr lang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:t>3.9</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-IN" sz="2800" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44530EDD-D2A3-435E-AB37-6125A69A7D78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="701040" y="5044440"/>
+          <a:ext cx="990600" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Avg.Rating</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>236473</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>191209</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Graphic 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E8BD42-52D2-40B7-9355-43F53E1D29E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="510793" y="5059224"/>
+          <a:ext cx="229056" cy="229056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Pivots!D11">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A4AC5C-C330-42D5-AC56-3729379CB545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="594360" y="5783580"/>
+          <a:ext cx="815340" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{AA4A4EA4-5205-4876-AF91-BEBF618EDA1B}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Display"/>
+            </a:rPr>
+            <a:t>3.9</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Pivots!E4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE53FDC9-FF94-442A-AEC9-89C6E6004E77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="388620" y="6530340"/>
+          <a:ext cx="1394460" cy="1013460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="254000" dist="127000" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:fld id="{362C4705-9F3B-41F6-BD74-DEAA1AC27EF6}" type="TxLink">
+            <a:rPr lang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:t>307</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3EC879F-6258-4C93-8CF7-B27ABF39BFBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="6576060"/>
+          <a:ext cx="1638300" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Happy callers</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>221232</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>37643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>116934</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>24785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Graphic 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC2C8392-0297-44D1-9E80-D029083ACA06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495552" y="6621323"/>
+          <a:ext cx="170022" cy="170022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Pivots!E11">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC3016E-7F32-4CA9-89C4-D53ECDE98ED6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="7277100"/>
+          <a:ext cx="815340" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:fld id="{4B307647-C041-4D96-8005-B5C294EA9864}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Display"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:t>125</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Display"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="26" name="Representative">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF5D313-517D-4EF5-91B8-116BF94DC547}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Representative"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11216640" y="1828800"/>
+              <a:ext cx="1828800" cy="2581275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="Chart 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B065C2-AF68-40F5-A3BA-B2914393E151}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4208,19 +7403,470 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45987.490103472221" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5A01795F-9531-461F-AAF6-2F91B68DDDE2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.428668749999" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{E23C2199-6754-4875-997D-89C3EC5D8644}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="4">
-    <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="15" level="32767"/>
-    <cacheField name="[Measures].[Total Amount]" caption="Total Amount" numFmtId="0" hierarchy="16" level="32767"/>
-    <cacheField name="[Measures].[Total Duration]" caption="Total Duration" numFmtId="0" hierarchy="17" level="32767"/>
-    <cacheField name="[Measures].[Avg.Rating]" caption="Avg.Rating" numFmtId="0" hierarchy="18" level="32767"/>
+  <cacheFields count="5">
+    <cacheField name="[calls].[Date of Call].[Date of Call]" caption="Date of Call" numFmtId="0" hierarchy="4" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-01-01T00:00:00" maxDate="2024-01-01T00:00:00" count="330">
+        <d v="2023-01-01T00:00:00"/>
+        <d v="2023-01-02T00:00:00"/>
+        <d v="2023-01-03T00:00:00"/>
+        <d v="2023-01-04T00:00:00"/>
+        <d v="2023-01-05T00:00:00"/>
+        <d v="2023-01-06T00:00:00"/>
+        <d v="2023-01-07T00:00:00"/>
+        <d v="2023-01-08T00:00:00"/>
+        <d v="2023-01-09T00:00:00"/>
+        <d v="2023-01-10T00:00:00"/>
+        <d v="2023-01-12T00:00:00"/>
+        <d v="2023-01-14T00:00:00"/>
+        <d v="2023-01-15T00:00:00"/>
+        <d v="2023-01-16T00:00:00"/>
+        <d v="2023-01-17T00:00:00"/>
+        <d v="2023-01-18T00:00:00"/>
+        <d v="2023-01-19T00:00:00"/>
+        <d v="2023-01-20T00:00:00"/>
+        <d v="2023-01-21T00:00:00"/>
+        <d v="2023-01-22T00:00:00"/>
+        <d v="2023-01-23T00:00:00"/>
+        <d v="2023-01-24T00:00:00"/>
+        <d v="2023-01-25T00:00:00"/>
+        <d v="2023-01-26T00:00:00"/>
+        <d v="2023-01-27T00:00:00"/>
+        <d v="2023-01-28T00:00:00"/>
+        <d v="2023-01-30T00:00:00"/>
+        <d v="2023-01-31T00:00:00"/>
+        <d v="2023-02-01T00:00:00"/>
+        <d v="2023-02-02T00:00:00"/>
+        <d v="2023-02-04T00:00:00"/>
+        <d v="2023-02-05T00:00:00"/>
+        <d v="2023-02-07T00:00:00"/>
+        <d v="2023-02-08T00:00:00"/>
+        <d v="2023-02-09T00:00:00"/>
+        <d v="2023-02-10T00:00:00"/>
+        <d v="2023-02-11T00:00:00"/>
+        <d v="2023-02-12T00:00:00"/>
+        <d v="2023-02-13T00:00:00"/>
+        <d v="2023-02-14T00:00:00"/>
+        <d v="2023-02-15T00:00:00"/>
+        <d v="2023-02-16T00:00:00"/>
+        <d v="2023-02-17T00:00:00"/>
+        <d v="2023-02-18T00:00:00"/>
+        <d v="2023-02-19T00:00:00"/>
+        <d v="2023-02-20T00:00:00"/>
+        <d v="2023-02-21T00:00:00"/>
+        <d v="2023-02-22T00:00:00"/>
+        <d v="2023-02-23T00:00:00"/>
+        <d v="2023-02-24T00:00:00"/>
+        <d v="2023-02-25T00:00:00"/>
+        <d v="2023-02-26T00:00:00"/>
+        <d v="2023-02-27T00:00:00"/>
+        <d v="2023-02-28T00:00:00"/>
+        <d v="2023-03-01T00:00:00"/>
+        <d v="2023-03-02T00:00:00"/>
+        <d v="2023-03-03T00:00:00"/>
+        <d v="2023-03-04T00:00:00"/>
+        <d v="2023-03-05T00:00:00"/>
+        <d v="2023-03-06T00:00:00"/>
+        <d v="2023-03-07T00:00:00"/>
+        <d v="2023-03-08T00:00:00"/>
+        <d v="2023-03-09T00:00:00"/>
+        <d v="2023-03-10T00:00:00"/>
+        <d v="2023-03-11T00:00:00"/>
+        <d v="2023-03-12T00:00:00"/>
+        <d v="2023-03-13T00:00:00"/>
+        <d v="2023-03-14T00:00:00"/>
+        <d v="2023-03-15T00:00:00"/>
+        <d v="2023-03-16T00:00:00"/>
+        <d v="2023-03-17T00:00:00"/>
+        <d v="2023-03-18T00:00:00"/>
+        <d v="2023-03-19T00:00:00"/>
+        <d v="2023-03-20T00:00:00"/>
+        <d v="2023-03-21T00:00:00"/>
+        <d v="2023-03-22T00:00:00"/>
+        <d v="2023-03-23T00:00:00"/>
+        <d v="2023-03-24T00:00:00"/>
+        <d v="2023-03-25T00:00:00"/>
+        <d v="2023-03-26T00:00:00"/>
+        <d v="2023-03-27T00:00:00"/>
+        <d v="2023-03-28T00:00:00"/>
+        <d v="2023-03-29T00:00:00"/>
+        <d v="2023-03-31T00:00:00"/>
+        <d v="2023-04-01T00:00:00"/>
+        <d v="2023-04-02T00:00:00"/>
+        <d v="2023-04-03T00:00:00"/>
+        <d v="2023-04-04T00:00:00"/>
+        <d v="2023-04-05T00:00:00"/>
+        <d v="2023-04-06T00:00:00"/>
+        <d v="2023-04-07T00:00:00"/>
+        <d v="2023-04-08T00:00:00"/>
+        <d v="2023-04-09T00:00:00"/>
+        <d v="2023-04-10T00:00:00"/>
+        <d v="2023-04-11T00:00:00"/>
+        <d v="2023-04-12T00:00:00"/>
+        <d v="2023-04-13T00:00:00"/>
+        <d v="2023-04-14T00:00:00"/>
+        <d v="2023-04-15T00:00:00"/>
+        <d v="2023-04-16T00:00:00"/>
+        <d v="2023-04-17T00:00:00"/>
+        <d v="2023-04-18T00:00:00"/>
+        <d v="2023-04-19T00:00:00"/>
+        <d v="2023-04-20T00:00:00"/>
+        <d v="2023-04-21T00:00:00"/>
+        <d v="2023-04-22T00:00:00"/>
+        <d v="2023-04-23T00:00:00"/>
+        <d v="2023-04-24T00:00:00"/>
+        <d v="2023-04-25T00:00:00"/>
+        <d v="2023-04-26T00:00:00"/>
+        <d v="2023-04-27T00:00:00"/>
+        <d v="2023-04-28T00:00:00"/>
+        <d v="2023-04-29T00:00:00"/>
+        <d v="2023-04-30T00:00:00"/>
+        <d v="2023-05-01T00:00:00"/>
+        <d v="2023-05-02T00:00:00"/>
+        <d v="2023-05-03T00:00:00"/>
+        <d v="2023-05-04T00:00:00"/>
+        <d v="2023-05-06T00:00:00"/>
+        <d v="2023-05-07T00:00:00"/>
+        <d v="2023-05-08T00:00:00"/>
+        <d v="2023-05-09T00:00:00"/>
+        <d v="2023-05-10T00:00:00"/>
+        <d v="2023-05-11T00:00:00"/>
+        <d v="2023-05-12T00:00:00"/>
+        <d v="2023-05-14T00:00:00"/>
+        <d v="2023-05-15T00:00:00"/>
+        <d v="2023-05-16T00:00:00"/>
+        <d v="2023-05-17T00:00:00"/>
+        <d v="2023-05-18T00:00:00"/>
+        <d v="2023-05-19T00:00:00"/>
+        <d v="2023-05-21T00:00:00"/>
+        <d v="2023-05-22T00:00:00"/>
+        <d v="2023-05-23T00:00:00"/>
+        <d v="2023-05-24T00:00:00"/>
+        <d v="2023-05-25T00:00:00"/>
+        <d v="2023-05-26T00:00:00"/>
+        <d v="2023-05-27T00:00:00"/>
+        <d v="2023-05-28T00:00:00"/>
+        <d v="2023-05-29T00:00:00"/>
+        <d v="2023-05-30T00:00:00"/>
+        <d v="2023-05-31T00:00:00"/>
+        <d v="2023-06-01T00:00:00"/>
+        <d v="2023-06-03T00:00:00"/>
+        <d v="2023-06-04T00:00:00"/>
+        <d v="2023-06-05T00:00:00"/>
+        <d v="2023-06-06T00:00:00"/>
+        <d v="2023-06-07T00:00:00"/>
+        <d v="2023-06-08T00:00:00"/>
+        <d v="2023-06-09T00:00:00"/>
+        <d v="2023-06-10T00:00:00"/>
+        <d v="2023-06-11T00:00:00"/>
+        <d v="2023-06-12T00:00:00"/>
+        <d v="2023-06-13T00:00:00"/>
+        <d v="2023-06-14T00:00:00"/>
+        <d v="2023-06-15T00:00:00"/>
+        <d v="2023-06-16T00:00:00"/>
+        <d v="2023-06-17T00:00:00"/>
+        <d v="2023-06-18T00:00:00"/>
+        <d v="2023-06-19T00:00:00"/>
+        <d v="2023-06-20T00:00:00"/>
+        <d v="2023-06-21T00:00:00"/>
+        <d v="2023-06-23T00:00:00"/>
+        <d v="2023-06-24T00:00:00"/>
+        <d v="2023-06-25T00:00:00"/>
+        <d v="2023-06-26T00:00:00"/>
+        <d v="2023-06-27T00:00:00"/>
+        <d v="2023-06-28T00:00:00"/>
+        <d v="2023-06-29T00:00:00"/>
+        <d v="2023-06-30T00:00:00"/>
+        <d v="2023-07-01T00:00:00"/>
+        <d v="2023-07-02T00:00:00"/>
+        <d v="2023-07-04T00:00:00"/>
+        <d v="2023-07-05T00:00:00"/>
+        <d v="2023-07-06T00:00:00"/>
+        <d v="2023-07-07T00:00:00"/>
+        <d v="2023-07-08T00:00:00"/>
+        <d v="2023-07-09T00:00:00"/>
+        <d v="2023-07-10T00:00:00"/>
+        <d v="2023-07-11T00:00:00"/>
+        <d v="2023-07-12T00:00:00"/>
+        <d v="2023-07-13T00:00:00"/>
+        <d v="2023-07-14T00:00:00"/>
+        <d v="2023-07-15T00:00:00"/>
+        <d v="2023-07-16T00:00:00"/>
+        <d v="2023-07-17T00:00:00"/>
+        <d v="2023-07-18T00:00:00"/>
+        <d v="2023-07-19T00:00:00"/>
+        <d v="2023-07-20T00:00:00"/>
+        <d v="2023-07-21T00:00:00"/>
+        <d v="2023-07-22T00:00:00"/>
+        <d v="2023-07-25T00:00:00"/>
+        <d v="2023-07-26T00:00:00"/>
+        <d v="2023-07-27T00:00:00"/>
+        <d v="2023-07-28T00:00:00"/>
+        <d v="2023-07-29T00:00:00"/>
+        <d v="2023-07-31T00:00:00"/>
+        <d v="2023-08-02T00:00:00"/>
+        <d v="2023-08-03T00:00:00"/>
+        <d v="2023-08-04T00:00:00"/>
+        <d v="2023-08-05T00:00:00"/>
+        <d v="2023-08-06T00:00:00"/>
+        <d v="2023-08-07T00:00:00"/>
+        <d v="2023-08-08T00:00:00"/>
+        <d v="2023-08-10T00:00:00"/>
+        <d v="2023-08-12T00:00:00"/>
+        <d v="2023-08-13T00:00:00"/>
+        <d v="2023-08-16T00:00:00"/>
+        <d v="2023-08-17T00:00:00"/>
+        <d v="2023-08-18T00:00:00"/>
+        <d v="2023-08-19T00:00:00"/>
+        <d v="2023-08-20T00:00:00"/>
+        <d v="2023-08-21T00:00:00"/>
+        <d v="2023-08-23T00:00:00"/>
+        <d v="2023-08-24T00:00:00"/>
+        <d v="2023-08-25T00:00:00"/>
+        <d v="2023-08-26T00:00:00"/>
+        <d v="2023-08-27T00:00:00"/>
+        <d v="2023-08-29T00:00:00"/>
+        <d v="2023-08-30T00:00:00"/>
+        <d v="2023-08-31T00:00:00"/>
+        <d v="2023-09-01T00:00:00"/>
+        <d v="2023-09-03T00:00:00"/>
+        <d v="2023-09-04T00:00:00"/>
+        <d v="2023-09-05T00:00:00"/>
+        <d v="2023-09-06T00:00:00"/>
+        <d v="2023-09-07T00:00:00"/>
+        <d v="2023-09-08T00:00:00"/>
+        <d v="2023-09-09T00:00:00"/>
+        <d v="2023-09-10T00:00:00"/>
+        <d v="2023-09-12T00:00:00"/>
+        <d v="2023-09-13T00:00:00"/>
+        <d v="2023-09-14T00:00:00"/>
+        <d v="2023-09-15T00:00:00"/>
+        <d v="2023-09-16T00:00:00"/>
+        <d v="2023-09-17T00:00:00"/>
+        <d v="2023-09-19T00:00:00"/>
+        <d v="2023-09-20T00:00:00"/>
+        <d v="2023-09-21T00:00:00"/>
+        <d v="2023-09-22T00:00:00"/>
+        <d v="2023-09-23T00:00:00"/>
+        <d v="2023-09-24T00:00:00"/>
+        <d v="2023-09-25T00:00:00"/>
+        <d v="2023-09-26T00:00:00"/>
+        <d v="2023-09-27T00:00:00"/>
+        <d v="2023-09-28T00:00:00"/>
+        <d v="2023-09-29T00:00:00"/>
+        <d v="2023-09-30T00:00:00"/>
+        <d v="2023-10-01T00:00:00"/>
+        <d v="2023-10-02T00:00:00"/>
+        <d v="2023-10-03T00:00:00"/>
+        <d v="2023-10-04T00:00:00"/>
+        <d v="2023-10-05T00:00:00"/>
+        <d v="2023-10-06T00:00:00"/>
+        <d v="2023-10-07T00:00:00"/>
+        <d v="2023-10-08T00:00:00"/>
+        <d v="2023-10-09T00:00:00"/>
+        <d v="2023-10-10T00:00:00"/>
+        <d v="2023-10-11T00:00:00"/>
+        <d v="2023-10-12T00:00:00"/>
+        <d v="2023-10-13T00:00:00"/>
+        <d v="2023-10-14T00:00:00"/>
+        <d v="2023-10-15T00:00:00"/>
+        <d v="2023-10-16T00:00:00"/>
+        <d v="2023-10-17T00:00:00"/>
+        <d v="2023-10-18T00:00:00"/>
+        <d v="2023-10-19T00:00:00"/>
+        <d v="2023-10-20T00:00:00"/>
+        <d v="2023-10-21T00:00:00"/>
+        <d v="2023-10-22T00:00:00"/>
+        <d v="2023-10-23T00:00:00"/>
+        <d v="2023-10-24T00:00:00"/>
+        <d v="2023-10-25T00:00:00"/>
+        <d v="2023-10-26T00:00:00"/>
+        <d v="2023-10-27T00:00:00"/>
+        <d v="2023-10-28T00:00:00"/>
+        <d v="2023-10-29T00:00:00"/>
+        <d v="2023-10-30T00:00:00"/>
+        <d v="2023-10-31T00:00:00"/>
+        <d v="2023-11-01T00:00:00"/>
+        <d v="2023-11-02T00:00:00"/>
+        <d v="2023-11-03T00:00:00"/>
+        <d v="2023-11-04T00:00:00"/>
+        <d v="2023-11-06T00:00:00"/>
+        <d v="2023-11-07T00:00:00"/>
+        <d v="2023-11-08T00:00:00"/>
+        <d v="2023-11-09T00:00:00"/>
+        <d v="2023-11-10T00:00:00"/>
+        <d v="2023-11-11T00:00:00"/>
+        <d v="2023-11-12T00:00:00"/>
+        <d v="2023-11-13T00:00:00"/>
+        <d v="2023-11-14T00:00:00"/>
+        <d v="2023-11-15T00:00:00"/>
+        <d v="2023-11-16T00:00:00"/>
+        <d v="2023-11-17T00:00:00"/>
+        <d v="2023-11-18T00:00:00"/>
+        <d v="2023-11-19T00:00:00"/>
+        <d v="2023-11-20T00:00:00"/>
+        <d v="2023-11-21T00:00:00"/>
+        <d v="2023-11-23T00:00:00"/>
+        <d v="2023-11-24T00:00:00"/>
+        <d v="2023-11-26T00:00:00"/>
+        <d v="2023-11-27T00:00:00"/>
+        <d v="2023-11-28T00:00:00"/>
+        <d v="2023-11-29T00:00:00"/>
+        <d v="2023-11-30T00:00:00"/>
+        <d v="2023-12-01T00:00:00"/>
+        <d v="2023-12-02T00:00:00"/>
+        <d v="2023-12-03T00:00:00"/>
+        <d v="2023-12-04T00:00:00"/>
+        <d v="2023-12-05T00:00:00"/>
+        <d v="2023-12-07T00:00:00"/>
+        <d v="2023-12-08T00:00:00"/>
+        <d v="2023-12-09T00:00:00"/>
+        <d v="2023-12-13T00:00:00"/>
+        <d v="2023-12-14T00:00:00"/>
+        <d v="2023-12-15T00:00:00"/>
+        <d v="2023-12-16T00:00:00"/>
+        <d v="2023-12-17T00:00:00"/>
+        <d v="2023-12-19T00:00:00"/>
+        <d v="2023-12-20T00:00:00"/>
+        <d v="2023-12-21T00:00:00"/>
+        <d v="2023-12-24T00:00:00"/>
+        <d v="2023-12-25T00:00:00"/>
+        <d v="2023-12-26T00:00:00"/>
+        <d v="2023-12-27T00:00:00"/>
+        <d v="2023-12-28T00:00:00"/>
+        <d v="2023-12-29T00:00:00"/>
+        <d v="2023-12-30T00:00:00"/>
+        <d v="2023-12-31T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[calls].[Date of Call (Month)].[Date of Call (Month)]" caption="Date of Call (Month)" numFmtId="0" hierarchy="11" level="1">
+      <sharedItems count="12">
+        <s v="Jan"/>
+        <s v="Feb"/>
+        <s v="Mar"/>
+        <s v="Apr"/>
+        <s v="May"/>
+        <s v="Jun"/>
+        <s v="Jul"/>
+        <s v="Aug"/>
+        <s v="Sep"/>
+        <s v="Oct"/>
+        <s v="Nov"/>
+        <s v="Dec"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
+    <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="Unsupported0" numFmtId="0" hierarchy="25" level="32767">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{63CAB8AC-B538-458d-9737-405883B0398D}">
+          <x14:cacheField ignore="1"/>
+        </ext>
+      </extLst>
+    </cacheField>
   </cacheFields>
-  <cacheHierarchies count="22">
+  <cacheHierarchies count="26">
     <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="7" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Duration]" caption="Total Duration" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="Unsupported0" caption="Call number" measure="1" count="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{8CF416AD-EC4C-4aba-99F5-12A058AE0983}">
+          <x14:cacheHierarchy ignore="1"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="calls" uniqueName="[calls]" caption="calls"/>
+    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="calls" caption="calls"/>
+    <measureGroup name="customers" caption="customers"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.428670138892" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8858DEE7-94FF-480C-8C61-4947E2F4397B}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="6">
+    <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
+    <cacheField name="[Measures].[Total Amount]" caption="Total Amount" numFmtId="0" hierarchy="18" level="32767"/>
+    <cacheField name="[Measures].[Total Duration]" caption="Total Duration" numFmtId="0" hierarchy="19" level="32767"/>
+    <cacheField name="[Measures].[Avg.Rating]" caption="Avg.Rating" numFmtId="0" hierarchy="20" level="32767"/>
+    <cacheField name="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" numFmtId="0" hierarchy="21" level="32767"/>
+    <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="25">
+    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="5"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
@@ -4228,10 +7874,12 @@
     <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
@@ -4250,6 +7898,11 @@
     <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="4"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
@@ -4279,14 +7932,874 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.429967824071" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5A01795F-9531-461F-AAF6-2F91B68DDDE2}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="5">
+    <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
+    <cacheField name="[Measures].[Total Amount]" caption="Total Amount" numFmtId="0" hierarchy="18" level="32767"/>
+    <cacheField name="[Measures].[Total Duration]" caption="Total Duration" numFmtId="0" hierarchy="19" level="32767"/>
+    <cacheField name="[Measures].[Avg.Rating]" caption="Avg.Rating" numFmtId="0" hierarchy="20" level="32767"/>
+    <cacheField name="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" numFmtId="0" hierarchy="21" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="25">
+    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Duration]" caption="Total Duration" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="calls" uniqueName="[calls]" caption="calls"/>
+    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="calls" caption="calls"/>
+    <measureGroup name="customers" caption="customers"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.431005208331" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0C4F5B91-130A-45D3-84A5-F73746D5FF7D}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[calls].[Day of week].[Day of week]" caption="Day of week" numFmtId="0" hierarchy="8" level="1">
+      <sharedItems count="7">
+        <s v="Friday"/>
+        <s v="Monday"/>
+        <s v="Saturday"/>
+        <s v="Sunday"/>
+        <s v="Thursday"/>
+        <s v="Tuesday"/>
+        <s v="Wednesday"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="25">
+    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Duration]" caption="Total Duration" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="calls" uniqueName="[calls]" caption="calls"/>
+    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="calls" caption="calls"/>
+    <measureGroup name="customers" caption="customers"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.428667824075" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1C37E43D-3C1B-4740-AE60-F5A9AF784D80}">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="ThisWorkbookDataModel"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="25">
+    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Duration]" caption="Total Duration" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="1287705095" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{213820C0-D94F-4B7D-8DDB-DD3DC44499E7}" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="PivotTable5" cacheId="131" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A31:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="25">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="2" level="1">
+        <member name="[calls].[Representative].&amp;[R02]"/>
+        <member name="[calls].[Representative].&amp;[R05]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="8"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="PivotTable3" cacheId="103" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A15:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="330">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="12">
+        <item x="0" e="0"/>
+        <item x="1" e="0"/>
+        <item x="2" e="0"/>
+        <item x="3" e="0"/>
+        <item x="4" e="0"/>
+        <item x="5" e="0"/>
+        <item x="6" e="0"/>
+        <item x="7" e="0"/>
+        <item x="8" e="0"/>
+        <item x="9" e="0"/>
+        <item x="10" e="0"/>
+        <item x="11" e="0"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" dragToData="0" dragOff="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1" itemPageCount="0" rankBy="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField ignore="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Call Count2" fld="4" subtotal="count" baseField="0" baseItem="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
+          <x14:dataField sourceField="2" uniqueName="[__Xl2].[Measures].[Call Count]"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="26">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="2" level="1">
+        <member name="[calls].[Representative].&amp;[R02]"/>
+        <member name="[calls].[Representative].&amp;[R05]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1" dragOff="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F1805F06-0CD3-4483-9156-8803C3D141DF}">
+          <x14:pivotHierarchy ignore="1"/>
+        </ext>
+      </extLst>
+    </pivotHierarchy>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="11"/>
+    <rowHierarchyUsage hierarchyUsage="4"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="106" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A10:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="6">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowItems count="1">
     <i/>
@@ -4294,7 +8807,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="5">
     <i>
       <x/>
     </i>
@@ -4307,14 +8820,110 @@
     <i i="3">
       <x v="3"/>
     </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
   </colItems>
-  <dataFields count="4">
+  <dataFields count="5">
     <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
     <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
     <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="22">
+  <pivotHierarchies count="25">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="2" level="1">
+        <member name="[calls].[Representative].&amp;[R02]"/>
+        <member name="[calls].[Representative].&amp;[R05]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{213820C0-D94F-4B7D-8DDB-DD3DC44499E7}" name="Summary" cacheId="112" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="25">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -4330,6 +8939,9 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -4366,6 +8978,44 @@
   <rel r:id="rId4"/>
   <rel r:id="rId5"/>
 </richValueRels>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Representative" xr10:uid="{F379020E-3F94-4FE6-8AF5-B6B482796E28}" sourceName="[calls].[Representative]">
+  <pivotTables>
+    <pivotTable tabId="6" name="rep pivot"/>
+    <pivotTable tabId="6" name="PivotTable3"/>
+    <pivotTable tabId="6" name="PivotTable5"/>
+  </pivotTables>
+  <data>
+    <olap pivotCacheId="1287705095">
+      <levels count="2">
+        <level uniqueName="[calls].[Representative].[(All)]" sourceCaption="(All)" count="0"/>
+        <level uniqueName="[calls].[Representative].[Representative]" sourceCaption="Representative" count="5">
+          <ranges>
+            <range startItem="0">
+              <i n="[calls].[Representative].&amp;[R01]" c="R01"/>
+              <i n="[calls].[Representative].&amp;[R02]" c="R02"/>
+              <i n="[calls].[Representative].&amp;[R03]" c="R03"/>
+              <i n="[calls].[Representative].&amp;[R04]" c="R04"/>
+              <i n="[calls].[Representative].&amp;[R05]" c="R05"/>
+            </range>
+          </ranges>
+        </level>
+      </levels>
+      <selections count="2">
+        <selection n="[calls].[Representative].&amp;[R02]"/>
+        <selection n="[calls].[Representative].&amp;[R05]"/>
+      </selections>
+    </olap>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Representative" xr10:uid="{48227ECF-E73B-4192-8043-A181CEDCBBD4}" cache="Slicer_Representative" caption="Representative" level="1" rowHeight="247650"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4612,21 +9262,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834D0550-23E6-4ECE-88FB-C7046FEC3829}">
-  <dimension ref="A3:D4"/>
+  <dimension ref="A3:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1042</v>
       </c>
@@ -4639,8 +9289,11 @@
       <c r="D3" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>1000</v>
       </c>
@@ -4652,6 +9305,274 @@
       </c>
       <c r="D4" s="23">
         <v>3.8854000000000033</v>
+      </c>
+      <c r="E4" s="21">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>418</v>
+      </c>
+      <c r="B11" s="22">
+        <v>40685</v>
+      </c>
+      <c r="C11" s="21">
+        <v>37509</v>
+      </c>
+      <c r="D11" s="23">
+        <v>3.8763157894736824</v>
+      </c>
+      <c r="E11" s="21">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B16" s="21">
+        <v>40</v>
+      </c>
+      <c r="C16" s="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B17" s="21">
+        <v>28</v>
+      </c>
+      <c r="C17" s="21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B18" s="21">
+        <v>71</v>
+      </c>
+      <c r="C18" s="21">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B19" s="21">
+        <v>60</v>
+      </c>
+      <c r="C19" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B20" s="21">
+        <v>21</v>
+      </c>
+      <c r="C20" s="21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B21" s="21">
+        <v>24</v>
+      </c>
+      <c r="C21" s="21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B22" s="21">
+        <v>21</v>
+      </c>
+      <c r="C22" s="21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B23" s="21">
+        <v>20</v>
+      </c>
+      <c r="C23" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B24" s="21">
+        <v>38</v>
+      </c>
+      <c r="C24" s="21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B25" s="21">
+        <v>45</v>
+      </c>
+      <c r="C25" s="21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B26" s="21">
+        <v>26</v>
+      </c>
+      <c r="C26" s="21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B27" s="21">
+        <v>24</v>
+      </c>
+      <c r="C27" s="21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B28" s="21">
+        <v>418</v>
+      </c>
+      <c r="C28" s="21">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="26" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B32" s="21">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="26" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B33" s="21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="26" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B34" s="21">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B35" s="21">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="26" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B36" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="26" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B37" s="21">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="26" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B38" s="21">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B39" s="21">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -43933,8 +48854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00F2D57-6A6B-4B4C-88B6-CD6A1F8BA299}">
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43977,7 +48898,7 @@
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -46374,6 +51295,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -46381,8 +51310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C58293-5D98-49E6-AECB-82BF78A22E13}">
   <dimension ref="E2:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="121" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="121" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PortfolioProject.xlsx
+++ b/PortfolioProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA7547A-8612-4BA5-9EBF-F4348FF6857B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EEE6E7-4AFA-4B1A-9971-FCDAB2DBCC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
@@ -26,20 +26,21 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="103" r:id="rId5"/>
-    <pivotCache cacheId="106" r:id="rId6"/>
-    <pivotCache cacheId="112" r:id="rId7"/>
-    <pivotCache cacheId="131" r:id="rId8"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="65" r:id="rId6"/>
+    <pivotCache cacheId="68" r:id="rId7"/>
+    <pivotCache cacheId="71" r:id="rId8"/>
+    <pivotCache cacheId="78" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="102" r:id="rId9"/>
+        <pivotCache cacheId="5" r:id="rId10"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId10"/>
+        <x14:slicerCache r:id="rId11"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -3414,7 +3415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -3533,11 +3534,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFABABAB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFABABAB"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFABABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFABABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFABABAB"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFABABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3573,10 +3685,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3776,11 +3897,558 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PortfolioProject.xlsx]Pivots!PivotTable3</c:name>
+    <c:name>[PortfolioProject.xlsx]Pivots!WeekDay trend</c:name>
+    <c:fmtId val="16"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45110750862024607"/>
+          <c:y val="9.8425196850393706E-2"/>
+          <c:w val="0.54889249137975404"/>
+          <c:h val="0.85564304461942253"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivots!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivots!$A$32:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivots!$B$32:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2791-45BE-BCB7-A394C264D81C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:axId val="1400199183"/>
+        <c:axId val="1400176143"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1400199183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1400176143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1400176143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1400199183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[PortfolioProject.xlsx]Pivots!Monthly Trend</c:name>
     <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Call Trend</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -3802,11 +4470,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -4337,40 +5004,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4487,40 +5154,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4786,7 +5453,552 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5561,7 +6773,7 @@
               <a:latin typeface="Aptos Display"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>418</a:t>
+            <a:t>1,000</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100">
             <a:solidFill>
@@ -5848,7 +7060,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>$40,685</a:t>
+            <a:t>$96,623</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -6138,7 +7350,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>37,509</a:t>
+            <a:t>89,850</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -6425,6 +7637,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Display"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>3.9</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100">
@@ -6712,7 +7925,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>125</a:t>
+            <a:t>307</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -6740,8 +7953,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="26" name="Representative">
@@ -6764,7 +7977,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6807,6 +8020,44 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E4144F-29A4-4BC5-BA27-AC6F7D3B8EE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>434340</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -6837,7 +8088,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7403,7 +8654,175 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.428668749999" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{E23C2199-6754-4875-997D-89C3EC5D8644}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.429967824071" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5A01795F-9531-461F-AAF6-2F91B68DDDE2}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="5">
+    <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
+    <cacheField name="[Measures].[Total Amount]" caption="Total Amount" numFmtId="0" hierarchy="18" level="32767"/>
+    <cacheField name="[Measures].[Total Duration]" caption="Total Duration" numFmtId="0" hierarchy="19" level="32767"/>
+    <cacheField name="[Measures].[Avg.Rating]" caption="Avg.Rating" numFmtId="0" hierarchy="20" level="32767"/>
+    <cacheField name="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" numFmtId="0" hierarchy="21" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="25">
+    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Duration]" caption="Total Duration" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="calls" uniqueName="[calls]" caption="calls"/>
+    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="calls" caption="calls"/>
+    <measureGroup name="customers" caption="customers"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.637443865744" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8858DEE7-94FF-480C-8C61-4947E2F4397B}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="6">
+    <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
+    <cacheField name="[Measures].[Total Amount]" caption="Total Amount" numFmtId="0" hierarchy="18" level="32767"/>
+    <cacheField name="[Measures].[Total Duration]" caption="Total Duration" numFmtId="0" hierarchy="19" level="32767"/>
+    <cacheField name="[Measures].[Avg.Rating]" caption="Avg.Rating" numFmtId="0" hierarchy="20" level="32767"/>
+    <cacheField name="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" numFmtId="0" hierarchy="21" level="32767"/>
+    <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="25">
+    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="5"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Duration]" caption="Total Duration" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="calls" uniqueName="[calls]" caption="calls"/>
+    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="calls" caption="calls"/>
+    <measureGroup name="customers" caption="customers"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.637444444445" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{E23C2199-6754-4875-997D-89C3EC5D8644}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="5">
     <cacheField name="[calls].[Date of Call].[Date of Call]" caption="Date of Call" numFmtId="0" hierarchy="4" level="1">
@@ -7844,176 +9263,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.428670138892" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8858DEE7-94FF-480C-8C61-4947E2F4397B}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="6">
-    <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
-    <cacheField name="[Measures].[Total Amount]" caption="Total Amount" numFmtId="0" hierarchy="18" level="32767"/>
-    <cacheField name="[Measures].[Total Duration]" caption="Total Duration" numFmtId="0" hierarchy="19" level="32767"/>
-    <cacheField name="[Measures].[Avg.Rating]" caption="Avg.Rating" numFmtId="0" hierarchy="20" level="32767"/>
-    <cacheField name="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" numFmtId="0" hierarchy="21" level="32767"/>
-    <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="25">
-    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="5"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Total Duration]" caption="Total Duration" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="4"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="3">
-    <dimension name="calls" uniqueName="[calls]" caption="calls"/>
-    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-  </dimensions>
-  <measureGroups count="2">
-    <measureGroup name="calls" caption="calls"/>
-    <measureGroup name="customers" caption="customers"/>
-  </measureGroups>
-  <maps count="3">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="1" dimension="1"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.429967824071" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5A01795F-9531-461F-AAF6-2F91B68DDDE2}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="5">
-    <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
-    <cacheField name="[Measures].[Total Amount]" caption="Total Amount" numFmtId="0" hierarchy="18" level="32767"/>
-    <cacheField name="[Measures].[Total Duration]" caption="Total Duration" numFmtId="0" hierarchy="19" level="32767"/>
-    <cacheField name="[Measures].[Avg.Rating]" caption="Avg.Rating" numFmtId="0" hierarchy="20" level="32767"/>
-    <cacheField name="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" numFmtId="0" hierarchy="21" level="32767"/>
-  </cacheFields>
-  <cacheHierarchies count="25">
-    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Total Duration]" caption="Total Duration" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="4"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="3">
-    <dimension name="calls" uniqueName="[calls]" caption="calls"/>
-    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-  </dimensions>
-  <measureGroups count="2">
-    <measureGroup name="calls" caption="calls"/>
-    <measureGroup name="customers" caption="customers"/>
-  </measureGroups>
-  <maps count="3">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="1" dimension="1"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.431005208331" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0C4F5B91-130A-45D3-84A5-F73746D5FF7D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.637444907406" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0C4F5B91-130A-45D3-84A5-F73746D5FF7D}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
@@ -8097,6 +9348,60 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.639536921299" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3EF547F6-AD8B-4769-BEE4-84FA22BC5B3F}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="25">
+    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Duration]" caption="Total Duration" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="calls" uniqueName="[calls]" caption="calls"/>
+    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="calls" caption="calls"/>
+    <measureGroup name="customers" caption="customers"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.428667824075" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1C37E43D-3C1B-4740-AE60-F5A9AF784D80}">
   <cacheSource type="external" connectionId="1">
     <extLst>
@@ -8143,68 +9448,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="PivotTable5" cacheId="131" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A31:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06AD5479-9280-469F-AA3D-CDBD749637C2}" name="reps pivot" cacheId="78" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A44:C61" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotHierarchies count="25">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="2" level="1">
-        <member name="[calls].[Representative].&amp;[R02]"/>
-        <member name="[calls].[Representative].&amp;[R05]"/>
-      </members>
-    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -8228,9 +9478,6 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="8"/>
-  </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
@@ -8248,7 +9495,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="PivotTable3" cacheId="103" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="Monthly Trend" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A15:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -8731,12 +9978,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="2" level="1">
-        <member name="[calls].[Representative].&amp;[R02]"/>
-        <member name="[calls].[Representative].&amp;[R05]"/>
-      </members>
-    </pivotHierarchy>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -8791,7 +10033,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="106" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="65" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A10:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="6">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -8835,12 +10077,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="2" level="1">
-        <member name="[calls].[Representative].&amp;[R02]"/>
-        <member name="[calls].[Representative].&amp;[R05]"/>
-      </members>
-    </pivotHierarchy>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -8884,7 +10121,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{213820C0-D94F-4B7D-8DDB-DD3DC44499E7}" name="Summary" cacheId="112" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{213820C0-D94F-4B7D-8DDB-DD3DC44499E7}" name="Summary" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -8970,6 +10207,156 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="WeekDay trend" cacheId="71" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="A31:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="7">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="11" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="25">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="8"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
@@ -8984,8 +10371,8 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Representative" xr10:uid="{F379020E-3F94-4FE6-8AF5-B6B482796E28}" sourceName="[calls].[Representative]">
   <pivotTables>
     <pivotTable tabId="6" name="rep pivot"/>
-    <pivotTable tabId="6" name="PivotTable3"/>
-    <pivotTable tabId="6" name="PivotTable5"/>
+    <pivotTable tabId="6" name="Monthly Trend"/>
+    <pivotTable tabId="6" name="WeekDay trend"/>
   </pivotTables>
   <data>
     <olap pivotCacheId="1287705095">
@@ -9003,9 +10390,8 @@
           </ranges>
         </level>
       </levels>
-      <selections count="2">
-        <selection n="[calls].[Representative].&amp;[R02]"/>
-        <selection n="[calls].[Representative].&amp;[R05]"/>
+      <selections count="1">
+        <selection n="[calls].[Representative].[All]"/>
       </selections>
     </olap>
   </data>
@@ -9262,17 +10648,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834D0550-23E6-4ECE-88FB-C7046FEC3829}">
-  <dimension ref="A3:E39"/>
+  <dimension ref="A3:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9329,19 +10718,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
-        <v>418</v>
+        <v>1000</v>
       </c>
       <c r="B11" s="22">
-        <v>40685</v>
+        <v>96623</v>
       </c>
       <c r="C11" s="21">
-        <v>37509</v>
+        <v>89850</v>
       </c>
       <c r="D11" s="23">
-        <v>3.8763157894736824</v>
+        <v>3.8854000000000033</v>
       </c>
       <c r="E11" s="21">
-        <v>125</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -9365,10 +10754,10 @@
         <v>1050</v>
       </c>
       <c r="B16" s="21">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C16" s="21">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -9376,10 +10765,10 @@
         <v>1051</v>
       </c>
       <c r="B17" s="21">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C17" s="21">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -9387,10 +10776,10 @@
         <v>1052</v>
       </c>
       <c r="B18" s="21">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="C18" s="21">
-        <v>71</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -9398,10 +10787,10 @@
         <v>1053</v>
       </c>
       <c r="B19" s="21">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="C19" s="21">
-        <v>60</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -9409,10 +10798,10 @@
         <v>1054</v>
       </c>
       <c r="B20" s="21">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C20" s="21">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -9420,10 +10809,10 @@
         <v>1055</v>
       </c>
       <c r="B21" s="21">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C21" s="21">
-        <v>24</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -9431,10 +10820,10 @@
         <v>1056</v>
       </c>
       <c r="B22" s="21">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C22" s="21">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -9442,10 +10831,10 @@
         <v>1057</v>
       </c>
       <c r="B23" s="21">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C23" s="21">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -9453,10 +10842,10 @@
         <v>1058</v>
       </c>
       <c r="B24" s="21">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C24" s="21">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -9464,10 +10853,10 @@
         <v>1059</v>
       </c>
       <c r="B25" s="21">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C25" s="21">
-        <v>45</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -9475,10 +10864,10 @@
         <v>1060</v>
       </c>
       <c r="B26" s="21">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C26" s="21">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -9486,10 +10875,10 @@
         <v>1061</v>
       </c>
       <c r="B27" s="21">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C27" s="21">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -9497,10 +10886,10 @@
         <v>1049</v>
       </c>
       <c r="B28" s="21">
-        <v>418</v>
+        <v>1000</v>
       </c>
       <c r="C28" s="21">
-        <v>418</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -9513,67 +10902,157 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B32" s="21">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>1064</v>
       </c>
       <c r="B33" s="21">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B34" s="21">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B35" s="21">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>1067</v>
       </c>
       <c r="B36" s="21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="B37" s="21">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B38" s="21">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>1049</v>
       </c>
       <c r="B39" s="21">
-        <v>418</v>
-      </c>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="29"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="30"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="32"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="30"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="32"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="30"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="32"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="30"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="32"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="30"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="30"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="32"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="30"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="30"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="32"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="30"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="30"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="30"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="32"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="30"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="32"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="30"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="32"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="30"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="32"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="30"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="30"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="33"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9584,7 +11063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB3BB9B-13D8-4B9D-93DC-F3AAA9091AD1}">
   <dimension ref="B1:T1003"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -48855,7 +50334,7 @@
   <dimension ref="A1:AB81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PortfolioProject.xlsx
+++ b/PortfolioProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF9255E-CC9A-46BA-96A6-6054DA7060A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0910DFB-B780-4528-962B-05D2E6F69771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
@@ -26,23 +26,24 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="23" r:id="rId6"/>
-    <pivotCache cacheId="303" r:id="rId7"/>
-    <pivotCache cacheId="306" r:id="rId8"/>
-    <pivotCache cacheId="309" r:id="rId9"/>
-    <pivotCache cacheId="312" r:id="rId10"/>
-    <pivotCache cacheId="315" r:id="rId11"/>
+    <pivotCache cacheId="50" r:id="rId5"/>
+    <pivotCache cacheId="52" r:id="rId6"/>
+    <pivotCache cacheId="54" r:id="rId7"/>
+    <pivotCache cacheId="242" r:id="rId8"/>
+    <pivotCache cacheId="245" r:id="rId9"/>
+    <pivotCache cacheId="248" r:id="rId10"/>
+    <pivotCache cacheId="251" r:id="rId11"/>
+    <pivotCache cacheId="254" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="5" r:id="rId12"/>
+        <pivotCache cacheId="7" r:id="rId13"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId13"/>
+        <x14:slicerCache r:id="rId14"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -140,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="1080">
   <si>
     <t>Customer ID</t>
   </si>
@@ -3377,6 +3378,9 @@
   </si>
   <si>
     <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Count of Call number</t>
   </si>
 </sst>
 </file>
@@ -3387,7 +3391,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="\$#,##0;\-\$#,##0;\$#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="\$#,###.0,&quot;k&quot;"/>
+    <numFmt numFmtId="167" formatCode="\$#,###.0,&quot;k&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -3574,7 +3578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3613,49 +3617,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="28">
     <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="8"/>
-        </left>
-        <right style="thin">
-          <color theme="8"/>
-        </right>
-        <top style="thin">
-          <color theme="8"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3812,6 +3853,40 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.14996795556505021"/>
@@ -3830,11 +3905,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style 1" pivot="0" table="0" count="1" xr9:uid="{25BABDA2-DB3D-41F6-98D0-3EE7CBB0176F}">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="wholeTable" dxfId="27"/>
     </tableStyle>
     <tableStyle name="SlicerStyleDark5 2" pivot="0" table="0" count="10" xr9:uid="{AD47E305-3DEF-4232-A944-71C987D02AB4}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="25"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4432,25 +4507,25 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5210,40 +5285,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5360,40 +5435,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5925,7 +6000,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>218</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -5934,7 +6009,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6340,7 +6415,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20581</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -6349,7 +6424,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>20104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6614,19 +6689,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -6686,20 +6749,49 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:marker>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -6887,9 +6979,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="50000"/>
-                        <a:alpha val="66000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -7151,6 +7243,532 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[PortfolioProject.xlsx]Pivots!rep satisfaction</c:name>
+    <c:fmtId val="38"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Rating</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37411414943811683"/>
+          <c:y val="3.3724334984439004E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivots!$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivots!$A$68:$A$72</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivots!$B$68:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D49B-4A47-94BC-3216A0A703F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="32"/>
+        <c:axId val="1543387184"/>
+        <c:axId val="1543377584"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="1543387184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1543377584"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1543377584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1543387184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7312,6 +7930,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9863,18 +10521,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:colOff>57316</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:colOff>567856</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -9891,8 +11054,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="358140" y="525780"/>
-          <a:ext cx="1394460" cy="1013460"/>
+          <a:off x="328986" y="531081"/>
+          <a:ext cx="1391809" cy="1029362"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10135,7 +11298,7 @@
               <a:latin typeface="Aptos Display"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>218</a:t>
+            <a:t>200</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100">
             <a:solidFill>
@@ -10422,7 +11585,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>$20,581</a:t>
+            <a:t>$20,104</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -10712,7 +11875,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>19,300</a:t>
+            <a:t>18,209</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -10732,13 +11895,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>49365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>148425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Pivots!D4">
       <xdr:nvSpPr>
@@ -10753,8 +11916,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="388620" y="4960620"/>
-          <a:ext cx="1394460" cy="1013460"/>
+          <a:off x="385970" y="5058687"/>
+          <a:ext cx="1391809" cy="1026712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10939,15 +12102,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>92103</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>81169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:colOff>297843</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>96409</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Pivots!D11">
       <xdr:nvSpPr>
@@ -10962,8 +12125,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="594360" y="5783580"/>
-          <a:ext cx="815340" cy="198120"/>
+          <a:off x="635442" y="5832612"/>
+          <a:ext cx="815340" cy="200771"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10995,7 +12158,7 @@
           <a:fld id="{AA4A4EA4-5205-4876-AF91-BEBF618EDA1B}" type="TxLink">
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Aptos Display"/>
             </a:rPr>
@@ -11287,7 +12450,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>74</a:t>
+            <a:t>51</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -11315,8 +12478,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="26" name="Representative">
@@ -11339,7 +12502,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11640,10 +12803,98 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>536712</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>145774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Chart 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B3B205-BB56-4CDF-BAB8-3FC6822212F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.58575</cdr:x>
+      <cdr:y>0.05279</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.65172</cdr:x>
+      <cdr:y>0.1261</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="3" name="Graphic 2" descr="Star with solid fill">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B59F3417-6541-6155-02E6-AD805F60E516}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1470993" y="119270"/>
+          <a:ext cx="165651" cy="165651"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12209,7 +13460,7 @@
     <cacheField name="[Measures].[Avg.Rating]" caption="Avg.Rating" numFmtId="0" hierarchy="20" level="32767"/>
     <cacheField name="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" numFmtId="0" hierarchy="21" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="25">
+  <cacheHierarchies count="28">
     <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
@@ -12255,6 +13506,27 @@
     <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Rating rounded]" caption="Sum of Rating rounded" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Call number]" caption="Count of Call number" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Rating]" caption="Sum of Satisfaction Rating" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="3">
@@ -12280,85 +13552,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45989.366872685183" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3EF547F6-AD8B-4769-BEE4-84FA22BC5B3F}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
-      <sharedItems count="5">
-        <s v="R01"/>
-        <s v="R02"/>
-        <s v="R03"/>
-        <s v="R04"/>
-        <s v="R05"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
-    <cacheField name="[Measures].[Total Amount]" caption="Total Amount" numFmtId="0" hierarchy="18" level="32767"/>
-  </cacheFields>
-  <cacheHierarchies count="25">
-    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Total Duration]" caption="Total Duration" measure="1" displayFolder="" measureGroup="calls" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="3">
-    <dimension name="calls" uniqueName="[calls]" caption="calls"/>
-    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-  </dimensions>
-  <measureGroups count="2">
-    <measureGroup name="calls" caption="calls"/>
-    <measureGroup name="customers" caption="customers"/>
-  </measureGroups>
-  <maps count="3">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="1" dimension="1"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45989.415047916664" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{508831DC-FA11-460C-9924-10487363524F}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
@@ -12377,7 +13570,7 @@
     </cacheField>
     <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="25">
+  <cacheHierarchies count="28">
     <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
@@ -12417,6 +13610,127 @@
     <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Rating rounded]" caption="Sum of Rating rounded" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Call number]" caption="Count of Call number" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Rating]" caption="Sum of Satisfaction Rating" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="calls" uniqueName="[calls]" caption="calls"/>
+    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="calls" caption="calls"/>
+    <measureGroup name="customers" caption="customers"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45989.366872685183" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3EF547F6-AD8B-4769-BEE4-84FA22BC5B3F}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="5">
+        <s v="R01"/>
+        <s v="R02"/>
+        <s v="R03"/>
+        <s v="R04"/>
+        <s v="R05"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
+    <cacheField name="[Measures].[Total Amount]" caption="Total Amount" numFmtId="0" hierarchy="18" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Duration]" caption="Total Duration" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Rating rounded]" caption="Sum of Rating rounded" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Call number]" caption="Count of Call number" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Rating]" caption="Sum of Satisfaction Rating" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="3">
@@ -12442,7 +13756,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45989.419972685188" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8858DEE7-94FF-480C-8C61-4947E2F4397B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45990.589433912035" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8858DEE7-94FF-480C-8C61-4947E2F4397B}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="6">
     <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
@@ -12454,7 +13768,7 @@
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="25">
+  <cacheHierarchies count="28">
     <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
@@ -12505,6 +13819,27 @@
     <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Rating rounded]" caption="Sum of Rating rounded" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Call number]" caption="Count of Call number" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Rating]" caption="Sum of Satisfaction Rating" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="3">
@@ -12530,7 +13865,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45989.419973379627" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{E23C2199-6754-4875-997D-89C3EC5D8644}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45990.589434374997" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{E23C2199-6754-4875-997D-89C3EC5D8644}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="5">
     <cacheField name="[calls].[Date of Call].[Date of Call]" caption="Date of Call" numFmtId="0" hierarchy="4" level="1">
@@ -12887,7 +14222,7 @@
     <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
     </cacheField>
-    <cacheField name="Unsupported0" numFmtId="0" hierarchy="25" level="32767">
+    <cacheField name="Unsupported0" numFmtId="0" hierarchy="28" level="32767">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{63CAB8AC-B538-458d-9737-405883B0398D}">
           <x14:cacheField ignore="1"/>
@@ -12895,7 +14230,7 @@
       </extLst>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="26">
+  <cacheHierarchies count="29">
     <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
@@ -12940,6 +14275,27 @@
     <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Rating rounded]" caption="Sum of Rating rounded" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Call number]" caption="Count of Call number" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Rating]" caption="Sum of Satisfaction Rating" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="Unsupported0" caption="Call number" measure="1" count="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{8CF416AD-EC4C-4aba-99F5-12A058AE0983}">
@@ -12972,7 +14328,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45989.419973842596" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0C4F5B91-130A-45D3-84A5-F73746D5FF7D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45990.589434837966" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0C4F5B91-130A-45D3-84A5-F73746D5FF7D}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
@@ -12991,7 +14347,7 @@
     </cacheField>
     <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="25">
+  <cacheHierarchies count="28">
     <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
@@ -13001,7 +14357,7 @@
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
@@ -13013,7 +14369,7 @@
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
@@ -13031,6 +14387,27 @@
     <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Rating rounded]" caption="Sum of Rating rounded" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Call number]" caption="Count of Call number" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Rating]" caption="Sum of Satisfaction Rating" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="3">
@@ -13056,16 +14433,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45989.419974189812" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{082C928C-4A34-45A3-8322-8999780F7E1F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45990.589435416667" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{082C928C-4A34-45A3-8322-8999780F7E1F}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="1">
     <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
       <sharedItems count="1">
-        <s v="R02"/>
+        <s v="R05"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="25">
+  <cacheHierarchies count="28">
     <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
@@ -13096,6 +14473,27 @@
     <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Rating rounded]" caption="Sum of Rating rounded" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Call number]" caption="Count of Call number" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Rating]" caption="Sum of Satisfaction Rating" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="3">
@@ -13121,6 +14519,117 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45990.589435995367" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5287AC46-7848-4031-A9F0-EEE4B770D802}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Count of Call number]" caption="Count of Call number" numFmtId="0" hierarchy="26" level="32767"/>
+    <cacheField name="[calls].[Rating rounded].[Rating rounded]" caption="Rating rounded" numFmtId="0" hierarchy="10" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="5" count="4">
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+      </sharedItems>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
+          <x15:cachedUniqueNames>
+            <x15:cachedUniqueName index="0" name="[calls].[Rating rounded].&amp;[2]"/>
+            <x15:cachedUniqueName index="1" name="[calls].[Rating rounded].&amp;[3]"/>
+            <x15:cachedUniqueName index="2" name="[calls].[Rating rounded].&amp;[4]"/>
+            <x15:cachedUniqueName index="3" name="[calls].[Rating rounded].&amp;[5]"/>
+          </x15:cachedUniqueNames>
+        </ext>
+      </extLst>
+    </cacheField>
+    <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Duration]" caption="Total Duration" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Rating rounded]" caption="Sum of Rating rounded" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Call number]" caption="Count of Call number" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Rating]" caption="Sum of Satisfaction Rating" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="calls" uniqueName="[calls]" caption="calls"/>
+    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="calls" caption="calls"/>
+    <measureGroup name="customers" caption="customers"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.428667824075" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1C37E43D-3C1B-4740-AE60-F5A9AF784D80}">
   <cacheSource type="external" connectionId="1">
     <extLst>
@@ -13167,7 +14676,361 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC07D0C4-1C20-4975-A7EE-394D315C4D33}" name="PivotTable2" cacheId="303" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{549B98BD-FAF4-46D6-9974-A86D8A646DF5}" name="rep satisfaction" cacheId="254" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
+  <location ref="A67:B72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Call number" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="38" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R05]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="10"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[customers]"/>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{213820C0-D94F-4B7D-8DDB-DD3DC44499E7}" name="Summary" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="WeekDay trend" cacheId="248" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="A31:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="7">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="11" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R05]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="8"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC07D0C4-1C20-4975-A7EE-394D315C4D33}" name="PivotTable2" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
   <location ref="A58:D63" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -13245,7 +15108,7 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotHierarchies count="25">
+  <pivotHierarchies count="28">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -13271,6 +15134,9 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
@@ -13296,8 +15162,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFED1980-F3DA-4181-984C-133E7C44C6C1}" name="seleted rep" cacheId="315" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFED1980-F3DA-4181-984C-133E7C44C6C1}" name="seleted rep" cacheId="251" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A55:A56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -13315,7 +15181,7 @@
     </i>
   </rowItems>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -13323,7 +15189,7 @@
       </pivotArea>
     </format>
   </formats>
-  <pivotHierarchies count="25">
+  <pivotHierarchies count="28">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -13349,6 +15215,9 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
@@ -13370,8 +15239,115 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="Monthly Trend" cacheId="309" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06AD5479-9280-469F-AA3D-CDBD749637C2}" name="reps pivot" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A44:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="Monthly Trend" cacheId="245" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A15:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -13850,13 +15826,13 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotHierarchies count="26">
+  <pivotHierarchies count="29">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R02]"/>
+        <member name="[calls].[Representative].&amp;[R05]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -13880,6 +15856,9 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1" dragOff="0" includeNewItemsInFilter="1">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F1805F06-0CD3-4483-9156-8803C3D141DF}">
@@ -13912,8 +15891,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="306" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="242" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A10:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="6">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -13953,13 +15932,13 @@
     <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
     <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="25">
+  <pivotHierarchies count="28">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R02]"/>
+        <member name="[calls].[Representative].&amp;[R05]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -13983,353 +15962,11 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{213820C0-D94F-4B7D-8DDB-DD3DC44499E7}" name="Summary" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="25">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="WeekDay trend" cacheId="312" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="A31:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="7">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="11" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="25">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R02]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="8"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06AD5479-9280-469F-AA3D-CDBD749637C2}" name="reps pivot" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A44:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="25">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="3"/>
-  </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
   </colHierarchiesUsage>
@@ -14366,6 +16003,7 @@
     <pivotTable tabId="6" name="Monthly Trend"/>
     <pivotTable tabId="6" name="WeekDay trend"/>
     <pivotTable tabId="6" name="seleted rep"/>
+    <pivotTable tabId="6" name="rep satisfaction"/>
   </pivotTables>
   <data>
     <olap pivotCacheId="1287705095">
@@ -14384,7 +16022,7 @@
         </level>
       </levels>
       <selections count="1">
-        <selection n="[calls].[Representative].&amp;[R02]"/>
+        <selection n="[calls].[Representative].&amp;[R05]"/>
       </selections>
     </olap>
   </data>
@@ -14404,20 +16042,20 @@
     <tableColumn id="1" xr3:uid="{A2AD6D5F-C481-4C4C-930A-923A5754639A}" name="Call number"/>
     <tableColumn id="2" xr3:uid="{6E1FEEB5-4749-4689-ACB4-6B80FABDC996}" name="Customer ID"/>
     <tableColumn id="3" xr3:uid="{BEB7BC5B-9542-4200-B3AF-209D2A736D88}" name="Duration"/>
-    <tableColumn id="4" xr3:uid="{A1817995-EFD7-4CEA-BF34-093CA60B7490}" name="Representative" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{5A35565E-8707-4DED-AD15-A0669D67B382}" name="Date of Call" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{A1817995-EFD7-4CEA-BF34-093CA60B7490}" name="Representative" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{5A35565E-8707-4DED-AD15-A0669D67B382}" name="Date of Call" dataDxfId="23"/>
     <tableColumn id="6" xr3:uid="{F2E4F158-B41F-47BC-8DF8-DFCADFEE4E40}" name="Purchase Amount"/>
     <tableColumn id="7" xr3:uid="{04B291B5-47BD-4F78-8FD8-D1551CCA6BD9}" name="Satisfaction Rating"/>
-    <tableColumn id="8" xr3:uid="{6E4123C0-0B17-43B8-A142-A1E540CE974C}" name="FY" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{6E4123C0-0B17-43B8-A142-A1E540CE974C}" name="FY" dataDxfId="22">
       <calculatedColumnFormula>IF(MONTH(calls[[#This Row],[Date of Call]])&lt;=6, YEAR(calls[[#This Row],[Date of Call]]), YEAR(calls[[#This Row],[Date of Call]])+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{199FA271-5E9B-46CE-9BC6-2801F92CD17E}" name="Day of week" dataDxfId="13">
+    <tableColumn id="9" xr3:uid="{199FA271-5E9B-46CE-9BC6-2801F92CD17E}" name="Day of week" dataDxfId="21">
       <calculatedColumnFormula>TEXT(calls[[#This Row],[Date of Call]],"DDDD")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{328CDB09-95B8-4D5E-9ED9-EF0D363735A1}" name="Duration Bucket" dataDxfId="12">
+    <tableColumn id="10" xr3:uid="{328CDB09-95B8-4D5E-9ED9-EF0D363735A1}" name="Duration Bucket" dataDxfId="20">
       <calculatedColumnFormula array="1">_xlfn.IFS(calls[[#This Row],[Duration]]&lt;=10,"Under 10 mins", calls[[#This Row],[Duration]]&lt;=30, "10 to 30 mins", calls[[#This Row],[Duration]]&lt;=60, "30 to 60 mins", calls[[#This Row],[Duration]]&lt;=120, "1 to 2 hours", TRUE, "More than 2 hours")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{31C7E7FB-94CB-4DAB-B0CB-46B648CD4D41}" name="Rating rounded" dataDxfId="11">
+    <tableColumn id="11" xr3:uid="{31C7E7FB-94CB-4DAB-B0CB-46B648CD4D41}" name="Rating rounded" dataDxfId="19">
       <calculatedColumnFormula>ROUND(calls[[#This Row],[Satisfaction Rating]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14426,13 +16064,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}" name="customers" displayName="customers" ref="Q3:T18" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}" name="customers" displayName="customers" ref="Q3:T18" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="Q3:T18" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{02688061-6A8C-4E23-B7FF-D00CD8B58CAC}" name="Customer ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{771678B6-DB44-426B-9874-B4E421A440D5}" name="Gedner" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B0D41C62-587E-494D-B49A-603F2C05F8D3}" name="Age" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{663F92D6-FE31-4D81-9E01-8D066DDC8A88}" name="City" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{02688061-6A8C-4E23-B7FF-D00CD8B58CAC}" name="Customer ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{771678B6-DB44-426B-9874-B4E421A440D5}" name="Gedner" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B0D41C62-587E-494D-B49A-603F2C05F8D3}" name="Age" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{663F92D6-FE31-4D81-9E01-8D066DDC8A88}" name="City" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14641,16 +16279,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834D0550-23E6-4ECE-88FB-C7046FEC3829}">
-  <dimension ref="A3:I63"/>
+  <dimension ref="A3:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView topLeftCell="A57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
@@ -14712,19 +16350,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B11" s="22">
-        <v>20581</v>
+        <v>20104</v>
       </c>
       <c r="C11" s="21">
-        <v>19300</v>
+        <v>18209</v>
       </c>
       <c r="D11" s="23">
-        <v>3.8706422018348627</v>
+        <v>3.8824999999999998</v>
       </c>
       <c r="E11" s="21">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -14748,10 +16386,10 @@
         <v>1050</v>
       </c>
       <c r="B16" s="21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" s="21">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -14759,10 +16397,10 @@
         <v>1051</v>
       </c>
       <c r="B17" s="21">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C17" s="21">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -14770,10 +16408,10 @@
         <v>1052</v>
       </c>
       <c r="B18" s="21">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C18" s="21">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -14781,10 +16419,10 @@
         <v>1053</v>
       </c>
       <c r="B19" s="21">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C19" s="21">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -14792,10 +16430,10 @@
         <v>1054</v>
       </c>
       <c r="B20" s="21">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C20" s="21">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -14814,10 +16452,10 @@
         <v>1056</v>
       </c>
       <c r="B22" s="21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C22" s="21">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -14825,10 +16463,10 @@
         <v>1057</v>
       </c>
       <c r="B23" s="21">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C23" s="21">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -14836,10 +16474,10 @@
         <v>1058</v>
       </c>
       <c r="B24" s="21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" s="21">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -14847,10 +16485,10 @@
         <v>1059</v>
       </c>
       <c r="B25" s="21">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C25" s="21">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -14858,10 +16496,10 @@
         <v>1060</v>
       </c>
       <c r="B26" s="21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" s="21">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -14869,10 +16507,10 @@
         <v>1061</v>
       </c>
       <c r="B27" s="21">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C27" s="21">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -14880,10 +16518,10 @@
         <v>1049</v>
       </c>
       <c r="B28" s="21">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C28" s="21">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -14899,7 +16537,7 @@
         <v>1066</v>
       </c>
       <c r="B32" s="21">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -14907,7 +16545,7 @@
         <v>1064</v>
       </c>
       <c r="B33" s="21">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -14915,7 +16553,7 @@
         <v>1068</v>
       </c>
       <c r="B34" s="21">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -14923,7 +16561,7 @@
         <v>1069</v>
       </c>
       <c r="B35" s="21">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -14931,7 +16569,7 @@
         <v>1067</v>
       </c>
       <c r="B36" s="21">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -14939,7 +16577,7 @@
         <v>1063</v>
       </c>
       <c r="B37" s="21">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -14947,7 +16585,7 @@
         <v>1065</v>
       </c>
       <c r="B38" s="21">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -14955,7 +16593,7 @@
         <v>1049</v>
       </c>
       <c r="B39" s="21">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -14976,7 +16614,7 @@
       </c>
       <c r="I44" t="str">
         <f>A56</f>
-        <v>R02</v>
+        <v>R05</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -15053,13 +16691,13 @@
       <c r="G47" s="26">
         <v>20581</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="e">
         <f t="shared" ref="H47:H50" si="0">IF(E47=$I$44,F47,NA())</f>
-        <v>218</v>
-      </c>
-      <c r="I47">
+        <v>#N/A</v>
+      </c>
+      <c r="I47" t="e">
         <f t="shared" ref="I47:I50" si="1">IF(E47=$I$44,G47,NA())</f>
-        <v>20581</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -15137,13 +16775,13 @@
       <c r="G50" s="26">
         <v>20104</v>
       </c>
-      <c r="H50" t="e">
+      <c r="H50">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I50" t="e">
+        <v>200</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>20104</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -15153,7 +16791,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -15232,6 +16870,54 @@
       </c>
       <c r="D63" s="21">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="25">
+        <v>2</v>
+      </c>
+      <c r="B68" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="25">
+        <v>3</v>
+      </c>
+      <c r="B69" s="29">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="25">
+        <v>4</v>
+      </c>
+      <c r="B70" s="29">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="25">
+        <v>5</v>
+      </c>
+      <c r="B71" s="29">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="25" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B72" s="29">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -54513,13 +56199,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00F2D57-6A6B-4B4C-88B6-CD6A1F8BA299}">
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="4" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
@@ -56956,11 +58643,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId2"/>
+        <x14:slicer r:id="rId3"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/PortfolioProject.xlsx
+++ b/PortfolioProject.xlsx
@@ -8,42 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0910DFB-B780-4528-962B-05D2E6F69771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDFFBAC-3BC0-402F-80B1-C94B9E3C7C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pivots" sheetId="6" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Customer Centre Report" sheetId="5" r:id="rId3"/>
-    <sheet name="Assets" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="Pivots" sheetId="6" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Customer Centre Report" sheetId="5" r:id="rId4"/>
+    <sheet name="Assets" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$B$3:$H$1003</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$B$3:$H$1003</definedName>
     <definedName name="_xlcn.WorksheetConnection_PortfolioProject.xlsxcalls1" hidden="1">calls[]</definedName>
     <definedName name="_xlcn.WorksheetConnection_PortfolioProject.xlsxcustomers1" hidden="1">customers[]</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$3:$M$17</definedName>
     <definedName name="Slicer_Representative">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="50" r:id="rId5"/>
-    <pivotCache cacheId="52" r:id="rId6"/>
-    <pivotCache cacheId="54" r:id="rId7"/>
-    <pivotCache cacheId="242" r:id="rId8"/>
-    <pivotCache cacheId="245" r:id="rId9"/>
-    <pivotCache cacheId="248" r:id="rId10"/>
-    <pivotCache cacheId="251" r:id="rId11"/>
-    <pivotCache cacheId="254" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="22" r:id="rId9"/>
+    <pivotCache cacheId="25" r:id="rId10"/>
+    <pivotCache cacheId="28" r:id="rId11"/>
+    <pivotCache cacheId="31" r:id="rId12"/>
+    <pivotCache cacheId="34" r:id="rId13"/>
+    <pivotCache cacheId="51" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="7" r:id="rId13"/>
+        <pivotCache cacheId="8" r:id="rId15"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId14"/>
+        <x14:slicerCache r:id="rId16"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -88,7 +91,15 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{BC64AB14-DABB-4DF5-A3A7-BDFE45BAC92E}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
+  <connection id="1" xr16:uid="{463FC0AE-7FE1-4778-B075-9BD765FE8FE5}" keepAlive="1" name="ModelConnection_ExternalData_1" description="Data Model" type="5" refreshedVersion="8" minRefreshableVersion="5" saveData="1">
+    <dbPr connection="Data Model Connection" command="DRILLTHROUGH MAXROWS 1000 SELECT FROM [Model] WHERE ((([Measures].[Total Amount],[customers].[City].&amp;[Columbus],[customers].[Customer ID].&amp;[C0009]),[calls].[Representative].&amp;[R01])) RETURN [$calls].[Call number],[$calls].[Customer ID],[$calls].[Duration],[$calls].[Representative],[$calls].[Date of Call],[$calls].[Purchase Amount],[$calls].[Satisfaction Rating],[$calls].[FY],[$calls].[Day of week],[$calls].[Duration Bucket],[$calls].[Rating rounded],[$calls].[Date of Call (Month)],[$calls].[Date of Call (Month Index)]" commandType="4"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" xr16:uid="{BC64AB14-DABB-4DF5-A3A7-BDFE45BAC92E}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
     <extLst>
@@ -97,7 +108,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="2" xr16:uid="{908ED538-B318-449A-B601-49065F80EFC3}" name="WorksheetConnection_PortfolioProject.xlsx!calls" type="102" refreshedVersion="8" minRefreshableVersion="5">
+  <connection id="3" xr16:uid="{908ED538-B318-449A-B601-49065F80EFC3}" name="WorksheetConnection_PortfolioProject.xlsx!calls" type="102" refreshedVersion="8" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="calls" autoDelete="1">
@@ -106,7 +117,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="3" xr16:uid="{6867B93E-0B69-4C27-AC46-E11F6DD51210}" name="WorksheetConnection_PortfolioProject.xlsx!customers" type="102" refreshedVersion="8" minRefreshableVersion="5">
+  <connection id="4" xr16:uid="{6867B93E-0B69-4C27-AC46-E11F6DD51210}" name="WorksheetConnection_PortfolioProject.xlsx!customers" type="102" refreshedVersion="8" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="customers">
@@ -119,7 +130,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -141,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="1100">
   <si>
     <t>Customer ID</t>
   </si>
@@ -3381,19 +3392,80 @@
   </si>
   <si>
     <t>Count of Call number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> will be pasting as link so that it wont appear same as a pivot</t>
+  </si>
+  <si>
+    <t>calls[Call number]</t>
+  </si>
+  <si>
+    <t>calls[Customer ID]</t>
+  </si>
+  <si>
+    <t>calls[Duration]</t>
+  </si>
+  <si>
+    <t>calls[Representative]</t>
+  </si>
+  <si>
+    <t>calls[Date of Call]</t>
+  </si>
+  <si>
+    <t>calls[Purchase Amount]</t>
+  </si>
+  <si>
+    <t>calls[Satisfaction Rating]</t>
+  </si>
+  <si>
+    <t>calls[FY]</t>
+  </si>
+  <si>
+    <t>calls[Day of week]</t>
+  </si>
+  <si>
+    <t>calls[Duration Bucket]</t>
+  </si>
+  <si>
+    <t>calls[Rating rounded]</t>
+  </si>
+  <si>
+    <t>calls[Date of Call (Month)]</t>
+  </si>
+  <si>
+    <t>calls[Date of Call (Month Index)]</t>
+  </si>
+  <si>
+    <t>More than 2 hours</t>
+  </si>
+  <si>
+    <t>1 to 2 hours</t>
+  </si>
+  <si>
+    <t>10 to 30 mins</t>
+  </si>
+  <si>
+    <t>30 to 60 mins</t>
+  </si>
+  <si>
+    <t>Data returned for Total Amount, Columbus - C0009, R01 (First 1000 rows).</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="\$#,##0;\-\$#,##0;\$#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="\$#,###.0,&quot;k&quot;"/>
+    <numFmt numFmtId="169" formatCode="[$$-C09]#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3428,8 +3500,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3454,8 +3533,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -3574,11 +3659,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3622,88 +3716,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="19">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3853,6 +3883,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <color theme="1"/>
@@ -3905,11 +3942,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style 1" pivot="0" table="0" count="1" xr9:uid="{25BABDA2-DB3D-41F6-98D0-3EE7CBB0176F}">
-      <tableStyleElement type="wholeTable" dxfId="27"/>
+      <tableStyleElement type="wholeTable" dxfId="18"/>
     </tableStyle>
     <tableStyle name="SlicerStyleDark5 2" pivot="0" table="0" count="10" xr9:uid="{AD47E305-3DEF-4232-A944-71C987D02AB4}">
-      <tableStyleElement type="wholeTable" dxfId="26"/>
-      <tableStyleElement type="headerRow" dxfId="25"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -7491,7 +7528,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -7584,7 +7620,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -12774,7 +12809,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>450573</xdr:colOff>
+      <xdr:colOff>145774</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>66261</xdr:rowOff>
     </xdr:to>
@@ -12805,16 +12840,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>536712</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>112643</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>364435</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>125896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>145774</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19878</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13452,7 +13487,7 @@
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.429967824071" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5A01795F-9531-461F-AAF6-2F91B68DDDE2}">
-  <cacheSource type="external" connectionId="1"/>
+  <cacheSource type="external" connectionId="2"/>
   <cacheFields count="5">
     <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
     <cacheField name="[Measures].[Total Amount]" caption="Total Amount" numFmtId="0" hierarchy="18" level="32767"/>
@@ -13551,9 +13586,55 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.428667824075" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1C37E43D-3C1B-4740-AE60-F5A9AF784D80}">
+  <cacheSource type="external" connectionId="2">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="ThisWorkbookDataModel"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="25">
+    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Duration]" caption="Total Duration" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="1287705095" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45989.415047916664" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{508831DC-FA11-460C-9924-10487363524F}">
-  <cacheSource type="external" connectionId="1"/>
+  <cacheSource type="external" connectionId="2"/>
   <cacheFields count="3">
     <cacheField name="[customers].[City].[City]" caption="City" numFmtId="0" hierarchy="15" level="1">
       <sharedItems count="3">
@@ -13657,7 +13738,7 @@
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45989.366872685183" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3EF547F6-AD8B-4769-BEE4-84FA22BC5B3F}">
-  <cacheSource type="external" connectionId="1"/>
+  <cacheSource type="external" connectionId="2"/>
   <cacheFields count="3">
     <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
       <sharedItems count="5">
@@ -13756,8 +13837,8 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45990.589433912035" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8858DEE7-94FF-480C-8C61-4947E2F4397B}">
-  <cacheSource type="external" connectionId="1"/>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45991.954049768516" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8858DEE7-94FF-480C-8C61-4947E2F4397B}">
+  <cacheSource type="external" connectionId="2"/>
   <cacheFields count="6">
     <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
     <cacheField name="[Measures].[Total Amount]" caption="Total Amount" numFmtId="0" hierarchy="18" level="32767"/>
@@ -13865,8 +13946,8 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45990.589434374997" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{E23C2199-6754-4875-997D-89C3EC5D8644}">
-  <cacheSource type="external" connectionId="1"/>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45991.954051157409" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{E23C2199-6754-4875-997D-89C3EC5D8644}">
+  <cacheSource type="external" connectionId="2"/>
   <cacheFields count="5">
     <cacheField name="[calls].[Date of Call].[Date of Call]" caption="Date of Call" numFmtId="0" hierarchy="4" level="1">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-01-01T00:00:00" maxDate="2024-01-01T00:00:00" count="330">
@@ -14328,8 +14409,8 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45990.589434837966" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0C4F5B91-130A-45D3-84A5-F73746D5FF7D}">
-  <cacheSource type="external" connectionId="1"/>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45991.954052083332" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0C4F5B91-130A-45D3-84A5-F73746D5FF7D}">
+  <cacheSource type="external" connectionId="2"/>
   <cacheFields count="3">
     <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
@@ -14433,8 +14514,8 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45990.589435416667" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{082C928C-4A34-45A3-8322-8999780F7E1F}">
-  <cacheSource type="external" connectionId="1"/>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45991.954053240741" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{082C928C-4A34-45A3-8322-8999780F7E1F}">
+  <cacheSource type="external" connectionId="2"/>
   <cacheFields count="1">
     <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
       <sharedItems count="1">
@@ -14519,8 +14600,8 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45990.589435995367" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5287AC46-7848-4031-A9F0-EEE4B770D802}">
-  <cacheSource type="external" connectionId="1"/>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45991.954054513888" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5287AC46-7848-4031-A9F0-EEE4B770D802}">
+  <cacheSource type="external" connectionId="2"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Count of Call number]" caption="Count of Call number" numFmtId="0" hierarchy="26" level="32767"/>
     <cacheField name="[calls].[Rating rounded].[Rating rounded]" caption="Rating rounded" numFmtId="0" hierarchy="10" level="1">
@@ -14630,270 +14711,241 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.428667824075" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1C37E43D-3C1B-4740-AE60-F5A9AF784D80}">
-  <cacheSource type="external" connectionId="1">
-    <extLst>
-      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
-        <x14:sourceConnection name="ThisWorkbookDataModel"/>
-      </ext>
-    </extLst>
-  </cacheSource>
-  <cacheFields count="0"/>
-  <cacheHierarchies count="25">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45991.956354513888" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{A5395BE6-141E-4495-A584-9A5B7B1460B2}">
+  <cacheSource type="external" connectionId="2"/>
+  <cacheFields count="4">
+    <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="5">
+        <s v="R01"/>
+        <s v="R02"/>
+        <s v="R03"/>
+        <s v="R04"/>
+        <s v="R05"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[customers].[City].[City]" caption="City" numFmtId="0" hierarchy="15" level="1">
+      <sharedItems count="3">
+        <s v="Cincinnati"/>
+        <s v="Cleveland"/>
+        <s v="Columbus"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[customers].[Customer ID].[Customer ID]" caption="Customer ID" numFmtId="0" hierarchy="12" level="1">
+      <sharedItems count="15">
+        <s v="C0003"/>
+        <s v="C0004"/>
+        <s v="C0011"/>
+        <s v="C0012"/>
+        <s v="C0002"/>
+        <s v="C0007"/>
+        <s v="C0008"/>
+        <s v="C0010"/>
+        <s v="C0013"/>
+        <s v="C0015"/>
+        <s v="C0001"/>
+        <s v="C0005"/>
+        <s v="C0006"/>
+        <s v="C0009"/>
+        <s v="C0014"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Total Amount]" caption="Total Amount" numFmtId="0" hierarchy="18" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="28">
     <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Total Duration]" caption="Total Duration" measure="1" displayFolder="" measureGroup="calls" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Rating rounded]" caption="Sum of Rating rounded" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Call number]" caption="Count of Call number" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Rating]" caption="Sum of Satisfaction Rating" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
   </cacheHierarchies>
   <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="calls" uniqueName="[calls]" caption="calls"/>
+    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="calls" caption="calls"/>
+    <measureGroup name="customers" caption="customers"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="1"/>
+  </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="1287705095" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{549B98BD-FAF4-46D6-9974-A86D8A646DF5}" name="rep satisfaction" cacheId="254" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
-  <location ref="A67:B72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FF85D9D-1E8B-4493-B048-BC66BC26138C}" name="rep amounts" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
+  <location ref="A79:G98" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="4"/>
       </items>
     </pivotField>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="1"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="18">
     <i>
       <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i>
       <x v="1"/>
     </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
-    <i>
-      <x v="3"/>
+    <i r="1">
+      <x v="10"/>
     </i>
-    <i t="grand">
-      <x/>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Call number" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="38" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R05]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="10"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[customers]"/>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{213820C0-D94F-4B7D-8DDB-DD3DC44499E7}" name="Summary" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
   <colFields count="1">
-    <field x="-2"/>
+    <field x="0"/>
   </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="WeekDay trend" cacheId="248" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="A31:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="7">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="8">
+  <colItems count="6">
     <i>
       <x/>
     </i>
@@ -14909,286 +14961,13 @@
     <i>
       <x v="4"/>
     </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="11" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R05]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="8"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC07D0C4-1C20-4975-A7EE-394D315C4D33}" name="PivotTable2" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
-  <location ref="A58:D63" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="30" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="30" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="15"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="13"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[customers]"/>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFED1980-F3DA-4181-984C-133E7C44C6C1}" name="seleted rep" cacheId="251" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A55:A56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="1">
-        <item s="1" x="0"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x/>
-    </i>
-  </rowItems>
-  <formats count="1">
-    <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
   <pivotHierarchies count="28">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -15220,15 +14999,20 @@
     <pivotHierarchy dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="3"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="15"/>
+    <rowHierarchyUsage hierarchyUsage="12"/>
   </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="3"/>
+  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
       <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[customers]"/>
         <x15:activeTabTopLevelEntity name="[calls]"/>
       </x15:pivotTableUISettings>
     </ext>
@@ -15239,115 +15023,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06AD5479-9280-469F-AA3D-CDBD749637C2}" name="reps pivot" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A44:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="3"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="Monthly Trend" cacheId="245" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="Monthly Trend" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A15:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -15891,8 +15568,165 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="242" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="WeekDay trend" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="A31:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="7">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="11" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R05]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="8"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A10:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="6">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -15986,6 +15820,547 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC07D0C4-1C20-4975-A7EE-394D315C4D33}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
+  <location ref="A58:D63" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="30" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="30" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="15"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="13"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[customers]"/>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFED1980-F3DA-4181-984C-133E7C44C6C1}" name="seleted rep" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A55:A56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="1">
+        <item s="1" x="0"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x/>
+    </i>
+  </rowItems>
+  <formats count="1">
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06AD5479-9280-469F-AA3D-CDBD749637C2}" name="reps pivot" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A44:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{549B98BD-FAF4-46D6-9974-A86D8A646DF5}" name="rep satisfaction" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
+  <location ref="A67:B72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Call number" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="38" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R05]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="10"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[customers]"/>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{213820C0-D94F-4B7D-8DDB-DD3DC44499E7}" name="Summary" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" backgroundRefresh="0" connectionId="1" xr16:uid="{5C0E1D9F-05AD-4113-A0D6-0A59E3FD9177}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="14">
+    <queryTableFields count="13">
+      <queryTableField id="1" name="calls[Call number]" tableColumnId="1"/>
+      <queryTableField id="2" name="calls[Customer ID]" tableColumnId="2"/>
+      <queryTableField id="3" name="calls[Duration]" tableColumnId="3"/>
+      <queryTableField id="4" name="calls[Representative]" tableColumnId="4"/>
+      <queryTableField id="5" name="calls[Date of Call]" tableColumnId="5"/>
+      <queryTableField id="6" name="calls[Purchase Amount]" tableColumnId="6"/>
+      <queryTableField id="7" name="calls[Satisfaction Rating]" tableColumnId="7"/>
+      <queryTableField id="8" name="calls[FY]" tableColumnId="8"/>
+      <queryTableField id="9" name="calls[Day of week]" tableColumnId="9"/>
+      <queryTableField id="10" name="calls[Duration Bucket]" tableColumnId="10"/>
+      <queryTableField id="11" name="calls[Rating rounded]" tableColumnId="11"/>
+      <queryTableField id="12" name="calls[Date of Call (Month)]" tableColumnId="12"/>
+      <queryTableField id="13" name="calls[Date of Call (Month Index)]" tableColumnId="13"/>
+    </queryTableFields>
+  </queryTableRefresh>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{883FBD77-0823-4a55-B5E3-86C4891E6966}">
+      <x15:queryTable drillThrough="1"/>
+    </ext>
+  </extLst>
+</queryTable>
+</file>
+
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
@@ -16036,26 +16411,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7FCAE95E-21D7-4E8C-AC0F-DDD52513B1AA}" name="Table_ExternalData_1" displayName="Table_ExternalData_1" ref="A3:M17" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A3:M17" xr:uid="{7FCAE95E-21D7-4E8C-AC0F-DDD52513B1AA}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{0BCFFAF2-F5B1-42FD-8E9C-1021E5645AF8}" uniqueName="1" name="calls[Call number]" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{DC6D7266-1D9C-4237-9B64-E741F6A96DDD}" uniqueName="2" name="calls[Customer ID]" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{FCC8372B-E286-44CC-A869-52814C18EDD3}" uniqueName="3" name="calls[Duration]" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{B4D9CBBB-E978-45B6-9ED0-3BE55233281B}" uniqueName="4" name="calls[Representative]" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{F8903E70-C355-4DB1-B563-67F99262BC65}" uniqueName="5" name="calls[Date of Call]" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{2A1C27E0-4470-4602-AA09-99536A8C23F1}" uniqueName="6" name="calls[Purchase Amount]" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{D170794A-0D44-426F-A00A-295590960394}" uniqueName="7" name="calls[Satisfaction Rating]" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{9E1B2984-7818-465B-A171-6C4CB8B8ADC7}" uniqueName="8" name="calls[FY]" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{EA7957B9-E07E-46DA-B305-4E15C1F1B3F9}" uniqueName="9" name="calls[Day of week]" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{5B5EF295-C925-43D5-9A79-5CD4944B0EC2}" uniqueName="10" name="calls[Duration Bucket]" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{134EB434-E303-4E53-92BB-D60CECFB1A2A}" uniqueName="11" name="calls[Rating rounded]" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{DDE73B9B-E293-4640-932C-C60DFDDB4662}" uniqueName="12" name="calls[Date of Call (Month)]" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{1E0FF084-FA7B-4031-BE70-952475956FAA}" uniqueName="13" name="calls[Date of Call (Month Index)]" queryTableFieldId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3C59B71-D053-4B57-AB1E-899F1C5F06CA}" name="calls" displayName="calls" ref="B3:L1003" totalsRowShown="0">
   <autoFilter ref="B3:L1003" xr:uid="{A3C59B71-D053-4B57-AB1E-899F1C5F06CA}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{A2AD6D5F-C481-4C4C-930A-923A5754639A}" name="Call number"/>
     <tableColumn id="2" xr3:uid="{6E1FEEB5-4749-4689-ACB4-6B80FABDC996}" name="Customer ID"/>
     <tableColumn id="3" xr3:uid="{BEB7BC5B-9542-4200-B3AF-209D2A736D88}" name="Duration"/>
-    <tableColumn id="4" xr3:uid="{A1817995-EFD7-4CEA-BF34-093CA60B7490}" name="Representative" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{5A35565E-8707-4DED-AD15-A0669D67B382}" name="Date of Call" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{A1817995-EFD7-4CEA-BF34-093CA60B7490}" name="Representative" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{5A35565E-8707-4DED-AD15-A0669D67B382}" name="Date of Call" dataDxfId="13"/>
     <tableColumn id="6" xr3:uid="{F2E4F158-B41F-47BC-8DF8-DFCADFEE4E40}" name="Purchase Amount"/>
     <tableColumn id="7" xr3:uid="{04B291B5-47BD-4F78-8FD8-D1551CCA6BD9}" name="Satisfaction Rating"/>
-    <tableColumn id="8" xr3:uid="{6E4123C0-0B17-43B8-A142-A1E540CE974C}" name="FY" dataDxfId="22">
+    <tableColumn id="8" xr3:uid="{6E4123C0-0B17-43B8-A142-A1E540CE974C}" name="FY" dataDxfId="12">
       <calculatedColumnFormula>IF(MONTH(calls[[#This Row],[Date of Call]])&lt;=6, YEAR(calls[[#This Row],[Date of Call]]), YEAR(calls[[#This Row],[Date of Call]])+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{199FA271-5E9B-46CE-9BC6-2801F92CD17E}" name="Day of week" dataDxfId="21">
+    <tableColumn id="9" xr3:uid="{199FA271-5E9B-46CE-9BC6-2801F92CD17E}" name="Day of week" dataDxfId="11">
       <calculatedColumnFormula>TEXT(calls[[#This Row],[Date of Call]],"DDDD")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{328CDB09-95B8-4D5E-9ED9-EF0D363735A1}" name="Duration Bucket" dataDxfId="20">
+    <tableColumn id="10" xr3:uid="{328CDB09-95B8-4D5E-9ED9-EF0D363735A1}" name="Duration Bucket" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.IFS(calls[[#This Row],[Duration]]&lt;=10,"Under 10 mins", calls[[#This Row],[Duration]]&lt;=30, "10 to 30 mins", calls[[#This Row],[Duration]]&lt;=60, "30 to 60 mins", calls[[#This Row],[Duration]]&lt;=120, "1 to 2 hours", TRUE, "More than 2 hours")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{31C7E7FB-94CB-4DAB-B0CB-46B648CD4D41}" name="Rating rounded" dataDxfId="19">
+    <tableColumn id="11" xr3:uid="{31C7E7FB-94CB-4DAB-B0CB-46B648CD4D41}" name="Rating rounded" dataDxfId="9">
       <calculatedColumnFormula>ROUND(calls[[#This Row],[Satisfaction Rating]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16063,14 +16460,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}" name="customers" displayName="customers" ref="Q3:T18" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}" name="customers" displayName="customers" ref="Q3:T18" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="Q3:T18" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{02688061-6A8C-4E23-B7FF-D00CD8B58CAC}" name="Customer ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{771678B6-DB44-426B-9874-B4E421A440D5}" name="Gedner" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B0D41C62-587E-494D-B49A-603F2C05F8D3}" name="Age" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{663F92D6-FE31-4D81-9E01-8D066DDC8A88}" name="City" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{02688061-6A8C-4E23-B7FF-D00CD8B58CAC}" name="Customer ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{771678B6-DB44-426B-9874-B4E421A440D5}" name="Gedner" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B0D41C62-587E-494D-B49A-603F2C05F8D3}" name="Age" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{663F92D6-FE31-4D81-9E01-8D066DDC8A88}" name="City" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16278,21 +16675,670 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF2D4B3-C8F1-4AB6-B88A-F266A17D1726}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="32">
+        <v>45004</v>
+      </c>
+      <c r="F4">
+        <v>93</v>
+      </c>
+      <c r="G4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H4">
+        <v>2023</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="32">
+        <v>45035</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>3.6</v>
+      </c>
+      <c r="H5">
+        <v>2023</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="32">
+        <v>45039</v>
+      </c>
+      <c r="F6">
+        <v>160</v>
+      </c>
+      <c r="G6">
+        <v>3.2</v>
+      </c>
+      <c r="H6">
+        <v>2023</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="32">
+        <v>45045</v>
+      </c>
+      <c r="F7">
+        <v>150</v>
+      </c>
+      <c r="G7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H7">
+        <v>2023</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>485</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="32">
+        <v>45054</v>
+      </c>
+      <c r="F8">
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <v>3.8</v>
+      </c>
+      <c r="H8">
+        <v>2023</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="32">
+        <v>45076</v>
+      </c>
+      <c r="F9">
+        <v>125</v>
+      </c>
+      <c r="G9">
+        <v>3.5</v>
+      </c>
+      <c r="H9">
+        <v>2023</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>553</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="32">
+        <v>45082</v>
+      </c>
+      <c r="F10">
+        <v>120</v>
+      </c>
+      <c r="G10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H10">
+        <v>2023</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>654</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>172</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="32">
+        <v>45127</v>
+      </c>
+      <c r="F11">
+        <v>27</v>
+      </c>
+      <c r="G11">
+        <v>4.2</v>
+      </c>
+      <c r="H11">
+        <v>2024</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="32">
+        <v>45204</v>
+      </c>
+      <c r="F12">
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>3.7</v>
+      </c>
+      <c r="H12">
+        <v>2024</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>898</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="32">
+        <v>45225</v>
+      </c>
+      <c r="F13">
+        <v>180</v>
+      </c>
+      <c r="G13">
+        <v>3.8</v>
+      </c>
+      <c r="H13">
+        <v>2024</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>939</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="32">
+        <v>45243</v>
+      </c>
+      <c r="F14">
+        <v>108</v>
+      </c>
+      <c r="G14">
+        <v>3.8</v>
+      </c>
+      <c r="H14">
+        <v>2024</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>988</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="32">
+        <v>45269</v>
+      </c>
+      <c r="F15">
+        <v>82</v>
+      </c>
+      <c r="G15">
+        <v>3.7</v>
+      </c>
+      <c r="H15">
+        <v>2024</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="32">
+        <v>45280</v>
+      </c>
+      <c r="F16">
+        <v>190</v>
+      </c>
+      <c r="G16">
+        <v>3.7</v>
+      </c>
+      <c r="H16">
+        <v>2024</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="32">
+        <v>45291</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <v>3.9</v>
+      </c>
+      <c r="H17">
+        <v>2024</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M17">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834D0550-23E6-4ECE-88FB-C7046FEC3829}">
-  <dimension ref="A3:I72"/>
+  <dimension ref="A3:I98"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" customWidth="1"/>
     <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -16872,7 +17918,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="s">
         <v>1048</v>
       </c>
@@ -16880,44 +17926,466 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="25">
         <v>2</v>
       </c>
-      <c r="B68" s="29">
+      <c r="B68" s="30">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="25">
         <v>3</v>
       </c>
-      <c r="B69" s="29">
+      <c r="B69" s="30">
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="25">
         <v>4</v>
       </c>
-      <c r="B70" s="29">
+      <c r="B70" s="30">
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="25">
         <v>5</v>
       </c>
-      <c r="B71" s="29">
+      <c r="B71" s="30">
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="25" t="s">
         <v>1049</v>
       </c>
-      <c r="B72" s="29">
+      <c r="B72" s="30">
         <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="25"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="25"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="24" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="25" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="22">
+        <v>891</v>
+      </c>
+      <c r="C82" s="22">
+        <v>1332</v>
+      </c>
+      <c r="D82" s="22">
+        <v>1282</v>
+      </c>
+      <c r="E82" s="22">
+        <v>739</v>
+      </c>
+      <c r="F82" s="22">
+        <v>560</v>
+      </c>
+      <c r="G82" s="22">
+        <v>4804</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="22">
+        <v>1991</v>
+      </c>
+      <c r="C83" s="22">
+        <v>1886</v>
+      </c>
+      <c r="D83" s="22">
+        <v>1206</v>
+      </c>
+      <c r="E83" s="22">
+        <v>884</v>
+      </c>
+      <c r="F83" s="22">
+        <v>1722</v>
+      </c>
+      <c r="G83" s="22">
+        <v>7689</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="22">
+        <v>1163</v>
+      </c>
+      <c r="C84" s="22">
+        <v>1180</v>
+      </c>
+      <c r="D84" s="22">
+        <v>1616</v>
+      </c>
+      <c r="E84" s="22">
+        <v>1043</v>
+      </c>
+      <c r="F84" s="22">
+        <v>1747</v>
+      </c>
+      <c r="G84" s="22">
+        <v>6749</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="22">
+        <v>1438</v>
+      </c>
+      <c r="C85" s="22">
+        <v>1616</v>
+      </c>
+      <c r="D85" s="22">
+        <v>866</v>
+      </c>
+      <c r="E85" s="22">
+        <v>829</v>
+      </c>
+      <c r="F85" s="22">
+        <v>2070</v>
+      </c>
+      <c r="G85" s="22">
+        <v>6819</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="25" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="22">
+        <v>1233</v>
+      </c>
+      <c r="C87" s="22">
+        <v>223</v>
+      </c>
+      <c r="D87" s="22">
+        <v>1680</v>
+      </c>
+      <c r="E87" s="22">
+        <v>990</v>
+      </c>
+      <c r="F87" s="22">
+        <v>1508</v>
+      </c>
+      <c r="G87" s="22">
+        <v>5634</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="22">
+        <v>1598</v>
+      </c>
+      <c r="C88" s="22">
+        <v>1907</v>
+      </c>
+      <c r="D88" s="22">
+        <v>869</v>
+      </c>
+      <c r="E88" s="22">
+        <v>1426</v>
+      </c>
+      <c r="F88" s="22">
+        <v>1416</v>
+      </c>
+      <c r="G88" s="22">
+        <v>7216</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="22">
+        <v>900</v>
+      </c>
+      <c r="C89" s="22">
+        <v>1016</v>
+      </c>
+      <c r="D89" s="22">
+        <v>960</v>
+      </c>
+      <c r="E89" s="22">
+        <v>940</v>
+      </c>
+      <c r="F89" s="22">
+        <v>1193</v>
+      </c>
+      <c r="G89" s="22">
+        <v>5009</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="22">
+        <v>900</v>
+      </c>
+      <c r="C90" s="22">
+        <v>1470</v>
+      </c>
+      <c r="D90" s="22">
+        <v>1617</v>
+      </c>
+      <c r="E90" s="22">
+        <v>1314</v>
+      </c>
+      <c r="F90" s="22">
+        <v>941</v>
+      </c>
+      <c r="G90" s="22">
+        <v>6242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="22">
+        <v>1255</v>
+      </c>
+      <c r="C91" s="22">
+        <v>516</v>
+      </c>
+      <c r="D91" s="22">
+        <v>1874</v>
+      </c>
+      <c r="E91" s="22">
+        <v>1863</v>
+      </c>
+      <c r="F91" s="22">
+        <v>1722</v>
+      </c>
+      <c r="G91" s="22">
+        <v>7230</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" s="22">
+        <v>1138</v>
+      </c>
+      <c r="C92" s="22">
+        <v>1898</v>
+      </c>
+      <c r="D92" s="22">
+        <v>1482</v>
+      </c>
+      <c r="E92" s="22">
+        <v>846</v>
+      </c>
+      <c r="F92" s="22">
+        <v>1154</v>
+      </c>
+      <c r="G92" s="22">
+        <v>6518</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="25" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="22">
+        <v>1655</v>
+      </c>
+      <c r="C94" s="22">
+        <v>805</v>
+      </c>
+      <c r="D94" s="22">
+        <v>2263</v>
+      </c>
+      <c r="E94" s="22">
+        <v>987</v>
+      </c>
+      <c r="F94" s="22">
+        <v>1075</v>
+      </c>
+      <c r="G94" s="22">
+        <v>6785</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="22">
+        <v>1104</v>
+      </c>
+      <c r="C95" s="22">
+        <v>2280</v>
+      </c>
+      <c r="D95" s="22">
+        <v>1445</v>
+      </c>
+      <c r="E95" s="22">
+        <v>1722</v>
+      </c>
+      <c r="F95" s="22">
+        <v>1196</v>
+      </c>
+      <c r="G95" s="22">
+        <v>7747</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="22">
+        <v>372</v>
+      </c>
+      <c r="C96" s="22">
+        <v>1818</v>
+      </c>
+      <c r="D96" s="22">
+        <v>1346</v>
+      </c>
+      <c r="E96" s="22">
+        <v>1156</v>
+      </c>
+      <c r="F96" s="22">
+        <v>1484</v>
+      </c>
+      <c r="G96" s="22">
+        <v>6176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="22">
+        <v>1415</v>
+      </c>
+      <c r="C97" s="22">
+        <v>1271</v>
+      </c>
+      <c r="D97" s="22">
+        <v>1214</v>
+      </c>
+      <c r="E97" s="22">
+        <v>1135</v>
+      </c>
+      <c r="F97" s="22">
+        <v>1566</v>
+      </c>
+      <c r="G97" s="22">
+        <v>6601</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="22">
+        <v>1362</v>
+      </c>
+      <c r="C98" s="22">
+        <v>1363</v>
+      </c>
+      <c r="D98" s="22">
+        <v>1152</v>
+      </c>
+      <c r="E98" s="22">
+        <v>777</v>
+      </c>
+      <c r="F98" s="22">
+        <v>750</v>
+      </c>
+      <c r="G98" s="22">
+        <v>5404</v>
       </c>
     </row>
   </sheetData>
@@ -16925,7 +18393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB3BB9B-13D8-4B9D-93DC-F3AAA9091AD1}">
   <dimension ref="B1:T1003"/>
   <sheetViews>
@@ -56195,18 +57663,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00F2D57-6A6B-4B4C-88B6-CD6A1F8BA299}">
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="4" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
@@ -56708,12 +58178,25 @@
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
+      <c r="Q17" s="20" t="str" cm="1">
+        <f t="array" ref="Q17:U17">Pivots!B80:F80</f>
+        <v>R01</v>
+      </c>
+      <c r="R17" s="20" t="str">
+        <v>R02</v>
+      </c>
+      <c r="S17" s="20" t="str">
+        <v>R03</v>
+      </c>
+      <c r="T17" s="20" t="str">
+        <v>R04</v>
+      </c>
+      <c r="U17" s="20" t="str">
+        <v>R05</v>
+      </c>
+      <c r="V17" s="20" t="s">
+        <v>1099</v>
+      </c>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
@@ -56737,13 +58220,28 @@
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
+      <c r="P18" s="33" t="str" cm="1">
+        <f t="array" ref="P18:V35">IF(Pivots!A81:G98="","",Pivots!A81:G98)</f>
+        <v>Cincinnati</v>
+      </c>
+      <c r="Q18" s="33" t="str">
+        <v/>
+      </c>
+      <c r="R18" s="33" t="str">
+        <v/>
+      </c>
+      <c r="S18" s="33" t="str">
+        <v/>
+      </c>
+      <c r="T18" s="33" t="str">
+        <v/>
+      </c>
+      <c r="U18" s="33" t="str">
+        <v/>
+      </c>
+      <c r="V18" s="33" t="str">
+        <v/>
+      </c>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
@@ -56767,13 +58265,27 @@
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
+      <c r="P19" s="34" t="str">
+        <v>C0003</v>
+      </c>
+      <c r="Q19" s="35">
+        <v>891</v>
+      </c>
+      <c r="R19" s="35">
+        <v>1332</v>
+      </c>
+      <c r="S19" s="35">
+        <v>1282</v>
+      </c>
+      <c r="T19" s="35">
+        <v>739</v>
+      </c>
+      <c r="U19" s="35">
+        <v>560</v>
+      </c>
+      <c r="V19" s="35">
+        <v>4804</v>
+      </c>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
@@ -56797,13 +58309,27 @@
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
+      <c r="P20" s="34" t="str">
+        <v>C0004</v>
+      </c>
+      <c r="Q20" s="35">
+        <v>1991</v>
+      </c>
+      <c r="R20" s="35">
+        <v>1886</v>
+      </c>
+      <c r="S20" s="35">
+        <v>1206</v>
+      </c>
+      <c r="T20" s="35">
+        <v>884</v>
+      </c>
+      <c r="U20" s="35">
+        <v>1722</v>
+      </c>
+      <c r="V20" s="35">
+        <v>7689</v>
+      </c>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
@@ -56827,13 +58353,27 @@
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
+      <c r="P21" s="34" t="str">
+        <v>C0011</v>
+      </c>
+      <c r="Q21" s="35">
+        <v>1163</v>
+      </c>
+      <c r="R21" s="35">
+        <v>1180</v>
+      </c>
+      <c r="S21" s="35">
+        <v>1616</v>
+      </c>
+      <c r="T21" s="35">
+        <v>1043</v>
+      </c>
+      <c r="U21" s="35">
+        <v>1747</v>
+      </c>
+      <c r="V21" s="35">
+        <v>6749</v>
+      </c>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
@@ -56857,13 +58397,27 @@
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
+      <c r="P22" s="34" t="str">
+        <v>C0012</v>
+      </c>
+      <c r="Q22" s="35">
+        <v>1438</v>
+      </c>
+      <c r="R22" s="35">
+        <v>1616</v>
+      </c>
+      <c r="S22" s="35">
+        <v>866</v>
+      </c>
+      <c r="T22" s="35">
+        <v>829</v>
+      </c>
+      <c r="U22" s="35">
+        <v>2070</v>
+      </c>
+      <c r="V22" s="35">
+        <v>6819</v>
+      </c>
       <c r="W22" s="20"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
@@ -56887,13 +58441,27 @@
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
+      <c r="P23" s="33" t="str">
+        <v>Cleveland</v>
+      </c>
+      <c r="Q23" s="35" t="str">
+        <v/>
+      </c>
+      <c r="R23" s="35" t="str">
+        <v/>
+      </c>
+      <c r="S23" s="35" t="str">
+        <v/>
+      </c>
+      <c r="T23" s="35" t="str">
+        <v/>
+      </c>
+      <c r="U23" s="35" t="str">
+        <v/>
+      </c>
+      <c r="V23" s="35" t="str">
+        <v/>
+      </c>
       <c r="W23" s="20"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
@@ -56917,13 +58485,27 @@
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
+      <c r="P24" s="34" t="str">
+        <v>C0002</v>
+      </c>
+      <c r="Q24" s="35">
+        <v>1233</v>
+      </c>
+      <c r="R24" s="35">
+        <v>223</v>
+      </c>
+      <c r="S24" s="35">
+        <v>1680</v>
+      </c>
+      <c r="T24" s="35">
+        <v>990</v>
+      </c>
+      <c r="U24" s="35">
+        <v>1508</v>
+      </c>
+      <c r="V24" s="35">
+        <v>5634</v>
+      </c>
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
@@ -56947,13 +58529,27 @@
       <c r="M25" s="20"/>
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
+      <c r="P25" s="34" t="str">
+        <v>C0007</v>
+      </c>
+      <c r="Q25" s="35">
+        <v>1598</v>
+      </c>
+      <c r="R25" s="35">
+        <v>1907</v>
+      </c>
+      <c r="S25" s="35">
+        <v>869</v>
+      </c>
+      <c r="T25" s="35">
+        <v>1426</v>
+      </c>
+      <c r="U25" s="35">
+        <v>1416</v>
+      </c>
+      <c r="V25" s="35">
+        <v>7216</v>
+      </c>
       <c r="W25" s="20"/>
       <c r="X25" s="20"/>
       <c r="Y25" s="20"/>
@@ -56977,13 +58573,27 @@
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
+      <c r="P26" s="34" t="str">
+        <v>C0008</v>
+      </c>
+      <c r="Q26" s="35">
+        <v>900</v>
+      </c>
+      <c r="R26" s="35">
+        <v>1016</v>
+      </c>
+      <c r="S26" s="35">
+        <v>960</v>
+      </c>
+      <c r="T26" s="35">
+        <v>940</v>
+      </c>
+      <c r="U26" s="35">
+        <v>1193</v>
+      </c>
+      <c r="V26" s="35">
+        <v>5009</v>
+      </c>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
@@ -57007,13 +58617,27 @@
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
+      <c r="P27" s="34" t="str">
+        <v>C0010</v>
+      </c>
+      <c r="Q27" s="35">
+        <v>900</v>
+      </c>
+      <c r="R27" s="35">
+        <v>1470</v>
+      </c>
+      <c r="S27" s="35">
+        <v>1617</v>
+      </c>
+      <c r="T27" s="35">
+        <v>1314</v>
+      </c>
+      <c r="U27" s="35">
+        <v>941</v>
+      </c>
+      <c r="V27" s="35">
+        <v>6242</v>
+      </c>
       <c r="W27" s="20"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
@@ -57037,13 +58661,27 @@
       <c r="M28" s="20"/>
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
+      <c r="P28" s="34" t="str">
+        <v>C0013</v>
+      </c>
+      <c r="Q28" s="35">
+        <v>1255</v>
+      </c>
+      <c r="R28" s="35">
+        <v>516</v>
+      </c>
+      <c r="S28" s="35">
+        <v>1874</v>
+      </c>
+      <c r="T28" s="35">
+        <v>1863</v>
+      </c>
+      <c r="U28" s="35">
+        <v>1722</v>
+      </c>
+      <c r="V28" s="35">
+        <v>7230</v>
+      </c>
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
@@ -57067,13 +58705,27 @@
       <c r="M29" s="20"/>
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
+      <c r="P29" s="34" t="str">
+        <v>C0015</v>
+      </c>
+      <c r="Q29" s="35">
+        <v>1138</v>
+      </c>
+      <c r="R29" s="35">
+        <v>1898</v>
+      </c>
+      <c r="S29" s="35">
+        <v>1482</v>
+      </c>
+      <c r="T29" s="35">
+        <v>846</v>
+      </c>
+      <c r="U29" s="35">
+        <v>1154</v>
+      </c>
+      <c r="V29" s="35">
+        <v>6518</v>
+      </c>
       <c r="W29" s="20"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
@@ -57097,13 +58749,27 @@
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
+      <c r="P30" s="33" t="str">
+        <v>Columbus</v>
+      </c>
+      <c r="Q30" s="35" t="str">
+        <v/>
+      </c>
+      <c r="R30" s="35" t="str">
+        <v/>
+      </c>
+      <c r="S30" s="35" t="str">
+        <v/>
+      </c>
+      <c r="T30" s="35" t="str">
+        <v/>
+      </c>
+      <c r="U30" s="35" t="str">
+        <v/>
+      </c>
+      <c r="V30" s="35" t="str">
+        <v/>
+      </c>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
@@ -57127,13 +58793,27 @@
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
+      <c r="P31" s="34" t="str">
+        <v>C0001</v>
+      </c>
+      <c r="Q31" s="35">
+        <v>1655</v>
+      </c>
+      <c r="R31" s="35">
+        <v>805</v>
+      </c>
+      <c r="S31" s="35">
+        <v>2263</v>
+      </c>
+      <c r="T31" s="35">
+        <v>987</v>
+      </c>
+      <c r="U31" s="35">
+        <v>1075</v>
+      </c>
+      <c r="V31" s="35">
+        <v>6785</v>
+      </c>
       <c r="W31" s="20"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
@@ -57157,13 +58837,27 @@
       <c r="M32" s="20"/>
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
+      <c r="P32" s="34" t="str">
+        <v>C0005</v>
+      </c>
+      <c r="Q32" s="35">
+        <v>1104</v>
+      </c>
+      <c r="R32" s="35">
+        <v>2280</v>
+      </c>
+      <c r="S32" s="35">
+        <v>1445</v>
+      </c>
+      <c r="T32" s="35">
+        <v>1722</v>
+      </c>
+      <c r="U32" s="35">
+        <v>1196</v>
+      </c>
+      <c r="V32" s="35">
+        <v>7747</v>
+      </c>
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
@@ -57187,13 +58881,27 @@
       <c r="M33" s="20"/>
       <c r="N33" s="20"/>
       <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
+      <c r="P33" s="34" t="str">
+        <v>C0006</v>
+      </c>
+      <c r="Q33" s="35">
+        <v>372</v>
+      </c>
+      <c r="R33" s="35">
+        <v>1818</v>
+      </c>
+      <c r="S33" s="35">
+        <v>1346</v>
+      </c>
+      <c r="T33" s="35">
+        <v>1156</v>
+      </c>
+      <c r="U33" s="35">
+        <v>1484</v>
+      </c>
+      <c r="V33" s="35">
+        <v>6176</v>
+      </c>
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
@@ -57217,13 +58925,27 @@
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
       <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
+      <c r="P34" s="34" t="str">
+        <v>C0009</v>
+      </c>
+      <c r="Q34" s="35">
+        <v>1415</v>
+      </c>
+      <c r="R34" s="35">
+        <v>1271</v>
+      </c>
+      <c r="S34" s="35">
+        <v>1214</v>
+      </c>
+      <c r="T34" s="35">
+        <v>1135</v>
+      </c>
+      <c r="U34" s="35">
+        <v>1566</v>
+      </c>
+      <c r="V34" s="35">
+        <v>6601</v>
+      </c>
       <c r="W34" s="20"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
@@ -57247,13 +58969,27 @@
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
       <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
+      <c r="P35" s="34" t="str">
+        <v>C0014</v>
+      </c>
+      <c r="Q35" s="35">
+        <v>1362</v>
+      </c>
+      <c r="R35" s="35">
+        <v>1363</v>
+      </c>
+      <c r="S35" s="35">
+        <v>1152</v>
+      </c>
+      <c r="T35" s="35">
+        <v>777</v>
+      </c>
+      <c r="U35" s="35">
+        <v>750</v>
+      </c>
+      <c r="V35" s="35">
+        <v>5404</v>
+      </c>
       <c r="W35" s="20"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
@@ -58642,10 +60378,73 @@
       <c r="AB81" s="20"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="P18:U18 P19:P35">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="formula" val="&quot;max($Q$19:$U$35)*2&quot;"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{22901D1D-7E99-49FC-B4AF-659DFC33C3BD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18:U35">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="formula" val="MAX($Q$19:$U$35)*2"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{42C1ABA5-D22F-461B-A1E2-CED7C0B898D1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{22901D1D-7E99-49FC-B4AF-659DFC33C3BD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>"max($Q$19:$U$35)*2"</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P18:U18 P19:P35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{42C1ABA5-D22F-461B-A1E2-CED7C0B898D1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>MAX($Q$19:$U$35)*2</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q18:U35</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
         <x14:slicer r:id="rId3"/>
@@ -58655,7 +60454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C58293-5D98-49E6-AECB-82BF78A22E13}">
   <dimension ref="E2:F7"/>
   <sheetViews>

--- a/PortfolioProject.xlsx
+++ b/PortfolioProject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDFFBAC-3BC0-402F-80B1-C94B9E3C7C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8657F8D9-130B-4630-9A11-10EF4BBCDF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -31,17 +31,17 @@
     <pivotCache cacheId="0" r:id="rId6"/>
     <pivotCache cacheId="1" r:id="rId7"/>
     <pivotCache cacheId="2" r:id="rId8"/>
-    <pivotCache cacheId="22" r:id="rId9"/>
-    <pivotCache cacheId="25" r:id="rId10"/>
-    <pivotCache cacheId="28" r:id="rId11"/>
-    <pivotCache cacheId="31" r:id="rId12"/>
-    <pivotCache cacheId="34" r:id="rId13"/>
-    <pivotCache cacheId="51" r:id="rId14"/>
+    <pivotCache cacheId="3" r:id="rId9"/>
+    <pivotCache cacheId="4" r:id="rId10"/>
+    <pivotCache cacheId="5" r:id="rId11"/>
+    <pivotCache cacheId="6" r:id="rId12"/>
+    <pivotCache cacheId="7" r:id="rId13"/>
+    <pivotCache cacheId="8" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="8" r:id="rId15"/>
+        <pivotCache cacheId="9" r:id="rId15"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -3463,9 +3463,9 @@
     <numFmt numFmtId="165" formatCode="\$#,##0;\-\$#,##0;\$#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="\$#,###.0,&quot;k&quot;"/>
-    <numFmt numFmtId="169" formatCode="[$$-C09]#,##0"/>
+    <numFmt numFmtId="168" formatCode="[$$-C09]#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3507,8 +3507,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3539,8 +3547,20 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3668,11 +3688,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3717,23 +3773,74 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3883,11 +3990,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -3942,11 +4045,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style 1" pivot="0" table="0" count="1" xr9:uid="{25BABDA2-DB3D-41F6-98D0-3EE7CBB0176F}">
-      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
     </tableStyle>
     <tableStyle name="SlicerStyleDark5 2" pivot="0" table="0" count="10" xr9:uid="{AD47E305-3DEF-4232-A944-71C987D02AB4}">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -14842,7 +14945,773 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FF85D9D-1E8B-4493-B048-BC66BC26138C}" name="rep amounts" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06AD5479-9280-469F-AA3D-CDBD749637C2}" name="reps pivot" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A44:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="WeekDay trend" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="A31:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="7">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="11" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R05]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="8"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{549B98BD-FAF4-46D6-9974-A86D8A646DF5}" name="rep satisfaction" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
+  <location ref="A67:B72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Call number" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="38" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R05]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="10"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[customers]"/>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{213820C0-D94F-4B7D-8DDB-DD3DC44499E7}" name="Summary" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A10:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R05]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC07D0C4-1C20-4975-A7EE-394D315C4D33}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
+  <location ref="A58:D63" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="30" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="30" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="15"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="13"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[customers]"/>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFED1980-F3DA-4181-984C-133E7C44C6C1}" name="seleted rep" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A55:A56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="1">
+        <item s="1" x="0"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x/>
+    </i>
+  </rowItems>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FF85D9D-1E8B-4493-B048-BC66BC26138C}" name="rep amounts" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
   <location ref="A79:G98" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -15023,8 +15892,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="Monthly Trend" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="Monthly Trend" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A15:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -15568,772 +16437,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="WeekDay trend" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="A31:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="7">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="11" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R05]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="8"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A10:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="6">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R05]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC07D0C4-1C20-4975-A7EE-394D315C4D33}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
-  <location ref="A58:D63" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="30" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="30" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="15"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="13"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[customers]"/>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFED1980-F3DA-4181-984C-133E7C44C6C1}" name="seleted rep" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A55:A56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="1">
-        <item s="1" x="0"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x/>
-    </i>
-  </rowItems>
-  <formats count="1">
-    <format dxfId="15">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="3"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06AD5479-9280-469F-AA3D-CDBD749637C2}" name="reps pivot" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A44:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="3"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{549B98BD-FAF4-46D6-9974-A86D8A646DF5}" name="rep satisfaction" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
-  <location ref="A67:B72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Call number" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="38" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R05]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="10"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[customers]"/>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{213820C0-D94F-4B7D-8DDB-DD3DC44499E7}" name="Summary" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" backgroundRefresh="0" connectionId="1" xr16:uid="{5C0E1D9F-05AD-4113-A0D6-0A59E3FD9177}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="14">
@@ -16418,7 +16521,7 @@
     <tableColumn id="2" xr3:uid="{DC6D7266-1D9C-4237-9B64-E741F6A96DDD}" uniqueName="2" name="calls[Customer ID]" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{FCC8372B-E286-44CC-A869-52814C18EDD3}" uniqueName="3" name="calls[Duration]" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{B4D9CBBB-E978-45B6-9ED0-3BE55233281B}" uniqueName="4" name="calls[Representative]" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{F8903E70-C355-4DB1-B563-67F99262BC65}" uniqueName="5" name="calls[Date of Call]" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{F8903E70-C355-4DB1-B563-67F99262BC65}" uniqueName="5" name="calls[Date of Call]" queryTableFieldId="5" dataDxfId="17"/>
     <tableColumn id="6" xr3:uid="{2A1C27E0-4470-4602-AA09-99536A8C23F1}" uniqueName="6" name="calls[Purchase Amount]" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{D170794A-0D44-426F-A00A-295590960394}" uniqueName="7" name="calls[Satisfaction Rating]" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{9E1B2984-7818-465B-A171-6C4CB8B8ADC7}" uniqueName="8" name="calls[FY]" queryTableFieldId="8"/>
@@ -16439,20 +16542,20 @@
     <tableColumn id="1" xr3:uid="{A2AD6D5F-C481-4C4C-930A-923A5754639A}" name="Call number"/>
     <tableColumn id="2" xr3:uid="{6E1FEEB5-4749-4689-ACB4-6B80FABDC996}" name="Customer ID"/>
     <tableColumn id="3" xr3:uid="{BEB7BC5B-9542-4200-B3AF-209D2A736D88}" name="Duration"/>
-    <tableColumn id="4" xr3:uid="{A1817995-EFD7-4CEA-BF34-093CA60B7490}" name="Representative" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{5A35565E-8707-4DED-AD15-A0669D67B382}" name="Date of Call" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{A1817995-EFD7-4CEA-BF34-093CA60B7490}" name="Representative" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{5A35565E-8707-4DED-AD15-A0669D67B382}" name="Date of Call" dataDxfId="15"/>
     <tableColumn id="6" xr3:uid="{F2E4F158-B41F-47BC-8DF8-DFCADFEE4E40}" name="Purchase Amount"/>
     <tableColumn id="7" xr3:uid="{04B291B5-47BD-4F78-8FD8-D1551CCA6BD9}" name="Satisfaction Rating"/>
-    <tableColumn id="8" xr3:uid="{6E4123C0-0B17-43B8-A142-A1E540CE974C}" name="FY" dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{6E4123C0-0B17-43B8-A142-A1E540CE974C}" name="FY" dataDxfId="14">
       <calculatedColumnFormula>IF(MONTH(calls[[#This Row],[Date of Call]])&lt;=6, YEAR(calls[[#This Row],[Date of Call]]), YEAR(calls[[#This Row],[Date of Call]])+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{199FA271-5E9B-46CE-9BC6-2801F92CD17E}" name="Day of week" dataDxfId="11">
+    <tableColumn id="9" xr3:uid="{199FA271-5E9B-46CE-9BC6-2801F92CD17E}" name="Day of week" dataDxfId="13">
       <calculatedColumnFormula>TEXT(calls[[#This Row],[Date of Call]],"DDDD")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{328CDB09-95B8-4D5E-9ED9-EF0D363735A1}" name="Duration Bucket" dataDxfId="10">
+    <tableColumn id="10" xr3:uid="{328CDB09-95B8-4D5E-9ED9-EF0D363735A1}" name="Duration Bucket" dataDxfId="12">
       <calculatedColumnFormula array="1">_xlfn.IFS(calls[[#This Row],[Duration]]&lt;=10,"Under 10 mins", calls[[#This Row],[Duration]]&lt;=30, "10 to 30 mins", calls[[#This Row],[Duration]]&lt;=60, "30 to 60 mins", calls[[#This Row],[Duration]]&lt;=120, "1 to 2 hours", TRUE, "More than 2 hours")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{31C7E7FB-94CB-4DAB-B0CB-46B648CD4D41}" name="Rating rounded" dataDxfId="9">
+    <tableColumn id="11" xr3:uid="{31C7E7FB-94CB-4DAB-B0CB-46B648CD4D41}" name="Rating rounded" dataDxfId="11">
       <calculatedColumnFormula>ROUND(calls[[#This Row],[Satisfaction Rating]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16461,13 +16564,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}" name="customers" displayName="customers" ref="Q3:T18" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}" name="customers" displayName="customers" ref="Q3:T18" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="Q3:T18" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{02688061-6A8C-4E23-B7FF-D00CD8B58CAC}" name="Customer ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{771678B6-DB44-426B-9874-B4E421A440D5}" name="Gedner" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{B0D41C62-587E-494D-B49A-603F2C05F8D3}" name="Age" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{663F92D6-FE31-4D81-9E01-8D066DDC8A88}" name="City" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{02688061-6A8C-4E23-B7FF-D00CD8B58CAC}" name="Customer ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{771678B6-DB44-426B-9874-B4E421A440D5}" name="Gedner" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B0D41C62-587E-494D-B49A-603F2C05F8D3}" name="Age" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{663F92D6-FE31-4D81-9E01-8D066DDC8A88}" name="City" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16756,7 +16859,7 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <v>45004</v>
       </c>
       <c r="F4">
@@ -16797,7 +16900,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>45035</v>
       </c>
       <c r="F5">
@@ -16838,7 +16941,7 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="31">
         <v>45039</v>
       </c>
       <c r="F6">
@@ -16879,7 +16982,7 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <v>45045</v>
       </c>
       <c r="F7">
@@ -16920,7 +17023,7 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>45054</v>
       </c>
       <c r="F8">
@@ -16961,7 +17064,7 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <v>45076</v>
       </c>
       <c r="F9">
@@ -17002,7 +17105,7 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="31">
         <v>45082</v>
       </c>
       <c r="F10">
@@ -17043,7 +17146,7 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <v>45127</v>
       </c>
       <c r="F11">
@@ -17084,7 +17187,7 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>45204</v>
       </c>
       <c r="F12">
@@ -17125,7 +17228,7 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <v>45225</v>
       </c>
       <c r="F13">
@@ -17166,7 +17269,7 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="31">
         <v>45243</v>
       </c>
       <c r="F14">
@@ -17207,7 +17310,7 @@
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="31">
         <v>45269</v>
       </c>
       <c r="F15">
@@ -17248,7 +17351,7 @@
       <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="31">
         <v>45280</v>
       </c>
       <c r="F16">
@@ -17289,7 +17392,7 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <v>45291</v>
       </c>
       <c r="F17">
@@ -17329,8 +17432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834D0550-23E6-4ECE-88FB-C7046FEC3829}">
   <dimension ref="A3:I98"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:G98"/>
+    <sheetView topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17830,6 +17933,12 @@
         <v>20104</v>
       </c>
     </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <f>Assets!F3</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
         <v>1048</v>
@@ -17930,7 +18039,7 @@
       <c r="A68" s="25">
         <v>2</v>
       </c>
-      <c r="B68" s="30">
+      <c r="B68">
         <v>10</v>
       </c>
     </row>
@@ -17938,7 +18047,7 @@
       <c r="A69" s="25">
         <v>3</v>
       </c>
-      <c r="B69" s="30">
+      <c r="B69">
         <v>44</v>
       </c>
     </row>
@@ -17946,7 +18055,7 @@
       <c r="A70" s="25">
         <v>4</v>
       </c>
-      <c r="B70" s="30">
+      <c r="B70">
         <v>95</v>
       </c>
     </row>
@@ -17954,7 +18063,7 @@
       <c r="A71" s="25">
         <v>5</v>
       </c>
-      <c r="B71" s="30">
+      <c r="B71">
         <v>51</v>
       </c>
     </row>
@@ -17962,7 +18071,7 @@
       <c r="A72" s="25" t="s">
         <v>1049</v>
       </c>
-      <c r="B72" s="30">
+      <c r="B72">
         <v>200</v>
       </c>
     </row>
@@ -18011,15 +18120,9 @@
       <c r="A81" s="25" t="s">
         <v>1002</v>
       </c>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B82" s="22">
@@ -18042,7 +18145,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B83" s="22">
@@ -18065,7 +18168,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="22">
@@ -18088,7 +18191,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B85" s="22">
@@ -18114,15 +18217,9 @@
       <c r="A86" s="25" t="s">
         <v>1001</v>
       </c>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B87" s="22">
@@ -18145,7 +18242,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B88" s="22">
@@ -18171,7 +18268,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="22">
@@ -18194,7 +18291,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="30" t="s">
         <v>18</v>
       </c>
       <c r="B90" s="22">
@@ -18217,7 +18314,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B91" s="22">
@@ -18240,7 +18337,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="31" t="s">
+      <c r="A92" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B92" s="22">
@@ -18266,15 +18363,9 @@
       <c r="A93" s="25" t="s">
         <v>1000</v>
       </c>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B94" s="22">
@@ -18297,7 +18388,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B95" s="22">
@@ -18320,7 +18411,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="31" t="s">
+      <c r="A96" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B96" s="22">
@@ -18343,7 +18434,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B97" s="22">
@@ -18366,7 +18457,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="30" t="s">
         <v>21</v>
       </c>
       <c r="B98" s="22">
@@ -57667,8 +57758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00F2D57-6A6B-4B4C-88B6-CD6A1F8BA299}">
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView topLeftCell="E14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58147,13 +58238,13 @@
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="36"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
@@ -58177,24 +58268,24 @@
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20" t="str" cm="1">
+      <c r="P17" s="43"/>
+      <c r="Q17" s="44" t="str" cm="1">
         <f t="array" ref="Q17:U17">Pivots!B80:F80</f>
         <v>R01</v>
       </c>
-      <c r="R17" s="20" t="str">
+      <c r="R17" s="44" t="str">
         <v>R02</v>
       </c>
-      <c r="S17" s="20" t="str">
+      <c r="S17" s="44" t="str">
         <v>R03</v>
       </c>
-      <c r="T17" s="20" t="str">
+      <c r="T17" s="44" t="str">
         <v>R04</v>
       </c>
-      <c r="U17" s="20" t="str">
+      <c r="U17" s="44" t="str">
         <v>R05</v>
       </c>
-      <c r="V17" s="20" t="s">
+      <c r="V17" s="45" t="s">
         <v>1099</v>
       </c>
       <c r="W17" s="20"/>
@@ -58220,26 +58311,26 @@
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
-      <c r="P18" s="33" t="str" cm="1">
+      <c r="P18" s="46" t="str" cm="1">
         <f t="array" ref="P18:V35">IF(Pivots!A81:G98="","",Pivots!A81:G98)</f>
         <v>Cincinnati</v>
       </c>
-      <c r="Q18" s="33" t="str">
+      <c r="Q18" s="32" t="str">
         <v/>
       </c>
-      <c r="R18" s="33" t="str">
+      <c r="R18" s="32" t="str">
         <v/>
       </c>
-      <c r="S18" s="33" t="str">
+      <c r="S18" s="32" t="str">
         <v/>
       </c>
-      <c r="T18" s="33" t="str">
+      <c r="T18" s="32" t="str">
         <v/>
       </c>
-      <c r="U18" s="33" t="str">
+      <c r="U18" s="32" t="str">
         <v/>
       </c>
-      <c r="V18" s="33" t="str">
+      <c r="V18" s="37" t="str">
         <v/>
       </c>
       <c r="W18" s="20"/>
@@ -58265,25 +58356,25 @@
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
-      <c r="P19" s="34" t="str">
+      <c r="P19" s="38" t="str">
         <v>C0003</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="Q19" s="33">
         <v>891</v>
       </c>
-      <c r="R19" s="35">
+      <c r="R19" s="33">
         <v>1332</v>
       </c>
-      <c r="S19" s="35">
+      <c r="S19" s="33">
         <v>1282</v>
       </c>
-      <c r="T19" s="35">
+      <c r="T19" s="33">
         <v>739</v>
       </c>
-      <c r="U19" s="35">
+      <c r="U19" s="33">
         <v>560</v>
       </c>
-      <c r="V19" s="35">
+      <c r="V19" s="39">
         <v>4804</v>
       </c>
       <c r="W19" s="20"/>
@@ -58309,25 +58400,25 @@
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
-      <c r="P20" s="34" t="str">
+      <c r="P20" s="38" t="str">
         <v>C0004</v>
       </c>
-      <c r="Q20" s="35">
+      <c r="Q20" s="33">
         <v>1991</v>
       </c>
-      <c r="R20" s="35">
+      <c r="R20" s="33">
         <v>1886</v>
       </c>
-      <c r="S20" s="35">
+      <c r="S20" s="33">
         <v>1206</v>
       </c>
-      <c r="T20" s="35">
+      <c r="T20" s="33">
         <v>884</v>
       </c>
-      <c r="U20" s="35">
+      <c r="U20" s="33">
         <v>1722</v>
       </c>
-      <c r="V20" s="35">
+      <c r="V20" s="39">
         <v>7689</v>
       </c>
       <c r="W20" s="20"/>
@@ -58353,25 +58444,25 @@
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
-      <c r="P21" s="34" t="str">
+      <c r="P21" s="38" t="str">
         <v>C0011</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="Q21" s="33">
         <v>1163</v>
       </c>
-      <c r="R21" s="35">
+      <c r="R21" s="33">
         <v>1180</v>
       </c>
-      <c r="S21" s="35">
+      <c r="S21" s="33">
         <v>1616</v>
       </c>
-      <c r="T21" s="35">
+      <c r="T21" s="33">
         <v>1043</v>
       </c>
-      <c r="U21" s="35">
+      <c r="U21" s="33">
         <v>1747</v>
       </c>
-      <c r="V21" s="35">
+      <c r="V21" s="39">
         <v>6749</v>
       </c>
       <c r="W21" s="20"/>
@@ -58397,25 +58488,25 @@
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
-      <c r="P22" s="34" t="str">
+      <c r="P22" s="38" t="str">
         <v>C0012</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22" s="33">
         <v>1438</v>
       </c>
-      <c r="R22" s="35">
+      <c r="R22" s="33">
         <v>1616</v>
       </c>
-      <c r="S22" s="35">
+      <c r="S22" s="33">
         <v>866</v>
       </c>
-      <c r="T22" s="35">
+      <c r="T22" s="33">
         <v>829</v>
       </c>
-      <c r="U22" s="35">
+      <c r="U22" s="33">
         <v>2070</v>
       </c>
-      <c r="V22" s="35">
+      <c r="V22" s="39">
         <v>6819</v>
       </c>
       <c r="W22" s="20"/>
@@ -58441,25 +58532,25 @@
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
-      <c r="P23" s="33" t="str">
+      <c r="P23" s="46" t="str">
         <v>Cleveland</v>
       </c>
-      <c r="Q23" s="35" t="str">
+      <c r="Q23" s="33" t="str">
         <v/>
       </c>
-      <c r="R23" s="35" t="str">
+      <c r="R23" s="33" t="str">
         <v/>
       </c>
-      <c r="S23" s="35" t="str">
+      <c r="S23" s="33" t="str">
         <v/>
       </c>
-      <c r="T23" s="35" t="str">
+      <c r="T23" s="33" t="str">
         <v/>
       </c>
-      <c r="U23" s="35" t="str">
+      <c r="U23" s="33" t="str">
         <v/>
       </c>
-      <c r="V23" s="35" t="str">
+      <c r="V23" s="39" t="str">
         <v/>
       </c>
       <c r="W23" s="20"/>
@@ -58485,25 +58576,25 @@
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
-      <c r="P24" s="34" t="str">
+      <c r="P24" s="38" t="str">
         <v>C0002</v>
       </c>
-      <c r="Q24" s="35">
+      <c r="Q24" s="33">
         <v>1233</v>
       </c>
-      <c r="R24" s="35">
+      <c r="R24" s="33">
         <v>223</v>
       </c>
-      <c r="S24" s="35">
+      <c r="S24" s="33">
         <v>1680</v>
       </c>
-      <c r="T24" s="35">
+      <c r="T24" s="33">
         <v>990</v>
       </c>
-      <c r="U24" s="35">
+      <c r="U24" s="33">
         <v>1508</v>
       </c>
-      <c r="V24" s="35">
+      <c r="V24" s="39">
         <v>5634</v>
       </c>
       <c r="W24" s="20"/>
@@ -58529,25 +58620,25 @@
       <c r="M25" s="20"/>
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
-      <c r="P25" s="34" t="str">
+      <c r="P25" s="38" t="str">
         <v>C0007</v>
       </c>
-      <c r="Q25" s="35">
+      <c r="Q25" s="33">
         <v>1598</v>
       </c>
-      <c r="R25" s="35">
+      <c r="R25" s="33">
         <v>1907</v>
       </c>
-      <c r="S25" s="35">
+      <c r="S25" s="33">
         <v>869</v>
       </c>
-      <c r="T25" s="35">
+      <c r="T25" s="33">
         <v>1426</v>
       </c>
-      <c r="U25" s="35">
+      <c r="U25" s="33">
         <v>1416</v>
       </c>
-      <c r="V25" s="35">
+      <c r="V25" s="39">
         <v>7216</v>
       </c>
       <c r="W25" s="20"/>
@@ -58573,25 +58664,25 @@
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
-      <c r="P26" s="34" t="str">
+      <c r="P26" s="38" t="str">
         <v>C0008</v>
       </c>
-      <c r="Q26" s="35">
+      <c r="Q26" s="33">
         <v>900</v>
       </c>
-      <c r="R26" s="35">
+      <c r="R26" s="33">
         <v>1016</v>
       </c>
-      <c r="S26" s="35">
+      <c r="S26" s="33">
         <v>960</v>
       </c>
-      <c r="T26" s="35">
+      <c r="T26" s="33">
         <v>940</v>
       </c>
-      <c r="U26" s="35">
+      <c r="U26" s="33">
         <v>1193</v>
       </c>
-      <c r="V26" s="35">
+      <c r="V26" s="39">
         <v>5009</v>
       </c>
       <c r="W26" s="20"/>
@@ -58617,25 +58708,25 @@
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
-      <c r="P27" s="34" t="str">
+      <c r="P27" s="38" t="str">
         <v>C0010</v>
       </c>
-      <c r="Q27" s="35">
+      <c r="Q27" s="33">
         <v>900</v>
       </c>
-      <c r="R27" s="35">
+      <c r="R27" s="33">
         <v>1470</v>
       </c>
-      <c r="S27" s="35">
+      <c r="S27" s="33">
         <v>1617</v>
       </c>
-      <c r="T27" s="35">
+      <c r="T27" s="33">
         <v>1314</v>
       </c>
-      <c r="U27" s="35">
+      <c r="U27" s="33">
         <v>941</v>
       </c>
-      <c r="V27" s="35">
+      <c r="V27" s="39">
         <v>6242</v>
       </c>
       <c r="W27" s="20"/>
@@ -58661,25 +58752,25 @@
       <c r="M28" s="20"/>
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
-      <c r="P28" s="34" t="str">
+      <c r="P28" s="38" t="str">
         <v>C0013</v>
       </c>
-      <c r="Q28" s="35">
+      <c r="Q28" s="33">
         <v>1255</v>
       </c>
-      <c r="R28" s="35">
+      <c r="R28" s="33">
         <v>516</v>
       </c>
-      <c r="S28" s="35">
+      <c r="S28" s="33">
         <v>1874</v>
       </c>
-      <c r="T28" s="35">
+      <c r="T28" s="33">
         <v>1863</v>
       </c>
-      <c r="U28" s="35">
+      <c r="U28" s="33">
         <v>1722</v>
       </c>
-      <c r="V28" s="35">
+      <c r="V28" s="39">
         <v>7230</v>
       </c>
       <c r="W28" s="20"/>
@@ -58705,25 +58796,25 @@
       <c r="M29" s="20"/>
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
-      <c r="P29" s="34" t="str">
+      <c r="P29" s="38" t="str">
         <v>C0015</v>
       </c>
-      <c r="Q29" s="35">
+      <c r="Q29" s="33">
         <v>1138</v>
       </c>
-      <c r="R29" s="35">
+      <c r="R29" s="33">
         <v>1898</v>
       </c>
-      <c r="S29" s="35">
+      <c r="S29" s="33">
         <v>1482</v>
       </c>
-      <c r="T29" s="35">
+      <c r="T29" s="33">
         <v>846</v>
       </c>
-      <c r="U29" s="35">
+      <c r="U29" s="33">
         <v>1154</v>
       </c>
-      <c r="V29" s="35">
+      <c r="V29" s="39">
         <v>6518</v>
       </c>
       <c r="W29" s="20"/>
@@ -58749,25 +58840,25 @@
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
-      <c r="P30" s="33" t="str">
+      <c r="P30" s="46" t="str">
         <v>Columbus</v>
       </c>
-      <c r="Q30" s="35" t="str">
+      <c r="Q30" s="33" t="str">
         <v/>
       </c>
-      <c r="R30" s="35" t="str">
+      <c r="R30" s="33" t="str">
         <v/>
       </c>
-      <c r="S30" s="35" t="str">
+      <c r="S30" s="33" t="str">
         <v/>
       </c>
-      <c r="T30" s="35" t="str">
+      <c r="T30" s="33" t="str">
         <v/>
       </c>
-      <c r="U30" s="35" t="str">
+      <c r="U30" s="33" t="str">
         <v/>
       </c>
-      <c r="V30" s="35" t="str">
+      <c r="V30" s="39" t="str">
         <v/>
       </c>
       <c r="W30" s="20"/>
@@ -58793,25 +58884,25 @@
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
-      <c r="P31" s="34" t="str">
+      <c r="P31" s="38" t="str">
         <v>C0001</v>
       </c>
-      <c r="Q31" s="35">
+      <c r="Q31" s="33">
         <v>1655</v>
       </c>
-      <c r="R31" s="35">
+      <c r="R31" s="33">
         <v>805</v>
       </c>
-      <c r="S31" s="35">
+      <c r="S31" s="33">
         <v>2263</v>
       </c>
-      <c r="T31" s="35">
+      <c r="T31" s="33">
         <v>987</v>
       </c>
-      <c r="U31" s="35">
+      <c r="U31" s="33">
         <v>1075</v>
       </c>
-      <c r="V31" s="35">
+      <c r="V31" s="39">
         <v>6785</v>
       </c>
       <c r="W31" s="20"/>
@@ -58837,25 +58928,25 @@
       <c r="M32" s="20"/>
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
-      <c r="P32" s="34" t="str">
+      <c r="P32" s="38" t="str">
         <v>C0005</v>
       </c>
-      <c r="Q32" s="35">
+      <c r="Q32" s="33">
         <v>1104</v>
       </c>
-      <c r="R32" s="35">
+      <c r="R32" s="33">
         <v>2280</v>
       </c>
-      <c r="S32" s="35">
+      <c r="S32" s="33">
         <v>1445</v>
       </c>
-      <c r="T32" s="35">
+      <c r="T32" s="33">
         <v>1722</v>
       </c>
-      <c r="U32" s="35">
+      <c r="U32" s="33">
         <v>1196</v>
       </c>
-      <c r="V32" s="35">
+      <c r="V32" s="39">
         <v>7747</v>
       </c>
       <c r="W32" s="20"/>
@@ -58881,25 +58972,25 @@
       <c r="M33" s="20"/>
       <c r="N33" s="20"/>
       <c r="O33" s="20"/>
-      <c r="P33" s="34" t="str">
+      <c r="P33" s="38" t="str">
         <v>C0006</v>
       </c>
-      <c r="Q33" s="35">
+      <c r="Q33" s="33">
         <v>372</v>
       </c>
-      <c r="R33" s="35">
+      <c r="R33" s="33">
         <v>1818</v>
       </c>
-      <c r="S33" s="35">
+      <c r="S33" s="33">
         <v>1346</v>
       </c>
-      <c r="T33" s="35">
+      <c r="T33" s="33">
         <v>1156</v>
       </c>
-      <c r="U33" s="35">
+      <c r="U33" s="33">
         <v>1484</v>
       </c>
-      <c r="V33" s="35">
+      <c r="V33" s="39">
         <v>6176</v>
       </c>
       <c r="W33" s="20"/>
@@ -58921,29 +59012,32 @@
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
+      <c r="L34" s="20">
+        <f>Assets!F3</f>
+        <v>0</v>
+      </c>
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
       <c r="O34" s="20"/>
-      <c r="P34" s="34" t="str">
+      <c r="P34" s="38" t="str">
         <v>C0009</v>
       </c>
-      <c r="Q34" s="35">
+      <c r="Q34" s="33">
         <v>1415</v>
       </c>
-      <c r="R34" s="35">
+      <c r="R34" s="33">
         <v>1271</v>
       </c>
-      <c r="S34" s="35">
+      <c r="S34" s="33">
         <v>1214</v>
       </c>
-      <c r="T34" s="35">
+      <c r="T34" s="33">
         <v>1135</v>
       </c>
-      <c r="U34" s="35">
+      <c r="U34" s="33">
         <v>1566</v>
       </c>
-      <c r="V34" s="35">
+      <c r="V34" s="39">
         <v>6601</v>
       </c>
       <c r="W34" s="20"/>
@@ -58969,25 +59063,25 @@
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
       <c r="O35" s="20"/>
-      <c r="P35" s="34" t="str">
+      <c r="P35" s="40" t="str">
         <v>C0014</v>
       </c>
-      <c r="Q35" s="35">
+      <c r="Q35" s="41">
         <v>1362</v>
       </c>
-      <c r="R35" s="35">
+      <c r="R35" s="41">
         <v>1363</v>
       </c>
-      <c r="S35" s="35">
+      <c r="S35" s="41">
         <v>1152</v>
       </c>
-      <c r="T35" s="35">
+      <c r="T35" s="41">
         <v>777</v>
       </c>
-      <c r="U35" s="35">
+      <c r="U35" s="41">
         <v>750</v>
       </c>
-      <c r="V35" s="35">
+      <c r="V35" s="42">
         <v>5404</v>
       </c>
       <c r="W35" s="20"/>
@@ -60379,7 +60473,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P18:U18 P19:P35">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="formula" val="&quot;max($Q$19:$U$35)*2&quot;"/>
@@ -60393,7 +60487,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18:U35">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="formula" val="MAX($Q$19:$U$35)*2"/>
@@ -60443,6 +60537,29 @@
           </x14:cfRule>
           <xm:sqref>Q18:U35</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{53F3A90E-FB99-4CC3-8B5F-C85B0B31BA13}">
+            <xm:f>Q$17=Pivots!$A$56</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color theme="8" tint="-0.499984740745262"/>
+                </left>
+                <right style="thin">
+                  <color theme="8" tint="-0.499984740745262"/>
+                </right>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>Q16:U35</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
@@ -60456,10 +60573,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C58293-5D98-49E6-AECB-82BF78A22E13}">
-  <dimension ref="E2:F7"/>
+  <dimension ref="C2:F20"/>
   <sheetViews>
-    <sheetView zoomScale="121" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="121" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60501,6 +60618,18 @@
         <v>10</v>
       </c>
     </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <f>F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <f>F3</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/PortfolioProject.xlsx
+++ b/PortfolioProject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8657F8D9-130B-4630-9A11-10EF4BBCDF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE821F9A-465F-4A25-9C47-23B3A7F6E961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -31,12 +31,12 @@
     <pivotCache cacheId="0" r:id="rId6"/>
     <pivotCache cacheId="1" r:id="rId7"/>
     <pivotCache cacheId="2" r:id="rId8"/>
-    <pivotCache cacheId="3" r:id="rId9"/>
-    <pivotCache cacheId="4" r:id="rId10"/>
-    <pivotCache cacheId="5" r:id="rId11"/>
-    <pivotCache cacheId="6" r:id="rId12"/>
-    <pivotCache cacheId="7" r:id="rId13"/>
-    <pivotCache cacheId="8" r:id="rId14"/>
+    <pivotCache cacheId="8" r:id="rId9"/>
+    <pivotCache cacheId="123" r:id="rId10"/>
+    <pivotCache cacheId="126" r:id="rId11"/>
+    <pivotCache cacheId="129" r:id="rId12"/>
+    <pivotCache cacheId="132" r:id="rId13"/>
+    <pivotCache cacheId="135" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="1110">
   <si>
     <t>Customer ID</t>
   </si>
@@ -3452,6 +3452,36 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Rep summary</t>
+  </si>
+  <si>
+    <t>% Calls</t>
+  </si>
+  <si>
+    <t>Call Rank</t>
+  </si>
+  <si>
+    <t>Amount rnk</t>
+  </si>
+  <si>
+    <t>Labels:</t>
+  </si>
+  <si>
+    <t>Image:</t>
+  </si>
+  <si>
+    <t>Image Name</t>
+  </si>
+  <si>
+    <t>R02pic</t>
+  </si>
+  <si>
+    <t>R01pic</t>
+  </si>
+  <si>
+    <t>R03pic</t>
   </si>
 </sst>
 </file>
@@ -3465,7 +3495,7 @@
     <numFmt numFmtId="167" formatCode="\$#,###.0,&quot;k&quot;"/>
     <numFmt numFmtId="168" formatCode="[$$-C09]#,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3510,6 +3540,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Display"/>
       <family val="2"/>
@@ -3725,10 +3762,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3777,8 +3815,8 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3796,27 +3834,55 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="26">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -4045,11 +4111,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style 1" pivot="0" table="0" count="1" xr9:uid="{25BABDA2-DB3D-41F6-98D0-3EE7CBB0176F}">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="wholeTable" dxfId="25"/>
     </tableStyle>
     <tableStyle name="SlicerStyleDark5 2" pivot="0" table="0" count="10" xr9:uid="{AD47E305-3DEF-4232-A944-71C987D02AB4}">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4647,25 +4713,25 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5425,40 +5491,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5575,40 +5641,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6137,7 +6203,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -6149,7 +6215,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6552,7 +6618,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>18415</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -6564,7 +6630,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20104</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7677,19 +7743,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Pivots!$A$68:$A$72</c:f>
+              <c:f>Pivots!$A$68:$A$73</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
@@ -7697,21 +7766,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivots!$B$68:$B$72</c:f>
+              <c:f>Pivots!$B$68:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11436,7 +11508,7 @@
               <a:latin typeface="Aptos Display"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>200</a:t>
+            <a:t>189</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100">
             <a:solidFill>
@@ -11723,7 +11795,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>$20,104</a:t>
+            <a:t>$18,415</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -12013,7 +12085,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>18,209</a:t>
+            <a:t>16,834</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -12484,7 +12556,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>116934</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>24785</xdr:rowOff>
+      <xdr:rowOff>24784</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12588,7 +12660,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>51</a:t>
+            <a:t>60</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -12979,6 +13051,57 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>284923</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>72889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>54901</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>13252</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="Businesswoman sitting with hands on lap">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA22CE39-873F-5C51-7934-CCB541D9D92E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="22407" t="-503" r="23711" b="79752"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6314662" y="6195393"/>
+          <a:ext cx="379578" cy="291546"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13045,7 +13168,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>409650</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>148836</xdr:rowOff>
+      <xdr:rowOff>148837</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13094,8 +13217,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>409650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>22885</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>344058</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13195,7 +13318,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>409650</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>183146</xdr:rowOff>
+      <xdr:rowOff>183145</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13342,9 +13465,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:colOff>571461</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>467405</xdr:rowOff>
+      <xdr:rowOff>321173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13373,8 +13496,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3703982" y="347209"/>
-          <a:ext cx="410817" cy="444874"/>
+          <a:off x="3397922" y="343705"/>
+          <a:ext cx="372679" cy="298642"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -13386,15 +13509,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>185533</xdr:colOff>
+      <xdr:colOff>154045</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>30138</xdr:rowOff>
+      <xdr:rowOff>17543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>566777</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>844</xdr:rowOff>
+      <xdr:colOff>535289</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>309423</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13424,7 +13547,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3686954" y="672485"/>
+          <a:off x="3353185" y="842518"/>
           <a:ext cx="381244" cy="291880"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -13940,7 +14063,138 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45991.954049768516" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8858DEE7-94FF-480C-8C61-4947E2F4397B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45991.956354513888" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{A5395BE6-141E-4495-A584-9A5B7B1460B2}">
+  <cacheSource type="external" connectionId="2"/>
+  <cacheFields count="4">
+    <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="5">
+        <s v="R01"/>
+        <s v="R02"/>
+        <s v="R03"/>
+        <s v="R04"/>
+        <s v="R05"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[customers].[City].[City]" caption="City" numFmtId="0" hierarchy="15" level="1">
+      <sharedItems count="3">
+        <s v="Cincinnati"/>
+        <s v="Cleveland"/>
+        <s v="Columbus"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[customers].[Customer ID].[Customer ID]" caption="Customer ID" numFmtId="0" hierarchy="12" level="1">
+      <sharedItems count="15">
+        <s v="C0003"/>
+        <s v="C0004"/>
+        <s v="C0011"/>
+        <s v="C0012"/>
+        <s v="C0002"/>
+        <s v="C0007"/>
+        <s v="C0008"/>
+        <s v="C0010"/>
+        <s v="C0013"/>
+        <s v="C0015"/>
+        <s v="C0001"/>
+        <s v="C0005"/>
+        <s v="C0006"/>
+        <s v="C0009"/>
+        <s v="C0014"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Total Amount]" caption="Total Amount" numFmtId="0" hierarchy="18" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Duration]" caption="Total Duration" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Rating rounded]" caption="Sum of Rating rounded" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Call number]" caption="Count of Call number" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Rating]" caption="Sum of Satisfaction Rating" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="calls" uniqueName="[calls]" caption="calls"/>
+    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="calls" caption="calls"/>
+    <measureGroup name="customers" caption="customers"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.533463657404" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8858DEE7-94FF-480C-8C61-4947E2F4397B}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="6">
     <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
@@ -14048,8 +14302,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45991.954051157409" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{E23C2199-6754-4875-997D-89C3EC5D8644}">
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.533464583335" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{E23C2199-6754-4875-997D-89C3EC5D8644}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="5">
     <cacheField name="[calls].[Date of Call].[Date of Call]" caption="Date of Call" numFmtId="0" hierarchy="4" level="1">
@@ -14511,8 +14765,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45991.954052083332" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0C4F5B91-130A-45D3-84A5-F73746D5FF7D}">
+<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.533465509259" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0C4F5B91-130A-45D3-84A5-F73746D5FF7D}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="3">
     <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
@@ -14616,13 +14870,13 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45991.954053240741" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{082C928C-4A34-45A3-8322-8999780F7E1F}">
+<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.533466435183" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{082C928C-4A34-45A3-8322-8999780F7E1F}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="1">
     <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
       <sharedItems count="1">
-        <s v="R05"/>
+        <s v="R01"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -14702,13 +14956,14 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45991.954054513888" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5287AC46-7848-4031-A9F0-EEE4B770D802}">
+<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.533467013891" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5287AC46-7848-4031-A9F0-EEE4B770D802}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Count of Call number]" caption="Count of Call number" numFmtId="0" hierarchy="26" level="32767"/>
     <cacheField name="[calls].[Rating rounded].[Rating rounded]" caption="Rating rounded" numFmtId="0" hierarchy="10" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="5" count="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+        <n v="1"/>
         <n v="2"/>
         <n v="3"/>
         <n v="4"/>
@@ -14717,10 +14972,11 @@
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
           <x15:cachedUniqueNames>
-            <x15:cachedUniqueName index="0" name="[calls].[Rating rounded].&amp;[2]"/>
-            <x15:cachedUniqueName index="1" name="[calls].[Rating rounded].&amp;[3]"/>
-            <x15:cachedUniqueName index="2" name="[calls].[Rating rounded].&amp;[4]"/>
-            <x15:cachedUniqueName index="3" name="[calls].[Rating rounded].&amp;[5]"/>
+            <x15:cachedUniqueName index="0" name="[calls].[Rating rounded].&amp;[1]"/>
+            <x15:cachedUniqueName index="1" name="[calls].[Rating rounded].&amp;[2]"/>
+            <x15:cachedUniqueName index="2" name="[calls].[Rating rounded].&amp;[3]"/>
+            <x15:cachedUniqueName index="3" name="[calls].[Rating rounded].&amp;[4]"/>
+            <x15:cachedUniqueName index="4" name="[calls].[Rating rounded].&amp;[5]"/>
           </x15:cachedUniqueNames>
         </ext>
       </extLst>
@@ -14813,828 +15069,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45991.956354513888" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{A5395BE6-141E-4495-A584-9A5B7B1460B2}">
-  <cacheSource type="external" connectionId="2"/>
-  <cacheFields count="4">
-    <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
-      <sharedItems count="5">
-        <s v="R01"/>
-        <s v="R02"/>
-        <s v="R03"/>
-        <s v="R04"/>
-        <s v="R05"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[customers].[City].[City]" caption="City" numFmtId="0" hierarchy="15" level="1">
-      <sharedItems count="3">
-        <s v="Cincinnati"/>
-        <s v="Cleveland"/>
-        <s v="Columbus"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[customers].[Customer ID].[Customer ID]" caption="Customer ID" numFmtId="0" hierarchy="12" level="1">
-      <sharedItems count="15">
-        <s v="C0003"/>
-        <s v="C0004"/>
-        <s v="C0011"/>
-        <s v="C0012"/>
-        <s v="C0002"/>
-        <s v="C0007"/>
-        <s v="C0008"/>
-        <s v="C0010"/>
-        <s v="C0013"/>
-        <s v="C0015"/>
-        <s v="C0001"/>
-        <s v="C0005"/>
-        <s v="C0006"/>
-        <s v="C0009"/>
-        <s v="C0014"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Total Amount]" caption="Total Amount" numFmtId="0" hierarchy="18" level="32767"/>
-  </cacheFields>
-  <cacheHierarchies count="28">
-    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Total Duration]" caption="Total Duration" measure="1" displayFolder="" measureGroup="calls" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Rating rounded]" caption="Sum of Rating rounded" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="10"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of Call number]" caption="Count of Call number" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="0"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Rating]" caption="Sum of Satisfaction Rating" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="6"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="3">
-    <dimension name="calls" uniqueName="[calls]" caption="calls"/>
-    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-  </dimensions>
-  <measureGroups count="2">
-    <measureGroup name="calls" caption="calls"/>
-    <measureGroup name="customers" caption="customers"/>
-  </measureGroups>
-  <maps count="3">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="1" dimension="1"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06AD5479-9280-469F-AA3D-CDBD749637C2}" name="reps pivot" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A44:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="3"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="WeekDay trend" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="A31:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="7">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="11" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R05]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="8"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{549B98BD-FAF4-46D6-9974-A86D8A646DF5}" name="rep satisfaction" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
-  <location ref="A67:B72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Call number" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="38" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R05]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="10"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[customers]"/>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{213820C0-D94F-4B7D-8DDB-DD3DC44499E7}" name="Summary" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A10:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="6">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R05]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC07D0C4-1C20-4975-A7EE-394D315C4D33}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
-  <location ref="A58:D63" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="30" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="30" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="15"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="13"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[customers]"/>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFED1980-F3DA-4181-984C-133E7C44C6C1}" name="seleted rep" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFED1980-F3DA-4181-984C-133E7C44C6C1}" name="seleted rep" cacheId="132" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A55:A56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -15710,7 +15146,118 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{549B98BD-FAF4-46D6-9974-A86D8A646DF5}" name="rep satisfaction" cacheId="135" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
+  <location ref="A67:B73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Call number" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="38" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R01]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="10"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[customers]"/>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FF85D9D-1E8B-4493-B048-BC66BC26138C}" name="rep amounts" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
   <location ref="A79:G98" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
@@ -15892,8 +15439,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="Monthly Trend" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="Monthly Trend" cacheId="126" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A15:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -16378,7 +15925,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R05]"/>
+        <member name="[calls].[Representative].&amp;[R01]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -16421,6 +15968,588 @@
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
   </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{213820C0-D94F-4B7D-8DDB-DD3DC44499E7}" name="Summary" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="123" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A10:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R01]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC07D0C4-1C20-4975-A7EE-394D315C4D33}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
+  <location ref="A58:D63" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="30" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="30" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="15"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="13"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[customers]"/>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06AD5479-9280-469F-AA3D-CDBD749637C2}" name="reps pivot" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A44:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="WeekDay trend" cacheId="129" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="A31:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="7">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="11" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R01]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="8"/>
+  </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
@@ -16500,7 +16629,7 @@
         </level>
       </levels>
       <selections count="1">
-        <selection n="[calls].[Representative].&amp;[R05]"/>
+        <selection n="[calls].[Representative].&amp;[R01]"/>
       </selections>
     </olap>
   </data>
@@ -16521,7 +16650,7 @@
     <tableColumn id="2" xr3:uid="{DC6D7266-1D9C-4237-9B64-E741F6A96DDD}" uniqueName="2" name="calls[Customer ID]" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{FCC8372B-E286-44CC-A869-52814C18EDD3}" uniqueName="3" name="calls[Duration]" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{B4D9CBBB-E978-45B6-9ED0-3BE55233281B}" uniqueName="4" name="calls[Representative]" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{F8903E70-C355-4DB1-B563-67F99262BC65}" uniqueName="5" name="calls[Date of Call]" queryTableFieldId="5" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{F8903E70-C355-4DB1-B563-67F99262BC65}" uniqueName="5" name="calls[Date of Call]" queryTableFieldId="5" dataDxfId="22"/>
     <tableColumn id="6" xr3:uid="{2A1C27E0-4470-4602-AA09-99536A8C23F1}" uniqueName="6" name="calls[Purchase Amount]" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{D170794A-0D44-426F-A00A-295590960394}" uniqueName="7" name="calls[Satisfaction Rating]" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{9E1B2984-7818-465B-A171-6C4CB8B8ADC7}" uniqueName="8" name="calls[FY]" queryTableFieldId="8"/>
@@ -16542,20 +16671,20 @@
     <tableColumn id="1" xr3:uid="{A2AD6D5F-C481-4C4C-930A-923A5754639A}" name="Call number"/>
     <tableColumn id="2" xr3:uid="{6E1FEEB5-4749-4689-ACB4-6B80FABDC996}" name="Customer ID"/>
     <tableColumn id="3" xr3:uid="{BEB7BC5B-9542-4200-B3AF-209D2A736D88}" name="Duration"/>
-    <tableColumn id="4" xr3:uid="{A1817995-EFD7-4CEA-BF34-093CA60B7490}" name="Representative" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{5A35565E-8707-4DED-AD15-A0669D67B382}" name="Date of Call" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{A1817995-EFD7-4CEA-BF34-093CA60B7490}" name="Representative" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{5A35565E-8707-4DED-AD15-A0669D67B382}" name="Date of Call" dataDxfId="20"/>
     <tableColumn id="6" xr3:uid="{F2E4F158-B41F-47BC-8DF8-DFCADFEE4E40}" name="Purchase Amount"/>
     <tableColumn id="7" xr3:uid="{04B291B5-47BD-4F78-8FD8-D1551CCA6BD9}" name="Satisfaction Rating"/>
-    <tableColumn id="8" xr3:uid="{6E4123C0-0B17-43B8-A142-A1E540CE974C}" name="FY" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{6E4123C0-0B17-43B8-A142-A1E540CE974C}" name="FY" dataDxfId="19">
       <calculatedColumnFormula>IF(MONTH(calls[[#This Row],[Date of Call]])&lt;=6, YEAR(calls[[#This Row],[Date of Call]]), YEAR(calls[[#This Row],[Date of Call]])+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{199FA271-5E9B-46CE-9BC6-2801F92CD17E}" name="Day of week" dataDxfId="13">
+    <tableColumn id="9" xr3:uid="{199FA271-5E9B-46CE-9BC6-2801F92CD17E}" name="Day of week" dataDxfId="18">
       <calculatedColumnFormula>TEXT(calls[[#This Row],[Date of Call]],"DDDD")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{328CDB09-95B8-4D5E-9ED9-EF0D363735A1}" name="Duration Bucket" dataDxfId="12">
+    <tableColumn id="10" xr3:uid="{328CDB09-95B8-4D5E-9ED9-EF0D363735A1}" name="Duration Bucket" dataDxfId="17">
       <calculatedColumnFormula array="1">_xlfn.IFS(calls[[#This Row],[Duration]]&lt;=10,"Under 10 mins", calls[[#This Row],[Duration]]&lt;=30, "10 to 30 mins", calls[[#This Row],[Duration]]&lt;=60, "30 to 60 mins", calls[[#This Row],[Duration]]&lt;=120, "1 to 2 hours", TRUE, "More than 2 hours")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{31C7E7FB-94CB-4DAB-B0CB-46B648CD4D41}" name="Rating rounded" dataDxfId="11">
+    <tableColumn id="11" xr3:uid="{31C7E7FB-94CB-4DAB-B0CB-46B648CD4D41}" name="Rating rounded" dataDxfId="16">
       <calculatedColumnFormula>ROUND(calls[[#This Row],[Satisfaction Rating]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16564,13 +16693,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}" name="customers" displayName="customers" ref="Q3:T18" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}" name="customers" displayName="customers" ref="Q3:T18" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="Q3:T18" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{02688061-6A8C-4E23-B7FF-D00CD8B58CAC}" name="Customer ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{771678B6-DB44-426B-9874-B4E421A440D5}" name="Gedner" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B0D41C62-587E-494D-B49A-603F2C05F8D3}" name="Age" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{663F92D6-FE31-4D81-9E01-8D066DDC8A88}" name="City" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{02688061-6A8C-4E23-B7FF-D00CD8B58CAC}" name="Customer ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{771678B6-DB44-426B-9874-B4E421A440D5}" name="Gedner" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{B0D41C62-587E-494D-B49A-603F2C05F8D3}" name="Age" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{663F92D6-FE31-4D81-9E01-8D066DDC8A88}" name="City" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17432,15 +17561,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834D0550-23E6-4ECE-88FB-C7046FEC3829}">
   <dimension ref="A3:I98"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" customWidth="1"/>
     <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
@@ -17499,19 +17631,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B11" s="22">
-        <v>20104</v>
+        <v>18415</v>
       </c>
       <c r="C11" s="21">
-        <v>18209</v>
+        <v>16834</v>
       </c>
       <c r="D11" s="23">
-        <v>3.8824999999999998</v>
+        <v>3.9227513227513247</v>
       </c>
       <c r="E11" s="21">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -17535,10 +17667,10 @@
         <v>1050</v>
       </c>
       <c r="B16" s="21">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16" s="21">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -17546,10 +17678,10 @@
         <v>1051</v>
       </c>
       <c r="B17" s="21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17" s="21">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -17557,10 +17689,10 @@
         <v>1052</v>
       </c>
       <c r="B18" s="21">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C18" s="21">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -17568,10 +17700,10 @@
         <v>1053</v>
       </c>
       <c r="B19" s="21">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C19" s="21">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -17579,10 +17711,10 @@
         <v>1054</v>
       </c>
       <c r="B20" s="21">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C20" s="21">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -17590,10 +17722,10 @@
         <v>1055</v>
       </c>
       <c r="B21" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C21" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -17601,10 +17733,10 @@
         <v>1056</v>
       </c>
       <c r="B22" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C22" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -17623,10 +17755,10 @@
         <v>1058</v>
       </c>
       <c r="B24" s="21">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C24" s="21">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -17645,10 +17777,10 @@
         <v>1060</v>
       </c>
       <c r="B26" s="21">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C26" s="21">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -17656,10 +17788,10 @@
         <v>1061</v>
       </c>
       <c r="B27" s="21">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C27" s="21">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -17667,10 +17799,10 @@
         <v>1049</v>
       </c>
       <c r="B28" s="21">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C28" s="21">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -17686,7 +17818,7 @@
         <v>1066</v>
       </c>
       <c r="B32" s="21">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -17694,7 +17826,7 @@
         <v>1064</v>
       </c>
       <c r="B33" s="21">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -17702,7 +17834,7 @@
         <v>1068</v>
       </c>
       <c r="B34" s="21">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -17710,7 +17842,7 @@
         <v>1069</v>
       </c>
       <c r="B35" s="21">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -17718,7 +17850,7 @@
         <v>1067</v>
       </c>
       <c r="B36" s="21">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -17726,7 +17858,7 @@
         <v>1063</v>
       </c>
       <c r="B37" s="21">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -17734,7 +17866,7 @@
         <v>1065</v>
       </c>
       <c r="B38" s="21">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -17742,7 +17874,7 @@
         <v>1049</v>
       </c>
       <c r="B39" s="21">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -17763,7 +17895,7 @@
       </c>
       <c r="I44" t="str">
         <f>A56</f>
-        <v>R05</v>
+        <v>R01</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -17812,13 +17944,13 @@
       <c r="G46" s="26">
         <v>18415</v>
       </c>
-      <c r="H46" t="e">
+      <c r="H46">
         <f>IF(E46=$I$44,F46,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I46" t="e">
+        <v>189</v>
+      </c>
+      <c r="I46">
         <f>IF(E46=$I$44,G46,NA())</f>
-        <v>#N/A</v>
+        <v>18415</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -17924,29 +18056,51 @@
       <c r="G50" s="26">
         <v>20104</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="e">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="I50">
+        <v>#N/A</v>
+      </c>
+      <c r="I50" t="e">
         <f t="shared" si="1"/>
-        <v>20104</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H54">
-        <f>Assets!F3</f>
-        <v>0</v>
+      <c r="H54" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
         <v>1048</v>
       </c>
+      <c r="H55" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I55" s="47">
+        <f>A11/A4</f>
+        <v>0.189</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I56">
+        <f>_xlfn.XLOOKUP(A56,E46:E50,F46:F50)</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I57">
+        <f>_xlfn.XLOOKUP(A56,E46:E50,G46:G50)</f>
+        <v>18415</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -17956,6 +18110,13 @@
       <c r="B58" s="24" t="s">
         <v>1078</v>
       </c>
+      <c r="H58" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I58">
+        <f>_xlfn.RANK.AVG(I56,F46:F50)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="s">
@@ -17970,6 +18131,13 @@
       <c r="D59" t="s">
         <v>1049</v>
       </c>
+      <c r="H59" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I59">
+        <f>_xlfn.RANK.AVG(I57,G46:G50)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="25" t="s">
@@ -17998,6 +18166,9 @@
       <c r="D61" s="21">
         <v>389</v>
       </c>
+      <c r="H61" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
@@ -18012,6 +18183,10 @@
       <c r="D62" s="21">
         <v>335</v>
       </c>
+      <c r="I62" t="str">
+        <f>"% of calls: "&amp;TEXT(I55,"0%")</f>
+        <v>% of calls: 19%</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
@@ -18026,8 +18201,27 @@
       <c r="D63" s="21">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I63" t="str">
+        <f>"Call Rank: "&amp;I58</f>
+        <v>Call Rank: 4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I64" t="str">
+        <f>"Amount Rank: "&amp;I59</f>
+        <v>Amount Rank: 4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H66" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I66" t="str">
+        <f>_xlfn.XLOOKUP(A56,Assets!E3:E5,Assets!G3:G5)</f>
+        <v>R01pic</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="s">
         <v>1048</v>
       </c>
@@ -18035,57 +18229,65 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="25">
+        <v>1</v>
+      </c>
+      <c r="B68" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="25">
         <v>2</v>
       </c>
-      <c r="B68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="25">
+      <c r="B69" s="48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="25">
         <v>3</v>
       </c>
-      <c r="B69">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="25">
+      <c r="B70" s="48">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="25">
         <v>4</v>
       </c>
-      <c r="B70">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="25">
+      <c r="B71" s="48">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="25">
         <v>5</v>
       </c>
-      <c r="B71">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="25" t="s">
+      <c r="B72" s="48">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="25" t="s">
         <v>1049</v>
       </c>
-      <c r="B72">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="48">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="29"/>
       <c r="B76" s="29"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="25"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="25"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="24" t="s">
         <v>1043</v>
       </c>
@@ -18093,7 +18295,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="24" t="s">
         <v>1048</v>
       </c>
@@ -57758,8 +57960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00F2D57-6A6B-4B4C-88B6-CD6A1F8BA299}">
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView topLeftCell="E14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="E17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58956,7 +59158,7 @@
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -59000,7 +59202,7 @@
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -59011,7 +59213,10 @@
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
+      <c r="K34" s="20" t="str">
+        <f>Assets!E3</f>
+        <v>R01</v>
+      </c>
       <c r="L34" s="20">
         <f>Assets!F3</f>
         <v>0</v>
@@ -59058,8 +59263,14 @@
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
+      <c r="K35" s="20" t="str">
+        <f>Assets!E4</f>
+        <v>R02</v>
+      </c>
+      <c r="L35" s="20">
+        <f>Assets!F4</f>
+        <v>0</v>
+      </c>
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
       <c r="O35" s="20"/>
@@ -59102,7 +59313,10 @@
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
+      <c r="K36" s="20" t="str">
+        <f>Assets!E5</f>
+        <v>R03</v>
+      </c>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
@@ -59132,8 +59346,14 @@
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
+      <c r="K37" s="20" t="str">
+        <f>Assets!E6</f>
+        <v>R04</v>
+      </c>
+      <c r="L37" s="20">
+        <f>Assets!F6</f>
+        <v>0</v>
+      </c>
       <c r="M37" s="20"/>
       <c r="N37" s="20"/>
       <c r="O37" s="20"/>
@@ -59162,8 +59382,14 @@
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
+      <c r="K38" s="20" t="str">
+        <f>Assets!E7</f>
+        <v>R05</v>
+      </c>
+      <c r="L38" s="20">
+        <f>Assets!F7</f>
+        <v>0</v>
+      </c>
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
       <c r="O38" s="20"/>
@@ -60522,22 +60748,6 @@
           <xm:sqref>P18:U18 P19:P35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{42C1ABA5-D22F-461B-A1E2-CED7C0B898D1}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="formula">
-                <xm:f>MAX($Q$19:$U$35)*2</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF000000"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>Q18:U35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{53F3A90E-FB99-4CC3-8B5F-C85B0B31BA13}">
             <xm:f>Q$17=Pivots!$A$56</xm:f>
             <x14:dxf>
@@ -60560,6 +60770,22 @@
           </x14:cfRule>
           <xm:sqref>Q16:U35</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{42C1ABA5-D22F-461B-A1E2-CED7C0B898D1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>MAX($Q$19:$U$35)*2</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q18:U35</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
@@ -60573,10 +60799,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C58293-5D98-49E6-AECB-82BF78A22E13}">
-  <dimension ref="C2:F20"/>
+  <dimension ref="C2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="121" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="121" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="E3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60585,43 +60811,49 @@
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:7" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>1040</v>
       </c>
       <c r="F2" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="3" spans="5:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="5:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="5:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="5:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="5:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19">
-        <f>F3</f>
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">

--- a/PortfolioProject.xlsx
+++ b/PortfolioProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE821F9A-465F-4A25-9C47-23B3A7F6E961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69E1AB2-86A1-42EC-86B7-84909D975997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <definedName name="_xlcn.WorksheetConnection_PortfolioProject.xlsxcalls1" hidden="1">calls[]</definedName>
     <definedName name="_xlcn.WorksheetConnection_PortfolioProject.xlsxcustomers1" hidden="1">customers[]</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$3:$M$17</definedName>
+    <definedName name="Image">Pivots!$I$66</definedName>
     <definedName name="Slicer_Representative">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -31,12 +32,12 @@
     <pivotCache cacheId="0" r:id="rId6"/>
     <pivotCache cacheId="1" r:id="rId7"/>
     <pivotCache cacheId="2" r:id="rId8"/>
-    <pivotCache cacheId="8" r:id="rId9"/>
-    <pivotCache cacheId="123" r:id="rId10"/>
-    <pivotCache cacheId="126" r:id="rId11"/>
-    <pivotCache cacheId="129" r:id="rId12"/>
-    <pivotCache cacheId="132" r:id="rId13"/>
-    <pivotCache cacheId="135" r:id="rId14"/>
+    <pivotCache cacheId="3" r:id="rId9"/>
+    <pivotCache cacheId="109" r:id="rId10"/>
+    <pivotCache cacheId="112" r:id="rId11"/>
+    <pivotCache cacheId="115" r:id="rId12"/>
+    <pivotCache cacheId="118" r:id="rId13"/>
+    <pivotCache cacheId="121" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
@@ -152,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="1111">
   <si>
     <t>Customer ID</t>
   </si>
@@ -3482,6 +3483,9 @@
   </si>
   <si>
     <t>R03pic</t>
+  </si>
+  <si>
+    <t>Call Centre Report</t>
   </si>
 </sst>
 </file>
@@ -3495,7 +3499,7 @@
     <numFmt numFmtId="167" formatCode="\$#,###.0,&quot;k&quot;"/>
     <numFmt numFmtId="168" formatCode="[$$-C09]#,##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3524,13 +3528,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos Display"/>
@@ -3552,8 +3549,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3593,6 +3619,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3764,9 +3796,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3809,46 +3841,70 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3907,6 +3963,13 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -4056,6 +4119,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -4111,11 +4181,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style 1" pivot="0" table="0" count="1" xr9:uid="{25BABDA2-DB3D-41F6-98D0-3EE7CBB0176F}">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
     </tableStyle>
     <tableStyle name="SlicerStyleDark5 2" pivot="0" table="0" count="10" xr9:uid="{AD47E305-3DEF-4232-A944-71C987D02AB4}">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="wholeTable" dxfId="25"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4713,25 +4783,25 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5491,40 +5561,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5641,40 +5711,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6203,7 +6273,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>189</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -6215,7 +6285,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6618,7 +6688,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18415</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -6630,7 +6700,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>20104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7743,22 +7813,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Pivots!$A$68:$A$73</c:f>
+              <c:f>Pivots!$A$68:$A$72</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
@@ -7766,24 +7833,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivots!$B$68:$B$73</c:f>
+              <c:f>Pivots!$B$68:$B$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11241,15 +11305,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57316</xdr:colOff>
+      <xdr:colOff>57317</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>567856</xdr:colOff>
+      <xdr:colOff>489858</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>32656</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Pivots!A4">
       <xdr:nvSpPr>
@@ -11264,8 +11328,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="328986" y="531081"/>
-          <a:ext cx="1391809" cy="1029362"/>
+          <a:off x="329460" y="530134"/>
+          <a:ext cx="1314284" cy="982979"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11446,16 +11510,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>77288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>230778</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>94705</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Pivots!A11">
       <xdr:nvSpPr>
@@ -11470,8 +11534,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="541020" y="1272540"/>
-          <a:ext cx="815340" cy="198120"/>
+          <a:off x="571501" y="1187631"/>
+          <a:ext cx="813163" cy="202474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11508,7 +11572,7 @@
               <a:latin typeface="Aptos Display"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>189</a:t>
+            <a:t>200</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100">
             <a:solidFill>
@@ -11546,8 +11610,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="373380" y="2011680"/>
-          <a:ext cx="1394460" cy="1013460"/>
+          <a:off x="371203" y="2035629"/>
+          <a:ext cx="1392283" cy="1024345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11636,8 +11700,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723900" y="2080260"/>
-          <a:ext cx="990600" cy="213360"/>
+          <a:off x="729442" y="2049780"/>
+          <a:ext cx="990600" cy="210589"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11795,7 +11859,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>$18,415</a:t>
+            <a:t>$20,104</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -11813,15 +11877,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>99957</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>897</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>152848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Pivots!C4">
       <xdr:nvSpPr>
@@ -11836,8 +11900,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="3474720"/>
-          <a:ext cx="1394460" cy="1013460"/>
+          <a:off x="377863" y="3558988"/>
+          <a:ext cx="1398046" cy="995531"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12085,7 +12149,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>16,834</a:t>
+            <a:t>18,209</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -12126,8 +12190,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="385970" y="5058687"/>
-          <a:ext cx="1391809" cy="1026712"/>
+          <a:off x="391391" y="4912310"/>
+          <a:ext cx="1397231" cy="999606"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12387,96 +12451,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="Pivots!E4">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE53FDC9-FF94-442A-AEC9-89C6E6004E77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="388620" y="6530340"/>
-          <a:ext cx="1394460" cy="1013460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="254000" dist="127000" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="50000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:fld id="{362C4705-9F3B-41F6-BD74-DEAA1AC27EF6}" type="TxLink">
-            <a:rPr lang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>307</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="2800" b="1" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
       <xdr:row>35</xdr:row>
@@ -12556,7 +12530,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>116934</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>24784</xdr:rowOff>
+      <xdr:rowOff>24785</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12660,7 +12634,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>60</a:t>
+            <a:t>51</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -12678,18 +12652,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:colOff>365429</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>129541</xdr:rowOff>
+      <xdr:rowOff>30150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>510209</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>53010</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="26" name="Representative">
@@ -12712,7 +12686,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -12722,8 +12696,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6799359" y="3283558"/>
-              <a:ext cx="1363980" cy="2249226"/>
+              <a:off x="7017241" y="3176762"/>
+              <a:ext cx="1363980" cy="2174389"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13049,57 +13023,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>284923</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>72889</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>54901</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>13252</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32" descr="Businesswoman sitting with hands on lap">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA22CE39-873F-5C51-7934-CCB541D9D92E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="22407" t="-503" r="23711" b="79752"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6314662" y="6195393"/>
-          <a:ext cx="379578" cy="291546"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -14194,7 +14117,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.533463657404" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8858DEE7-94FF-480C-8C61-4947E2F4397B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.671736226854" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8858DEE7-94FF-480C-8C61-4947E2F4397B}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="6">
     <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
@@ -14303,7 +14226,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.533464583335" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{E23C2199-6754-4875-997D-89C3EC5D8644}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.671736805554" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{E23C2199-6754-4875-997D-89C3EC5D8644}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="5">
     <cacheField name="[calls].[Date of Call].[Date of Call]" caption="Date of Call" numFmtId="0" hierarchy="4" level="1">
@@ -14766,7 +14689,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.533465509259" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0C4F5B91-130A-45D3-84A5-F73746D5FF7D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.671737268516" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0C4F5B91-130A-45D3-84A5-F73746D5FF7D}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="3">
     <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
@@ -14871,12 +14794,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.533466435183" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{082C928C-4A34-45A3-8322-8999780F7E1F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.671737615739" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{082C928C-4A34-45A3-8322-8999780F7E1F}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="1">
     <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
       <sharedItems count="1">
-        <s v="R01"/>
+        <s v="R05"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -14957,13 +14880,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.533467013891" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5287AC46-7848-4031-A9F0-EEE4B770D802}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.671737962963" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5287AC46-7848-4031-A9F0-EEE4B770D802}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Count of Call number]" caption="Count of Call number" numFmtId="0" hierarchy="26" level="32767"/>
     <cacheField name="[calls].[Rating rounded].[Rating rounded]" caption="Rating rounded" numFmtId="0" hierarchy="10" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
-        <n v="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="5" count="4">
         <n v="2"/>
         <n v="3"/>
         <n v="4"/>
@@ -14972,11 +14894,10 @@
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
           <x15:cachedUniqueNames>
-            <x15:cachedUniqueName index="0" name="[calls].[Rating rounded].&amp;[1]"/>
-            <x15:cachedUniqueName index="1" name="[calls].[Rating rounded].&amp;[2]"/>
-            <x15:cachedUniqueName index="2" name="[calls].[Rating rounded].&amp;[3]"/>
-            <x15:cachedUniqueName index="3" name="[calls].[Rating rounded].&amp;[4]"/>
-            <x15:cachedUniqueName index="4" name="[calls].[Rating rounded].&amp;[5]"/>
+            <x15:cachedUniqueName index="0" name="[calls].[Rating rounded].&amp;[2]"/>
+            <x15:cachedUniqueName index="1" name="[calls].[Rating rounded].&amp;[3]"/>
+            <x15:cachedUniqueName index="2" name="[calls].[Rating rounded].&amp;[4]"/>
+            <x15:cachedUniqueName index="3" name="[calls].[Rating rounded].&amp;[5]"/>
           </x15:cachedUniqueNames>
         </ext>
       </extLst>
@@ -15070,37 +14991,89 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFED1980-F3DA-4181-984C-133E7C44C6C1}" name="seleted rep" cacheId="132" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A55:A56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC07D0C4-1C20-4975-A7EE-394D315C4D33}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
+  <location ref="A58:D63" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="1">
-        <item s="1" x="0"/>
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
       </items>
     </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="1">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
-  <formats count="1">
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="30" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
         </references>
       </pivotArea>
-    </format>
-  </formats>
+    </chartFormat>
+    <chartFormat chart="30" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotHierarchies count="28">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -15128,118 +15101,11 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="3"/>
+    <rowHierarchyUsage hierarchyUsage="15"/>
   </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{549B98BD-FAF4-46D6-9974-A86D8A646DF5}" name="rep satisfaction" cacheId="135" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
-  <location ref="A67:B73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Call number" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="38" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R01]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="10"/>
-  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="13"/>
+  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
@@ -15257,8 +15123,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FF85D9D-1E8B-4493-B048-BC66BC26138C}" name="rep amounts" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FF85D9D-1E8B-4493-B048-BC66BC26138C}" name="rep amounts" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
   <location ref="A79:G98" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -15439,8 +15305,272 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06AD5479-9280-469F-AA3D-CDBD749637C2}" name="reps pivot" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A44:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="Monthly Trend" cacheId="126" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="WeekDay trend" cacheId="115" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="A31:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="7">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="11" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R05]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="8"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="Monthly Trend" cacheId="112" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A15:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -15925,7 +16055,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R01]"/>
+        <member name="[calls].[Representative].&amp;[R05]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -15984,7 +16114,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{213820C0-D94F-4B7D-8DDB-DD3DC44499E7}" name="Summary" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
@@ -16074,8 +16204,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="123" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="109" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A10:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="6">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -16121,7 +16251,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R01]"/>
+        <member name="[calls].[Representative].&amp;[R05]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -16169,198 +16299,38 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC07D0C4-1C20-4975-A7EE-394D315C4D33}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
-  <location ref="A58:D63" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="3">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFED1980-F3DA-4181-984C-133E7C44C6C1}" name="seleted rep" cacheId="118" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A55:A56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+      <items count="1">
+        <item s="1" x="0"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="1">
     <i>
       <x/>
     </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
   </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="30" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
+  <formats count="1">
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
         </references>
       </pivotArea>
-    </chartFormat>
-    <chartFormat chart="30" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
+    </format>
+  </formats>
   <pivotHierarchies count="28">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="15"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="13"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[customers]"/>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06AD5479-9280-469F-AA3D-CDBD749637C2}" name="reps pivot" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A44:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -16390,15 +16360,12 @@
   <rowHierarchiesUsage count="1">
     <rowHierarchyUsage hierarchyUsage="3"/>
   </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+      <x15:pivotTableUISettings>
         <x15:activeTabTopLevelEntity name="[calls]"/>
       </x15:pivotTableUISettings>
     </ext>
@@ -16410,27 +16377,24 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="WeekDay trend" cacheId="129" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="A31:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{549B98BD-FAF4-46D6-9974-A86D8A646DF5}" name="rep satisfaction" cacheId="121" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
+  <location ref="A67:B72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="7">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -16443,15 +16407,6 @@
     <i>
       <x v="3"/>
     </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -16460,53 +16415,14 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Call number" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="11" format="0" series="1">
+  <chartFormats count="1">
+    <chartFormat chart="38" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -16518,7 +16434,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R01]"/>
+        <member name="[calls].[Representative].&amp;[R05]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -16548,14 +16464,15 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="8"/>
+    <rowHierarchyUsage hierarchyUsage="10"/>
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[customers]"/>
         <x15:activeTabTopLevelEntity name="[calls]"/>
       </x15:pivotTableUISettings>
     </ext>
@@ -16629,7 +16546,7 @@
         </level>
       </levels>
       <selections count="1">
-        <selection n="[calls].[Representative].&amp;[R01]"/>
+        <selection n="[calls].[Representative].&amp;[R05]"/>
       </selections>
     </olap>
   </data>
@@ -16650,7 +16567,7 @@
     <tableColumn id="2" xr3:uid="{DC6D7266-1D9C-4237-9B64-E741F6A96DDD}" uniqueName="2" name="calls[Customer ID]" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{FCC8372B-E286-44CC-A869-52814C18EDD3}" uniqueName="3" name="calls[Duration]" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{B4D9CBBB-E978-45B6-9ED0-3BE55233281B}" uniqueName="4" name="calls[Representative]" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{F8903E70-C355-4DB1-B563-67F99262BC65}" uniqueName="5" name="calls[Date of Call]" queryTableFieldId="5" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{F8903E70-C355-4DB1-B563-67F99262BC65}" uniqueName="5" name="calls[Date of Call]" queryTableFieldId="5" dataDxfId="23"/>
     <tableColumn id="6" xr3:uid="{2A1C27E0-4470-4602-AA09-99536A8C23F1}" uniqueName="6" name="calls[Purchase Amount]" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{D170794A-0D44-426F-A00A-295590960394}" uniqueName="7" name="calls[Satisfaction Rating]" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{9E1B2984-7818-465B-A171-6C4CB8B8ADC7}" uniqueName="8" name="calls[FY]" queryTableFieldId="8"/>
@@ -16988,7 +16905,7 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <v>45004</v>
       </c>
       <c r="F4">
@@ -17029,7 +16946,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <v>45035</v>
       </c>
       <c r="F5">
@@ -17070,7 +16987,7 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <v>45039</v>
       </c>
       <c r="F6">
@@ -17111,7 +17028,7 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <v>45045</v>
       </c>
       <c r="F7">
@@ -17152,7 +17069,7 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <v>45054</v>
       </c>
       <c r="F8">
@@ -17193,7 +17110,7 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="30">
         <v>45076</v>
       </c>
       <c r="F9">
@@ -17234,7 +17151,7 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <v>45082</v>
       </c>
       <c r="F10">
@@ -17275,7 +17192,7 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <v>45127</v>
       </c>
       <c r="F11">
@@ -17316,7 +17233,7 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <v>45204</v>
       </c>
       <c r="F12">
@@ -17357,7 +17274,7 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="30">
         <v>45225</v>
       </c>
       <c r="F13">
@@ -17398,7 +17315,7 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="30">
         <v>45243</v>
       </c>
       <c r="F14">
@@ -17439,7 +17356,7 @@
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="30">
         <v>45269</v>
       </c>
       <c r="F15">
@@ -17480,7 +17397,7 @@
       <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="30">
         <v>45280</v>
       </c>
       <c r="F16">
@@ -17521,7 +17438,7 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="30">
         <v>45291</v>
       </c>
       <c r="F17">
@@ -17561,8 +17478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834D0550-23E6-4ECE-88FB-C7046FEC3829}">
   <dimension ref="A3:I98"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17631,19 +17548,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B11" s="22">
-        <v>18415</v>
+        <v>20104</v>
       </c>
       <c r="C11" s="21">
-        <v>16834</v>
+        <v>18209</v>
       </c>
       <c r="D11" s="23">
-        <v>3.9227513227513247</v>
+        <v>3.8824999999999998</v>
       </c>
       <c r="E11" s="21">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -17667,10 +17584,10 @@
         <v>1050</v>
       </c>
       <c r="B16" s="21">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C16" s="21">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -17678,10 +17595,10 @@
         <v>1051</v>
       </c>
       <c r="B17" s="21">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C17" s="21">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -17689,10 +17606,10 @@
         <v>1052</v>
       </c>
       <c r="B18" s="21">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C18" s="21">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -17700,10 +17617,10 @@
         <v>1053</v>
       </c>
       <c r="B19" s="21">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C19" s="21">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -17711,10 +17628,10 @@
         <v>1054</v>
       </c>
       <c r="B20" s="21">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C20" s="21">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -17722,10 +17639,10 @@
         <v>1055</v>
       </c>
       <c r="B21" s="21">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C21" s="21">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -17733,10 +17650,10 @@
         <v>1056</v>
       </c>
       <c r="B22" s="21">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C22" s="21">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -17755,10 +17672,10 @@
         <v>1058</v>
       </c>
       <c r="B24" s="21">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C24" s="21">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -17777,10 +17694,10 @@
         <v>1060</v>
       </c>
       <c r="B26" s="21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C26" s="21">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -17788,10 +17705,10 @@
         <v>1061</v>
       </c>
       <c r="B27" s="21">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C27" s="21">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -17799,10 +17716,10 @@
         <v>1049</v>
       </c>
       <c r="B28" s="21">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C28" s="21">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -17818,7 +17735,7 @@
         <v>1066</v>
       </c>
       <c r="B32" s="21">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -17826,7 +17743,7 @@
         <v>1064</v>
       </c>
       <c r="B33" s="21">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -17834,7 +17751,7 @@
         <v>1068</v>
       </c>
       <c r="B34" s="21">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -17842,7 +17759,7 @@
         <v>1069</v>
       </c>
       <c r="B35" s="21">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -17850,7 +17767,7 @@
         <v>1067</v>
       </c>
       <c r="B36" s="21">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -17858,7 +17775,7 @@
         <v>1063</v>
       </c>
       <c r="B37" s="21">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -17866,7 +17783,7 @@
         <v>1065</v>
       </c>
       <c r="B38" s="21">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -17874,7 +17791,7 @@
         <v>1049</v>
       </c>
       <c r="B39" s="21">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -17895,7 +17812,7 @@
       </c>
       <c r="I44" t="str">
         <f>A56</f>
-        <v>R01</v>
+        <v>R05</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -17944,13 +17861,13 @@
       <c r="G46" s="26">
         <v>18415</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="e">
         <f>IF(E46=$I$44,F46,NA())</f>
-        <v>189</v>
-      </c>
-      <c r="I46">
+        <v>#N/A</v>
+      </c>
+      <c r="I46" t="e">
         <f>IF(E46=$I$44,G46,NA())</f>
-        <v>18415</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -18056,13 +17973,13 @@
       <c r="G50" s="26">
         <v>20104</v>
       </c>
-      <c r="H50" t="e">
+      <c r="H50">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I50" t="e">
+        <v>200</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>20104</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -18077,21 +17994,21 @@
       <c r="H55" t="s">
         <v>1101</v>
       </c>
-      <c r="I55" s="47">
+      <c r="I55" s="46">
         <f>A11/A4</f>
-        <v>0.189</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H56" t="s">
         <v>1073</v>
       </c>
       <c r="I56">
         <f>_xlfn.XLOOKUP(A56,E46:E50,F46:F50)</f>
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -18100,7 +18017,7 @@
       </c>
       <c r="I57">
         <f>_xlfn.XLOOKUP(A56,E46:E50,G46:G50)</f>
-        <v>18415</v>
+        <v>20104</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -18115,7 +18032,7 @@
       </c>
       <c r="I58">
         <f>_xlfn.RANK.AVG(I56,F46:F50)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -18136,7 +18053,7 @@
       </c>
       <c r="I59">
         <f>_xlfn.RANK.AVG(I57,G46:G50)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -18185,7 +18102,7 @@
       </c>
       <c r="I62" t="str">
         <f>"% of calls: "&amp;TEXT(I55,"0%")</f>
-        <v>% of calls: 19%</v>
+        <v>% of calls: 20%</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -18203,22 +18120,22 @@
       </c>
       <c r="I63" t="str">
         <f>"Call Rank: "&amp;I58</f>
-        <v>Call Rank: 4</v>
+        <v>Call Rank: 3</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I64" t="str">
         <f>"Amount Rank: "&amp;I59</f>
-        <v>Amount Rank: 4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>Amount Rank: 3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H66" t="s">
         <v>1105</v>
       </c>
       <c r="I66" t="str">
-        <f>_xlfn.XLOOKUP(A56,Assets!E3:E5,Assets!G3:G5)</f>
-        <v>R01pic</v>
+        <f>_xlfn.XLOOKUP(A56,Assets!$E$3:$E$7,Pivots!G68:G72)</f>
+        <v>R05</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -18231,55 +18148,62 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="25">
-        <v>1</v>
-      </c>
-      <c r="B68" s="48">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B68" s="47">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="25">
-        <v>2</v>
-      </c>
-      <c r="B69" s="48">
+        <v>3</v>
+      </c>
+      <c r="B69" s="47">
+        <v>44</v>
+      </c>
+      <c r="G69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="25">
-        <v>3</v>
-      </c>
-      <c r="B70" s="48">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="B70" s="47">
+        <v>95</v>
+      </c>
+      <c r="G70" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="25">
-        <v>4</v>
-      </c>
-      <c r="B71" s="48">
-        <v>88</v>
+        <v>5</v>
+      </c>
+      <c r="B71" s="47">
+        <v>51</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="25">
-        <v>5</v>
-      </c>
-      <c r="B72" s="48">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="25" t="s">
+      <c r="A72" s="25" t="s">
         <v>1049</v>
       </c>
-      <c r="B73" s="48">
-        <v>189</v>
+      <c r="B72" s="47">
+        <v>200</v>
+      </c>
+      <c r="G72" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="25"/>
@@ -18324,7 +18248,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B82" s="22">
@@ -18347,7 +18271,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B83" s="22">
@@ -18370,7 +18294,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="22">
@@ -18393,7 +18317,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B85" s="22">
@@ -18421,7 +18345,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="30" t="s">
+      <c r="A87" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B87" s="22">
@@ -18444,7 +18368,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B88" s="22">
@@ -18470,7 +18394,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="22">
@@ -18493,7 +18417,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="30" t="s">
+      <c r="A90" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B90" s="22">
@@ -18516,7 +18440,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B91" s="22">
@@ -18539,7 +18463,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B92" s="22">
@@ -18567,7 +18491,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B94" s="22">
@@ -18590,7 +18514,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="30" t="s">
+      <c r="A95" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B95" s="22">
@@ -18613,7 +18537,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="30" t="s">
+      <c r="A96" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B96" s="22">
@@ -18636,7 +18560,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B97" s="22">
@@ -18659,7 +18583,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="30" t="s">
+      <c r="A98" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B98" s="22">
@@ -57960,8 +57884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00F2D57-6A6B-4B4C-88B6-CD6A1F8BA299}">
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58002,12 +57926,14 @@
       <c r="AA1" s="20"/>
       <c r="AB1" s="20"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="57" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -58034,10 +57960,10 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
@@ -58440,13 +58366,13 @@
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="36"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="35"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
@@ -58470,24 +58396,24 @@
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="44" t="str" cm="1">
+      <c r="P17" s="42"/>
+      <c r="Q17" s="43" t="str" cm="1">
         <f t="array" ref="Q17:U17">Pivots!B80:F80</f>
         <v>R01</v>
       </c>
-      <c r="R17" s="44" t="str">
+      <c r="R17" s="43" t="str">
         <v>R02</v>
       </c>
-      <c r="S17" s="44" t="str">
+      <c r="S17" s="43" t="str">
         <v>R03</v>
       </c>
-      <c r="T17" s="44" t="str">
+      <c r="T17" s="43" t="str">
         <v>R04</v>
       </c>
-      <c r="U17" s="44" t="str">
+      <c r="U17" s="43" t="str">
         <v>R05</v>
       </c>
-      <c r="V17" s="45" t="s">
+      <c r="V17" s="44" t="s">
         <v>1099</v>
       </c>
       <c r="W17" s="20"/>
@@ -58513,26 +58439,26 @@
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
-      <c r="P18" s="46" t="str" cm="1">
+      <c r="P18" s="45" t="str" cm="1">
         <f t="array" ref="P18:V35">IF(Pivots!A81:G98="","",Pivots!A81:G98)</f>
         <v>Cincinnati</v>
       </c>
-      <c r="Q18" s="32" t="str">
+      <c r="Q18" s="31" t="str">
         <v/>
       </c>
-      <c r="R18" s="32" t="str">
+      <c r="R18" s="31" t="str">
         <v/>
       </c>
-      <c r="S18" s="32" t="str">
+      <c r="S18" s="31" t="str">
         <v/>
       </c>
-      <c r="T18" s="32" t="str">
+      <c r="T18" s="31" t="str">
         <v/>
       </c>
-      <c r="U18" s="32" t="str">
+      <c r="U18" s="31" t="str">
         <v/>
       </c>
-      <c r="V18" s="37" t="str">
+      <c r="V18" s="36" t="str">
         <v/>
       </c>
       <c r="W18" s="20"/>
@@ -58558,25 +58484,25 @@
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
-      <c r="P19" s="38" t="str">
+      <c r="P19" s="37" t="str">
         <v>C0003</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="32">
         <v>891</v>
       </c>
-      <c r="R19" s="33">
+      <c r="R19" s="32">
         <v>1332</v>
       </c>
-      <c r="S19" s="33">
+      <c r="S19" s="32">
         <v>1282</v>
       </c>
-      <c r="T19" s="33">
+      <c r="T19" s="32">
         <v>739</v>
       </c>
-      <c r="U19" s="33">
+      <c r="U19" s="32">
         <v>560</v>
       </c>
-      <c r="V19" s="39">
+      <c r="V19" s="38">
         <v>4804</v>
       </c>
       <c r="W19" s="20"/>
@@ -58602,25 +58528,25 @@
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
-      <c r="P20" s="38" t="str">
+      <c r="P20" s="37" t="str">
         <v>C0004</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="Q20" s="32">
         <v>1991</v>
       </c>
-      <c r="R20" s="33">
+      <c r="R20" s="32">
         <v>1886</v>
       </c>
-      <c r="S20" s="33">
+      <c r="S20" s="32">
         <v>1206</v>
       </c>
-      <c r="T20" s="33">
+      <c r="T20" s="32">
         <v>884</v>
       </c>
-      <c r="U20" s="33">
+      <c r="U20" s="32">
         <v>1722</v>
       </c>
-      <c r="V20" s="39">
+      <c r="V20" s="38">
         <v>7689</v>
       </c>
       <c r="W20" s="20"/>
@@ -58646,25 +58572,25 @@
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
-      <c r="P21" s="38" t="str">
+      <c r="P21" s="37" t="str">
         <v>C0011</v>
       </c>
-      <c r="Q21" s="33">
+      <c r="Q21" s="32">
         <v>1163</v>
       </c>
-      <c r="R21" s="33">
+      <c r="R21" s="32">
         <v>1180</v>
       </c>
-      <c r="S21" s="33">
+      <c r="S21" s="32">
         <v>1616</v>
       </c>
-      <c r="T21" s="33">
+      <c r="T21" s="32">
         <v>1043</v>
       </c>
-      <c r="U21" s="33">
+      <c r="U21" s="32">
         <v>1747</v>
       </c>
-      <c r="V21" s="39">
+      <c r="V21" s="38">
         <v>6749</v>
       </c>
       <c r="W21" s="20"/>
@@ -58690,25 +58616,25 @@
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
-      <c r="P22" s="38" t="str">
+      <c r="P22" s="37" t="str">
         <v>C0012</v>
       </c>
-      <c r="Q22" s="33">
+      <c r="Q22" s="32">
         <v>1438</v>
       </c>
-      <c r="R22" s="33">
+      <c r="R22" s="32">
         <v>1616</v>
       </c>
-      <c r="S22" s="33">
+      <c r="S22" s="32">
         <v>866</v>
       </c>
-      <c r="T22" s="33">
+      <c r="T22" s="32">
         <v>829</v>
       </c>
-      <c r="U22" s="33">
+      <c r="U22" s="32">
         <v>2070</v>
       </c>
-      <c r="V22" s="39">
+      <c r="V22" s="38">
         <v>6819</v>
       </c>
       <c r="W22" s="20"/>
@@ -58734,25 +58660,25 @@
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
-      <c r="P23" s="46" t="str">
+      <c r="P23" s="45" t="str">
         <v>Cleveland</v>
       </c>
-      <c r="Q23" s="33" t="str">
+      <c r="Q23" s="32" t="str">
         <v/>
       </c>
-      <c r="R23" s="33" t="str">
+      <c r="R23" s="32" t="str">
         <v/>
       </c>
-      <c r="S23" s="33" t="str">
+      <c r="S23" s="32" t="str">
         <v/>
       </c>
-      <c r="T23" s="33" t="str">
+      <c r="T23" s="32" t="str">
         <v/>
       </c>
-      <c r="U23" s="33" t="str">
+      <c r="U23" s="32" t="str">
         <v/>
       </c>
-      <c r="V23" s="39" t="str">
+      <c r="V23" s="38" t="str">
         <v/>
       </c>
       <c r="W23" s="20"/>
@@ -58778,25 +58704,25 @@
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
-      <c r="P24" s="38" t="str">
+      <c r="P24" s="37" t="str">
         <v>C0002</v>
       </c>
-      <c r="Q24" s="33">
+      <c r="Q24" s="32">
         <v>1233</v>
       </c>
-      <c r="R24" s="33">
+      <c r="R24" s="32">
         <v>223</v>
       </c>
-      <c r="S24" s="33">
+      <c r="S24" s="32">
         <v>1680</v>
       </c>
-      <c r="T24" s="33">
+      <c r="T24" s="32">
         <v>990</v>
       </c>
-      <c r="U24" s="33">
+      <c r="U24" s="32">
         <v>1508</v>
       </c>
-      <c r="V24" s="39">
+      <c r="V24" s="38">
         <v>5634</v>
       </c>
       <c r="W24" s="20"/>
@@ -58822,25 +58748,25 @@
       <c r="M25" s="20"/>
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
-      <c r="P25" s="38" t="str">
+      <c r="P25" s="37" t="str">
         <v>C0007</v>
       </c>
-      <c r="Q25" s="33">
+      <c r="Q25" s="32">
         <v>1598</v>
       </c>
-      <c r="R25" s="33">
+      <c r="R25" s="32">
         <v>1907</v>
       </c>
-      <c r="S25" s="33">
+      <c r="S25" s="32">
         <v>869</v>
       </c>
-      <c r="T25" s="33">
+      <c r="T25" s="32">
         <v>1426</v>
       </c>
-      <c r="U25" s="33">
+      <c r="U25" s="32">
         <v>1416</v>
       </c>
-      <c r="V25" s="39">
+      <c r="V25" s="38">
         <v>7216</v>
       </c>
       <c r="W25" s="20"/>
@@ -58866,25 +58792,25 @@
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
-      <c r="P26" s="38" t="str">
+      <c r="P26" s="37" t="str">
         <v>C0008</v>
       </c>
-      <c r="Q26" s="33">
+      <c r="Q26" s="32">
         <v>900</v>
       </c>
-      <c r="R26" s="33">
+      <c r="R26" s="32">
         <v>1016</v>
       </c>
-      <c r="S26" s="33">
+      <c r="S26" s="32">
         <v>960</v>
       </c>
-      <c r="T26" s="33">
+      <c r="T26" s="32">
         <v>940</v>
       </c>
-      <c r="U26" s="33">
+      <c r="U26" s="32">
         <v>1193</v>
       </c>
-      <c r="V26" s="39">
+      <c r="V26" s="38">
         <v>5009</v>
       </c>
       <c r="W26" s="20"/>
@@ -58910,25 +58836,25 @@
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
-      <c r="P27" s="38" t="str">
+      <c r="P27" s="37" t="str">
         <v>C0010</v>
       </c>
-      <c r="Q27" s="33">
+      <c r="Q27" s="32">
         <v>900</v>
       </c>
-      <c r="R27" s="33">
+      <c r="R27" s="32">
         <v>1470</v>
       </c>
-      <c r="S27" s="33">
+      <c r="S27" s="32">
         <v>1617</v>
       </c>
-      <c r="T27" s="33">
+      <c r="T27" s="32">
         <v>1314</v>
       </c>
-      <c r="U27" s="33">
+      <c r="U27" s="32">
         <v>941</v>
       </c>
-      <c r="V27" s="39">
+      <c r="V27" s="38">
         <v>6242</v>
       </c>
       <c r="W27" s="20"/>
@@ -58954,25 +58880,25 @@
       <c r="M28" s="20"/>
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
-      <c r="P28" s="38" t="str">
+      <c r="P28" s="37" t="str">
         <v>C0013</v>
       </c>
-      <c r="Q28" s="33">
+      <c r="Q28" s="32">
         <v>1255</v>
       </c>
-      <c r="R28" s="33">
+      <c r="R28" s="32">
         <v>516</v>
       </c>
-      <c r="S28" s="33">
+      <c r="S28" s="32">
         <v>1874</v>
       </c>
-      <c r="T28" s="33">
+      <c r="T28" s="32">
         <v>1863</v>
       </c>
-      <c r="U28" s="33">
+      <c r="U28" s="32">
         <v>1722</v>
       </c>
-      <c r="V28" s="39">
+      <c r="V28" s="38">
         <v>7230</v>
       </c>
       <c r="W28" s="20"/>
@@ -58998,25 +58924,25 @@
       <c r="M29" s="20"/>
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
-      <c r="P29" s="38" t="str">
+      <c r="P29" s="37" t="str">
         <v>C0015</v>
       </c>
-      <c r="Q29" s="33">
+      <c r="Q29" s="32">
         <v>1138</v>
       </c>
-      <c r="R29" s="33">
+      <c r="R29" s="32">
         <v>1898</v>
       </c>
-      <c r="S29" s="33">
+      <c r="S29" s="32">
         <v>1482</v>
       </c>
-      <c r="T29" s="33">
+      <c r="T29" s="32">
         <v>846</v>
       </c>
-      <c r="U29" s="33">
+      <c r="U29" s="32">
         <v>1154</v>
       </c>
-      <c r="V29" s="39">
+      <c r="V29" s="38">
         <v>6518</v>
       </c>
       <c r="W29" s="20"/>
@@ -59042,25 +58968,25 @@
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
-      <c r="P30" s="46" t="str">
+      <c r="P30" s="45" t="str">
         <v>Columbus</v>
       </c>
-      <c r="Q30" s="33" t="str">
+      <c r="Q30" s="32" t="str">
         <v/>
       </c>
-      <c r="R30" s="33" t="str">
+      <c r="R30" s="32" t="str">
         <v/>
       </c>
-      <c r="S30" s="33" t="str">
+      <c r="S30" s="32" t="str">
         <v/>
       </c>
-      <c r="T30" s="33" t="str">
+      <c r="T30" s="32" t="str">
         <v/>
       </c>
-      <c r="U30" s="33" t="str">
+      <c r="U30" s="32" t="str">
         <v/>
       </c>
-      <c r="V30" s="39" t="str">
+      <c r="V30" s="38" t="str">
         <v/>
       </c>
       <c r="W30" s="20"/>
@@ -59084,27 +59010,30 @@
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="38" t="str">
+      <c r="N31" s="50" t="str">
+        <f>Image</f>
+        <v>R05</v>
+      </c>
+      <c r="O31" s="51"/>
+      <c r="P31" s="37" t="str">
         <v>C0001</v>
       </c>
-      <c r="Q31" s="33">
+      <c r="Q31" s="32">
         <v>1655</v>
       </c>
-      <c r="R31" s="33">
+      <c r="R31" s="32">
         <v>805</v>
       </c>
-      <c r="S31" s="33">
+      <c r="S31" s="32">
         <v>2263</v>
       </c>
-      <c r="T31" s="33">
+      <c r="T31" s="32">
         <v>987</v>
       </c>
-      <c r="U31" s="33">
+      <c r="U31" s="32">
         <v>1075</v>
       </c>
-      <c r="V31" s="39">
+      <c r="V31" s="38">
         <v>6785</v>
       </c>
       <c r="W31" s="20"/>
@@ -59128,27 +59057,30 @@
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="38" t="str">
+      <c r="N32" s="52" t="str">
+        <f>Pivots!I62</f>
+        <v>% of calls: 20%</v>
+      </c>
+      <c r="O32" s="53"/>
+      <c r="P32" s="37" t="str">
         <v>C0005</v>
       </c>
-      <c r="Q32" s="33">
+      <c r="Q32" s="32">
         <v>1104</v>
       </c>
-      <c r="R32" s="33">
+      <c r="R32" s="32">
         <v>2280</v>
       </c>
-      <c r="S32" s="33">
+      <c r="S32" s="32">
         <v>1445</v>
       </c>
-      <c r="T32" s="33">
+      <c r="T32" s="32">
         <v>1722</v>
       </c>
-      <c r="U32" s="33">
+      <c r="U32" s="32">
         <v>1196</v>
       </c>
-      <c r="V32" s="39">
+      <c r="V32" s="38">
         <v>7747</v>
       </c>
       <c r="W32" s="20"/>
@@ -59172,27 +59104,30 @@
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="38" t="str">
+      <c r="N33" s="52" t="str">
+        <f>Pivots!I63</f>
+        <v>Call Rank: 3</v>
+      </c>
+      <c r="O33" s="53"/>
+      <c r="P33" s="37" t="str">
         <v>C0006</v>
       </c>
-      <c r="Q33" s="33">
+      <c r="Q33" s="32">
         <v>372</v>
       </c>
-      <c r="R33" s="33">
+      <c r="R33" s="32">
         <v>1818</v>
       </c>
-      <c r="S33" s="33">
+      <c r="S33" s="32">
         <v>1346</v>
       </c>
-      <c r="T33" s="33">
+      <c r="T33" s="32">
         <v>1156</v>
       </c>
-      <c r="U33" s="33">
+      <c r="U33" s="32">
         <v>1484</v>
       </c>
-      <c r="V33" s="39">
+      <c r="V33" s="38">
         <v>6176</v>
       </c>
       <c r="W33" s="20"/>
@@ -59202,7 +59137,7 @@
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
     </row>
-    <row r="34" spans="1:28" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -59213,36 +59148,33 @@
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
-      <c r="K34" s="20" t="str">
-        <f>Assets!E3</f>
-        <v>R01</v>
-      </c>
-      <c r="L34" s="20">
-        <f>Assets!F3</f>
-        <v>0</v>
-      </c>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
       <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="38" t="str">
+      <c r="N34" s="54" t="str">
+        <f>Pivots!I64</f>
+        <v>Amount Rank: 3</v>
+      </c>
+      <c r="O34" s="55"/>
+      <c r="P34" s="37" t="str">
         <v>C0009</v>
       </c>
-      <c r="Q34" s="33">
+      <c r="Q34" s="32">
         <v>1415</v>
       </c>
-      <c r="R34" s="33">
+      <c r="R34" s="32">
         <v>1271</v>
       </c>
-      <c r="S34" s="33">
+      <c r="S34" s="32">
         <v>1214</v>
       </c>
-      <c r="T34" s="33">
+      <c r="T34" s="32">
         <v>1135</v>
       </c>
-      <c r="U34" s="33">
+      <c r="U34" s="32">
         <v>1566</v>
       </c>
-      <c r="V34" s="39">
+      <c r="V34" s="38">
         <v>6601</v>
       </c>
       <c r="W34" s="20"/>
@@ -59263,36 +59195,30 @@
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
-      <c r="K35" s="20" t="str">
-        <f>Assets!E4</f>
-        <v>R02</v>
-      </c>
-      <c r="L35" s="20">
-        <f>Assets!F4</f>
-        <v>0</v>
-      </c>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
       <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="40" t="str">
+      <c r="N35" s="48"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="39" t="str">
         <v>C0014</v>
       </c>
-      <c r="Q35" s="41">
+      <c r="Q35" s="40">
         <v>1362</v>
       </c>
-      <c r="R35" s="41">
+      <c r="R35" s="40">
         <v>1363</v>
       </c>
-      <c r="S35" s="41">
+      <c r="S35" s="40">
         <v>1152</v>
       </c>
-      <c r="T35" s="41">
+      <c r="T35" s="40">
         <v>777</v>
       </c>
-      <c r="U35" s="41">
+      <c r="U35" s="40">
         <v>750</v>
       </c>
-      <c r="V35" s="42">
+      <c r="V35" s="41">
         <v>5404</v>
       </c>
       <c r="W35" s="20"/>
@@ -59313,10 +59239,7 @@
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
-      <c r="K36" s="20" t="str">
-        <f>Assets!E5</f>
-        <v>R03</v>
-      </c>
+      <c r="K36" s="20"/>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
@@ -59346,14 +59269,8 @@
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
-      <c r="K37" s="20" t="str">
-        <f>Assets!E6</f>
-        <v>R04</v>
-      </c>
-      <c r="L37" s="20">
-        <f>Assets!F6</f>
-        <v>0</v>
-      </c>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
       <c r="M37" s="20"/>
       <c r="N37" s="20"/>
       <c r="O37" s="20"/>
@@ -59382,14 +59299,8 @@
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
-      <c r="K38" s="20" t="str">
-        <f>Assets!E7</f>
-        <v>R05</v>
-      </c>
-      <c r="L38" s="20">
-        <f>Assets!F7</f>
-        <v>0</v>
-      </c>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
       <c r="O38" s="20"/>
@@ -60698,6 +60609,13 @@
       <c r="AB81" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+  </mergeCells>
   <conditionalFormatting sqref="P18:U18 P19:P35">
     <cfRule type="dataBar" priority="3">
       <dataBar>
@@ -60802,7 +60720,7 @@
   <dimension ref="C2:G20"/>
   <sheetViews>
     <sheetView zoomScale="121" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="E3:F7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PortfolioProject.xlsx
+++ b/PortfolioProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69E1AB2-86A1-42EC-86B7-84909D975997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F799B9-BEC5-45C8-B69F-8D77759F2D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
@@ -33,11 +33,11 @@
     <pivotCache cacheId="1" r:id="rId7"/>
     <pivotCache cacheId="2" r:id="rId8"/>
     <pivotCache cacheId="3" r:id="rId9"/>
-    <pivotCache cacheId="109" r:id="rId10"/>
-    <pivotCache cacheId="112" r:id="rId11"/>
-    <pivotCache cacheId="115" r:id="rId12"/>
-    <pivotCache cacheId="118" r:id="rId13"/>
-    <pivotCache cacheId="121" r:id="rId14"/>
+    <pivotCache cacheId="282" r:id="rId10"/>
+    <pivotCache cacheId="285" r:id="rId11"/>
+    <pivotCache cacheId="288" r:id="rId12"/>
+    <pivotCache cacheId="291" r:id="rId13"/>
+    <pivotCache cacheId="294" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
@@ -3866,9 +3866,18 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3887,24 +3896,106 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3963,13 +4054,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -4181,11 +4265,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style 1" pivot="0" table="0" count="1" xr9:uid="{25BABDA2-DB3D-41F6-98D0-3EE7CBB0176F}">
-      <tableStyleElement type="wholeTable" dxfId="26"/>
+      <tableStyleElement type="wholeTable" dxfId="38"/>
     </tableStyle>
     <tableStyle name="SlicerStyleDark5 2" pivot="0" table="0" count="10" xr9:uid="{AD47E305-3DEF-4232-A944-71C987D02AB4}">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
-      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="wholeTable" dxfId="37"/>
+      <tableStyleElement type="headerRow" dxfId="36"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4783,25 +4867,25 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5561,40 +5645,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5711,40 +5795,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6273,7 +6357,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -6285,7 +6369,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6688,7 +6772,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>18415</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -6700,7 +6784,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20104</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7813,19 +7897,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Pivots!$A$68:$A$72</c:f>
+              <c:f>Pivots!$A$68:$A$73</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
@@ -7833,21 +7920,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivots!$B$68:$B$72</c:f>
+              <c:f>Pivots!$B$68:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11572,7 +11662,7 @@
               <a:latin typeface="Aptos Display"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>200</a:t>
+            <a:t>189</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100">
             <a:solidFill>
@@ -11859,7 +11949,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>$20,104</a:t>
+            <a:t>$18,415</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -12149,7 +12239,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>18,209</a:t>
+            <a:t>16,834</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -12634,7 +12724,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>51</a:t>
+            <a:t>60</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -12662,8 +12752,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>53010</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="26" name="Representative">
@@ -12686,7 +12776,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13032,12 +13122,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.58575</cdr:x>
-      <cdr:y>0.05279</cdr:y>
+      <cdr:x>0.64531</cdr:x>
+      <cdr:y>0.0672</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.65172</cdr:x>
-      <cdr:y>0.1261</cdr:y>
+      <cdr:x>0.71199</cdr:x>
+      <cdr:y>0.14129</cdr:y>
     </cdr:to>
     <cdr:pic>
       <cdr:nvPicPr>
@@ -13066,8 +13156,8 @@
       </cdr:blipFill>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1470993" y="119270"/>
-          <a:ext cx="165651" cy="165651"/>
+          <a:off x="1359736" y="125412"/>
+          <a:ext cx="140487" cy="138270"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -14117,7 +14207,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.671736226854" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8858DEE7-94FF-480C-8C61-4947E2F4397B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45993.485416319447" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8858DEE7-94FF-480C-8C61-4947E2F4397B}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="6">
     <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
@@ -14226,7 +14316,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.671736805554" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{E23C2199-6754-4875-997D-89C3EC5D8644}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45993.485416898147" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{E23C2199-6754-4875-997D-89C3EC5D8644}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="5">
     <cacheField name="[calls].[Date of Call].[Date of Call]" caption="Date of Call" numFmtId="0" hierarchy="4" level="1">
@@ -14689,7 +14779,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.671737268516" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0C4F5B91-130A-45D3-84A5-F73746D5FF7D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45993.485417361109" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0C4F5B91-130A-45D3-84A5-F73746D5FF7D}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="3">
     <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
@@ -14794,12 +14884,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.671737615739" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{082C928C-4A34-45A3-8322-8999780F7E1F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45993.485417708333" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{082C928C-4A34-45A3-8322-8999780F7E1F}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="1">
     <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
       <sharedItems count="1">
-        <s v="R05"/>
+        <s v="R01"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -14880,12 +14970,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45992.671737962963" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5287AC46-7848-4031-A9F0-EEE4B770D802}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45993.485418171294" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5287AC46-7848-4031-A9F0-EEE4B770D802}">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Count of Call number]" caption="Count of Call number" numFmtId="0" hierarchy="26" level="32767"/>
     <cacheField name="[calls].[Rating rounded].[Rating rounded]" caption="Rating rounded" numFmtId="0" hierarchy="10" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="5" count="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+        <n v="1"/>
         <n v="2"/>
         <n v="3"/>
         <n v="4"/>
@@ -14894,10 +14985,11 @@
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
           <x15:cachedUniqueNames>
-            <x15:cachedUniqueName index="0" name="[calls].[Rating rounded].&amp;[2]"/>
-            <x15:cachedUniqueName index="1" name="[calls].[Rating rounded].&amp;[3]"/>
-            <x15:cachedUniqueName index="2" name="[calls].[Rating rounded].&amp;[4]"/>
-            <x15:cachedUniqueName index="3" name="[calls].[Rating rounded].&amp;[5]"/>
+            <x15:cachedUniqueName index="0" name="[calls].[Rating rounded].&amp;[1]"/>
+            <x15:cachedUniqueName index="1" name="[calls].[Rating rounded].&amp;[2]"/>
+            <x15:cachedUniqueName index="2" name="[calls].[Rating rounded].&amp;[3]"/>
+            <x15:cachedUniqueName index="3" name="[calls].[Rating rounded].&amp;[4]"/>
+            <x15:cachedUniqueName index="4" name="[calls].[Rating rounded].&amp;[5]"/>
           </x15:cachedUniqueNames>
         </ext>
       </extLst>
@@ -14991,89 +15083,55 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC07D0C4-1C20-4975-A7EE-394D315C4D33}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
-  <location ref="A58:D63" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="282" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A10:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="6">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
     <i>
       <x/>
     </i>
-    <i>
+    <i i="1">
       <x v="1"/>
     </i>
-    <i>
+    <i i="2">
       <x v="2"/>
     </i>
-    <i t="grand">
-      <x/>
+    <i i="3">
+      <x v="3"/>
     </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
+    <i i="4">
+      <x v="4"/>
     </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="5">
+    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
     <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="30" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="30" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotHierarchies count="28">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R01]"/>
+      </members>
+    </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -15100,19 +15158,15 @@
     <pivotHierarchy dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="15"/>
-  </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="13"/>
+    <colHierarchyUsage hierarchyUsage="-2"/>
   </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[customers]"/>
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
         <x15:activeTabTopLevelEntity name="[calls]"/>
       </x15:pivotTableUISettings>
     </ext>
@@ -15124,188 +15178,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FF85D9D-1E8B-4493-B048-BC66BC26138C}" name="rep amounts" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
-  <location ref="A79:G98" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="18">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="15"/>
-    <rowHierarchyUsage hierarchyUsage="12"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="3"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[customers]"/>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06AD5479-9280-469F-AA3D-CDBD749637C2}" name="reps pivot" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A44:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
@@ -15412,8 +15284,196 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFED1980-F3DA-4181-984C-133E7C44C6C1}" name="seleted rep" cacheId="291" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A55:A56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="1">
+        <item s="1" x="0"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x/>
+    </i>
+  </rowItems>
+  <formats count="1">
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="WeekDay trend" cacheId="115" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{549B98BD-FAF4-46D6-9974-A86D8A646DF5}" name="rep satisfaction" cacheId="294" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="45">
+  <location ref="A67:B73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Call number" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="38" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R01]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="10"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[customers]"/>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="WeekDay trend" cacheId="288" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="A31:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
@@ -15521,7 +15581,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R05]"/>
+        <member name="[calls].[Representative].&amp;[R01]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -15569,8 +15629,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="Monthly Trend" cacheId="112" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="Monthly Trend" cacheId="285" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A15:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -16055,7 +16115,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R05]"/>
+        <member name="[calls].[Representative].&amp;[R01]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -16114,7 +16174,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{213820C0-D94F-4B7D-8DDB-DD3DC44499E7}" name="Summary" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
@@ -16204,56 +16264,90 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="109" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A10:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="6">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC07D0C4-1C20-4975-A7EE-394D315C4D33}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
+  <location ref="A58:D63" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
     <i>
       <x/>
     </i>
-    <i i="1">
+    <i>
       <x v="1"/>
     </i>
-    <i i="2">
+    <i>
       <x v="2"/>
     </i>
-    <i i="3">
-      <x v="3"/>
+    <i t="grand">
+      <x/>
     </i>
-    <i i="4">
-      <x v="4"/>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
     </i>
   </colItems>
-  <dataFields count="5">
-    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  <dataFields count="1">
     <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="30" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="30" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotHierarchies count="28">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R05]"/>
-      </members>
-    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -16280,15 +16374,19 @@
     <pivotHierarchy dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="15"/>
+  </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
+    <colHierarchyUsage hierarchyUsage="13"/>
   </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[customers]"/>
         <x15:activeTabTopLevelEntity name="[calls]"/>
       </x15:pivotTableUISettings>
     </ext>
@@ -16299,33 +16397,133 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFED1980-F3DA-4181-984C-133E7C44C6C1}" name="seleted rep" cacheId="118" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A55:A56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="1">
-        <item s="1" x="0"/>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FF85D9D-1E8B-4493-B048-BC66BC26138C}" name="rep amounts" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
+  <location ref="A79:G98" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
       </items>
     </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="1">
+  <rowItems count="18">
     <i>
       <x/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
   </rowItems>
-  <formats count="1">
-    <format dxfId="22">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotHierarchies count="28">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -16357,115 +16555,13 @@
     <pivotHierarchy dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="3"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="15"/>
+    <rowHierarchyUsage hierarchyUsage="12"/>
   </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{549B98BD-FAF4-46D6-9974-A86D8A646DF5}" name="rep satisfaction" cacheId="121" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
-  <location ref="A67:B72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Call number" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="38" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R05]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="10"/>
-  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="3"/>
+  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
@@ -16546,7 +16642,7 @@
         </level>
       </levels>
       <selections count="1">
-        <selection n="[calls].[Representative].&amp;[R05]"/>
+        <selection n="[calls].[Representative].&amp;[R01]"/>
       </selections>
     </olap>
   </data>
@@ -16567,7 +16663,7 @@
     <tableColumn id="2" xr3:uid="{DC6D7266-1D9C-4237-9B64-E741F6A96DDD}" uniqueName="2" name="calls[Customer ID]" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{FCC8372B-E286-44CC-A869-52814C18EDD3}" uniqueName="3" name="calls[Duration]" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{B4D9CBBB-E978-45B6-9ED0-3BE55233281B}" uniqueName="4" name="calls[Representative]" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{F8903E70-C355-4DB1-B563-67F99262BC65}" uniqueName="5" name="calls[Date of Call]" queryTableFieldId="5" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{F8903E70-C355-4DB1-B563-67F99262BC65}" uniqueName="5" name="calls[Date of Call]" queryTableFieldId="5" dataDxfId="35"/>
     <tableColumn id="6" xr3:uid="{2A1C27E0-4470-4602-AA09-99536A8C23F1}" uniqueName="6" name="calls[Purchase Amount]" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{D170794A-0D44-426F-A00A-295590960394}" uniqueName="7" name="calls[Satisfaction Rating]" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{9E1B2984-7818-465B-A171-6C4CB8B8ADC7}" uniqueName="8" name="calls[FY]" queryTableFieldId="8"/>
@@ -16588,20 +16684,20 @@
     <tableColumn id="1" xr3:uid="{A2AD6D5F-C481-4C4C-930A-923A5754639A}" name="Call number"/>
     <tableColumn id="2" xr3:uid="{6E1FEEB5-4749-4689-ACB4-6B80FABDC996}" name="Customer ID"/>
     <tableColumn id="3" xr3:uid="{BEB7BC5B-9542-4200-B3AF-209D2A736D88}" name="Duration"/>
-    <tableColumn id="4" xr3:uid="{A1817995-EFD7-4CEA-BF34-093CA60B7490}" name="Representative" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{5A35565E-8707-4DED-AD15-A0669D67B382}" name="Date of Call" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{A1817995-EFD7-4CEA-BF34-093CA60B7490}" name="Representative" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{5A35565E-8707-4DED-AD15-A0669D67B382}" name="Date of Call" dataDxfId="32"/>
     <tableColumn id="6" xr3:uid="{F2E4F158-B41F-47BC-8DF8-DFCADFEE4E40}" name="Purchase Amount"/>
     <tableColumn id="7" xr3:uid="{04B291B5-47BD-4F78-8FD8-D1551CCA6BD9}" name="Satisfaction Rating"/>
-    <tableColumn id="8" xr3:uid="{6E4123C0-0B17-43B8-A142-A1E540CE974C}" name="FY" dataDxfId="19">
+    <tableColumn id="8" xr3:uid="{6E4123C0-0B17-43B8-A142-A1E540CE974C}" name="FY" dataDxfId="31">
       <calculatedColumnFormula>IF(MONTH(calls[[#This Row],[Date of Call]])&lt;=6, YEAR(calls[[#This Row],[Date of Call]]), YEAR(calls[[#This Row],[Date of Call]])+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{199FA271-5E9B-46CE-9BC6-2801F92CD17E}" name="Day of week" dataDxfId="18">
+    <tableColumn id="9" xr3:uid="{199FA271-5E9B-46CE-9BC6-2801F92CD17E}" name="Day of week" dataDxfId="30">
       <calculatedColumnFormula>TEXT(calls[[#This Row],[Date of Call]],"DDDD")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{328CDB09-95B8-4D5E-9ED9-EF0D363735A1}" name="Duration Bucket" dataDxfId="17">
+    <tableColumn id="10" xr3:uid="{328CDB09-95B8-4D5E-9ED9-EF0D363735A1}" name="Duration Bucket" dataDxfId="29">
       <calculatedColumnFormula array="1">_xlfn.IFS(calls[[#This Row],[Duration]]&lt;=10,"Under 10 mins", calls[[#This Row],[Duration]]&lt;=30, "10 to 30 mins", calls[[#This Row],[Duration]]&lt;=60, "30 to 60 mins", calls[[#This Row],[Duration]]&lt;=120, "1 to 2 hours", TRUE, "More than 2 hours")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{31C7E7FB-94CB-4DAB-B0CB-46B648CD4D41}" name="Rating rounded" dataDxfId="16">
+    <tableColumn id="11" xr3:uid="{31C7E7FB-94CB-4DAB-B0CB-46B648CD4D41}" name="Rating rounded" dataDxfId="28">
       <calculatedColumnFormula>ROUND(calls[[#This Row],[Satisfaction Rating]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16610,13 +16706,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}" name="customers" displayName="customers" ref="Q3:T18" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}" name="customers" displayName="customers" ref="Q3:T18" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="Q3:T18" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{02688061-6A8C-4E23-B7FF-D00CD8B58CAC}" name="Customer ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{771678B6-DB44-426B-9874-B4E421A440D5}" name="Gedner" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{B0D41C62-587E-494D-B49A-603F2C05F8D3}" name="Age" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{663F92D6-FE31-4D81-9E01-8D066DDC8A88}" name="City" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{02688061-6A8C-4E23-B7FF-D00CD8B58CAC}" name="Customer ID" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{771678B6-DB44-426B-9874-B4E421A440D5}" name="Gedner" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{B0D41C62-587E-494D-B49A-603F2C05F8D3}" name="Age" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{663F92D6-FE31-4D81-9E01-8D066DDC8A88}" name="City" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17548,19 +17644,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B11" s="22">
-        <v>20104</v>
+        <v>18415</v>
       </c>
       <c r="C11" s="21">
-        <v>18209</v>
+        <v>16834</v>
       </c>
       <c r="D11" s="23">
-        <v>3.8824999999999998</v>
+        <v>3.9227513227513247</v>
       </c>
       <c r="E11" s="21">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -17584,10 +17680,10 @@
         <v>1050</v>
       </c>
       <c r="B16" s="21">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16" s="21">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -17595,10 +17691,10 @@
         <v>1051</v>
       </c>
       <c r="B17" s="21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17" s="21">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -17606,10 +17702,10 @@
         <v>1052</v>
       </c>
       <c r="B18" s="21">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C18" s="21">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -17617,10 +17713,10 @@
         <v>1053</v>
       </c>
       <c r="B19" s="21">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C19" s="21">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -17628,10 +17724,10 @@
         <v>1054</v>
       </c>
       <c r="B20" s="21">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C20" s="21">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -17639,10 +17735,10 @@
         <v>1055</v>
       </c>
       <c r="B21" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C21" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -17650,10 +17746,10 @@
         <v>1056</v>
       </c>
       <c r="B22" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C22" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -17672,10 +17768,10 @@
         <v>1058</v>
       </c>
       <c r="B24" s="21">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C24" s="21">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -17694,10 +17790,10 @@
         <v>1060</v>
       </c>
       <c r="B26" s="21">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C26" s="21">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -17705,10 +17801,10 @@
         <v>1061</v>
       </c>
       <c r="B27" s="21">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C27" s="21">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -17716,10 +17812,10 @@
         <v>1049</v>
       </c>
       <c r="B28" s="21">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C28" s="21">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -17735,7 +17831,7 @@
         <v>1066</v>
       </c>
       <c r="B32" s="21">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -17743,7 +17839,7 @@
         <v>1064</v>
       </c>
       <c r="B33" s="21">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -17751,7 +17847,7 @@
         <v>1068</v>
       </c>
       <c r="B34" s="21">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -17759,7 +17855,7 @@
         <v>1069</v>
       </c>
       <c r="B35" s="21">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -17767,7 +17863,7 @@
         <v>1067</v>
       </c>
       <c r="B36" s="21">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -17775,7 +17871,7 @@
         <v>1063</v>
       </c>
       <c r="B37" s="21">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -17783,7 +17879,7 @@
         <v>1065</v>
       </c>
       <c r="B38" s="21">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -17791,7 +17887,7 @@
         <v>1049</v>
       </c>
       <c r="B39" s="21">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -17812,7 +17908,7 @@
       </c>
       <c r="I44" t="str">
         <f>A56</f>
-        <v>R05</v>
+        <v>R01</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -17861,13 +17957,13 @@
       <c r="G46" s="26">
         <v>18415</v>
       </c>
-      <c r="H46" t="e">
+      <c r="H46">
         <f>IF(E46=$I$44,F46,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I46" t="e">
+        <v>189</v>
+      </c>
+      <c r="I46">
         <f>IF(E46=$I$44,G46,NA())</f>
-        <v>#N/A</v>
+        <v>18415</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -17973,13 +18069,13 @@
       <c r="G50" s="26">
         <v>20104</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="e">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="I50">
+        <v>#N/A</v>
+      </c>
+      <c r="I50" t="e">
         <f t="shared" si="1"/>
-        <v>20104</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -17996,19 +18092,19 @@
       </c>
       <c r="I55" s="46">
         <f>A11/A4</f>
-        <v>0.2</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H56" t="s">
         <v>1073</v>
       </c>
       <c r="I56">
         <f>_xlfn.XLOOKUP(A56,E46:E50,F46:F50)</f>
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -18017,7 +18113,7 @@
       </c>
       <c r="I57">
         <f>_xlfn.XLOOKUP(A56,E46:E50,G46:G50)</f>
-        <v>20104</v>
+        <v>18415</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -18032,7 +18128,7 @@
       </c>
       <c r="I58">
         <f>_xlfn.RANK.AVG(I56,F46:F50)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -18053,7 +18149,7 @@
       </c>
       <c r="I59">
         <f>_xlfn.RANK.AVG(I57,G46:G50)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -18102,7 +18198,7 @@
       </c>
       <c r="I62" t="str">
         <f>"% of calls: "&amp;TEXT(I55,"0%")</f>
-        <v>% of calls: 20%</v>
+        <v>% of calls: 19%</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -18120,13 +18216,13 @@
       </c>
       <c r="I63" t="str">
         <f>"Call Rank: "&amp;I58</f>
-        <v>Call Rank: 3</v>
+        <v>Call Rank: 4</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I64" t="str">
         <f>"Amount Rank: "&amp;I59</f>
-        <v>Amount Rank: 3</v>
+        <v>Amount Rank: 4</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -18135,7 +18231,7 @@
       </c>
       <c r="I66" t="str">
         <f>_xlfn.XLOOKUP(A56,Assets!$E$3:$E$7,Pivots!G68:G72)</f>
-        <v>R05</v>
+        <v>R01</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -18148,10 +18244,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="25">
-        <v>2</v>
-      </c>
-      <c r="B68" s="47">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B68" s="59">
+        <v>1</v>
       </c>
       <c r="G68" t="s">
         <v>11</v>
@@ -18159,10 +18255,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="25">
-        <v>3</v>
-      </c>
-      <c r="B69" s="47">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="B69" s="59">
+        <v>9</v>
       </c>
       <c r="G69" t="s">
         <v>9</v>
@@ -18170,10 +18266,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="25">
-        <v>4</v>
-      </c>
-      <c r="B70" s="47">
-        <v>95</v>
+        <v>3</v>
+      </c>
+      <c r="B70" s="59">
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>6</v>
@@ -18181,24 +18277,32 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="25">
-        <v>5</v>
-      </c>
-      <c r="B71" s="47">
-        <v>51</v>
+        <v>4</v>
+      </c>
+      <c r="B71" s="59">
+        <v>88</v>
       </c>
       <c r="G71" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="25" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B72" s="47">
-        <v>200</v>
+      <c r="A72" s="25">
+        <v>5</v>
+      </c>
+      <c r="B72" s="59">
+        <v>60</v>
       </c>
       <c r="G72" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="25" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B73" s="59">
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -57884,8 +57988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00F2D57-6A6B-4B4C-88B6-CD6A1F8BA299}">
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57928,12 +58032,12 @@
     </row>
     <row r="2" spans="1:28" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="48" t="s">
         <v>1110</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -57960,10 +58064,10 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
@@ -59010,11 +59114,11 @@
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
-      <c r="N31" s="50" t="str">
+      <c r="N31" s="51" t="str">
         <f>Image</f>
-        <v>R05</v>
-      </c>
-      <c r="O31" s="51"/>
+        <v>R01</v>
+      </c>
+      <c r="O31" s="52"/>
       <c r="P31" s="37" t="str">
         <v>C0001</v>
       </c>
@@ -59057,11 +59161,11 @@
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
-      <c r="N32" s="52" t="str">
+      <c r="N32" s="53" t="str">
         <f>Pivots!I62</f>
-        <v>% of calls: 20%</v>
-      </c>
-      <c r="O32" s="53"/>
+        <v>% of calls: 19%</v>
+      </c>
+      <c r="O32" s="54"/>
       <c r="P32" s="37" t="str">
         <v>C0005</v>
       </c>
@@ -59104,11 +59208,11 @@
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
-      <c r="N33" s="52" t="str">
+      <c r="N33" s="53" t="str">
         <f>Pivots!I63</f>
-        <v>Call Rank: 3</v>
-      </c>
-      <c r="O33" s="53"/>
+        <v>Call Rank: 4</v>
+      </c>
+      <c r="O33" s="54"/>
       <c r="P33" s="37" t="str">
         <v>C0006</v>
       </c>
@@ -59151,11 +59255,11 @@
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
-      <c r="N34" s="54" t="str">
+      <c r="N34" s="55" t="str">
         <f>Pivots!I64</f>
-        <v>Amount Rank: 3</v>
-      </c>
-      <c r="O34" s="55"/>
+        <v>Amount Rank: 4</v>
+      </c>
+      <c r="O34" s="56"/>
       <c r="P34" s="37" t="str">
         <v>C0009</v>
       </c>
@@ -59198,8 +59302,8 @@
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="49"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="58"/>
       <c r="P35" s="39" t="str">
         <v>C0014</v>
       </c>
